--- a/src/main/resources/excel/meetingSheet_2nd2term.xlsx
+++ b/src/main/resources/excel/meetingSheet_2nd2term.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yamazakikeisuke/IdeaProjects/student_management_system/src/main/resources/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328E0D50-1976-C44B-8E22-798F7CA21018}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F87765C-E5FC-0C46-BDBF-9ABDF746E0CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3540" yWindow="1460" windowWidth="25260" windowHeight="16540" xr2:uid="{B568BDAE-9867-864B-9F86-2CF23C3644F0}"/>
   </bookViews>
@@ -1567,7 +1567,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1796,6 +1796,225 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1808,6 +2027,33 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1820,263 +2066,11 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2433,86 +2427,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="15" customHeight="1">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="131" t="s">
+      <c r="B1" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="131"/>
-      <c r="O1" s="131"/>
-      <c r="P1" s="131"/>
-      <c r="Q1" s="131"/>
-      <c r="R1" s="131"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104"/>
+      <c r="O1" s="104"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104"/>
+      <c r="R1" s="104"/>
       <c r="S1" s="3"/>
-      <c r="T1" s="105" t="s">
+      <c r="T1" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="U1" s="106"/>
-      <c r="V1" s="106"/>
-      <c r="W1" s="105" t="s">
+      <c r="U1" s="107"/>
+      <c r="V1" s="107"/>
+      <c r="W1" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="X1" s="106"/>
-      <c r="Y1" s="106"/>
-      <c r="Z1" s="106"/>
-      <c r="AA1" s="106"/>
-      <c r="AB1" s="106"/>
+      <c r="X1" s="107"/>
+      <c r="Y1" s="107"/>
+      <c r="Z1" s="107"/>
+      <c r="AA1" s="107"/>
+      <c r="AB1" s="107"/>
       <c r="AC1" s="2"/>
     </row>
     <row r="2" spans="1:29" ht="25" customHeight="1">
-      <c r="A2" s="130"/>
-      <c r="B2" s="132"/>
-      <c r="C2" s="132"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="132"/>
-      <c r="G2" s="132"/>
-      <c r="H2" s="132"/>
-      <c r="I2" s="132"/>
-      <c r="J2" s="132"/>
-      <c r="K2" s="132"/>
-      <c r="L2" s="132"/>
-      <c r="M2" s="132"/>
-      <c r="N2" s="132"/>
-      <c r="O2" s="132"/>
-      <c r="P2" s="132"/>
-      <c r="Q2" s="132"/>
-      <c r="R2" s="132"/>
+      <c r="A2" s="103"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="105"/>
+      <c r="N2" s="105"/>
+      <c r="O2" s="105"/>
+      <c r="P2" s="105"/>
+      <c r="Q2" s="105"/>
+      <c r="R2" s="105"/>
       <c r="S2" s="6"/>
-      <c r="T2" s="107" t="s">
+      <c r="T2" s="129" t="s">
         <v>76</v>
       </c>
-      <c r="U2" s="108"/>
-      <c r="V2" s="108"/>
-      <c r="W2" s="129"/>
-      <c r="X2" s="129"/>
-      <c r="Y2" s="129"/>
-      <c r="Z2" s="129"/>
-      <c r="AA2" s="129"/>
-      <c r="AB2" s="129"/>
+      <c r="U2" s="130"/>
+      <c r="V2" s="130"/>
+      <c r="W2" s="102"/>
+      <c r="X2" s="102"/>
+      <c r="Y2" s="102"/>
+      <c r="Z2" s="102"/>
+      <c r="AA2" s="102"/>
+      <c r="AB2" s="102"/>
       <c r="AC2" s="7"/>
     </row>
     <row r="3" spans="1:29" ht="18" customHeight="1">
-      <c r="A3" s="125" t="s">
+      <c r="A3" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="133"/>
-      <c r="D3" s="134" t="s">
+      <c r="B3" s="109"/>
+      <c r="D3" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="135"/>
+      <c r="E3" s="81"/>
       <c r="F3" s="12" t="s">
         <v>12</v>
       </c>
@@ -2585,17 +2579,17 @@
       </c>
     </row>
     <row r="4" spans="1:29" ht="18" customHeight="1">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="120" t="str" cm="1">
+      <c r="B4" s="119" t="str" cm="1">
         <f t="array" ref="B4">IFERROR(_xlfn.IFS(P9&gt;9,P9*2+P7,P8&gt;9,P8*2+P7,P7&gt;9,P7*3,P6&gt;9,P6*3,P5&gt;9,P5*3,P4&gt;9,P4*3),"")</f>
         <v/>
       </c>
-      <c r="D4" s="136" t="s">
+      <c r="D4" s="110" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="137"/>
+      <c r="E4" s="111"/>
       <c r="F4" s="16"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
@@ -2623,12 +2617,12 @@
       <c r="AC4" s="44"/>
     </row>
     <row r="5" spans="1:29" ht="18" customHeight="1">
-      <c r="A5" s="115"/>
-      <c r="B5" s="120"/>
-      <c r="D5" s="138" t="s">
+      <c r="A5" s="116"/>
+      <c r="B5" s="119"/>
+      <c r="D5" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="139"/>
+      <c r="E5" s="113"/>
       <c r="F5" s="19"/>
       <c r="G5" s="20"/>
       <c r="H5" s="20"/>
@@ -2656,17 +2650,17 @@
       <c r="AC5" s="44"/>
     </row>
     <row r="6" spans="1:29" ht="18" customHeight="1">
-      <c r="A6" s="115" t="s">
+      <c r="A6" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="120" t="str" cm="1">
+      <c r="B6" s="119" t="str" cm="1">
         <f t="array" ref="B6">IFERROR(_xlfn.IFS(P9&gt;9,P9,P8&gt;9,P8,P7&gt;9,P7,P6&gt;9,P6,P5&gt;9,P5,P4&gt;9,P4),"")</f>
         <v/>
       </c>
-      <c r="D6" s="140" t="s">
+      <c r="D6" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="141"/>
+      <c r="E6" s="115"/>
       <c r="F6" s="23"/>
       <c r="G6" s="24"/>
       <c r="H6" s="24"/>
@@ -2694,12 +2688,12 @@
       <c r="AC6" s="44"/>
     </row>
     <row r="7" spans="1:29" ht="18" customHeight="1">
-      <c r="A7" s="115"/>
-      <c r="B7" s="120"/>
-      <c r="D7" s="142" t="s">
+      <c r="A7" s="116"/>
+      <c r="B7" s="119"/>
+      <c r="D7" s="117" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="143"/>
+      <c r="E7" s="118"/>
       <c r="F7" s="27"/>
       <c r="G7" s="28"/>
       <c r="H7" s="28"/>
@@ -2727,17 +2721,17 @@
       <c r="AC7" s="46"/>
     </row>
     <row r="8" spans="1:29" ht="18" customHeight="1">
-      <c r="A8" s="115" t="s">
+      <c r="A8" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="120" t="str" cm="1">
+      <c r="B8" s="119" t="str" cm="1">
         <f t="array" ref="B8">IFERROR(_xlfn.IFS(K9&gt;9,K9+K7,K8&gt;9,K8+K7,K7&gt;9,K7*2,K6&gt;0,K6*2,K5&gt;0,K5*2,K4&gt;0,K4*2),"")</f>
         <v/>
       </c>
-      <c r="D8" s="109" t="s">
+      <c r="D8" s="131" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="110"/>
+      <c r="E8" s="132"/>
       <c r="F8" s="31"/>
       <c r="G8" s="32"/>
       <c r="H8" s="32"/>
@@ -2765,12 +2759,12 @@
       <c r="AC8" s="66"/>
     </row>
     <row r="9" spans="1:29" ht="18" customHeight="1">
-      <c r="A9" s="115"/>
-      <c r="B9" s="120"/>
-      <c r="D9" s="111" t="s">
+      <c r="A9" s="116"/>
+      <c r="B9" s="119"/>
+      <c r="D9" s="133" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="112"/>
+      <c r="E9" s="134"/>
       <c r="F9" s="27"/>
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
@@ -2798,10 +2792,10 @@
       <c r="AC9" s="44"/>
     </row>
     <row r="10" spans="1:29" ht="18" customHeight="1">
-      <c r="A10" s="115" t="s">
+      <c r="A10" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="120" t="str" cm="1">
+      <c r="B10" s="119" t="str" cm="1">
         <f t="array" ref="B10">IFERROR(_xlfn.IFS(K9&gt;0,K9,K8&gt;0,K8,K7&gt;0,K7,K6&gt;0,K6,K5&gt;0,K5,K4&gt;0,K4),"")</f>
         <v/>
       </c>
@@ -2823,12 +2817,12 @@
       <c r="AC10" s="44"/>
     </row>
     <row r="11" spans="1:29" ht="18" customHeight="1">
-      <c r="A11" s="115"/>
-      <c r="B11" s="120"/>
-      <c r="D11" s="113" t="s">
+      <c r="A11" s="116"/>
+      <c r="B11" s="119"/>
+      <c r="D11" s="135" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="114"/>
+      <c r="E11" s="136"/>
       <c r="F11" s="36" t="s">
         <v>12</v>
       </c>
@@ -2878,17 +2872,17 @@
       <c r="AC11" s="46"/>
     </row>
     <row r="12" spans="1:29" ht="18" customHeight="1">
-      <c r="A12" s="116" t="s">
+      <c r="A12" s="137" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="120" t="str">
+      <c r="B12" s="119" t="str">
         <f>IFERROR(ROUND(B4/135*100,0),"")</f>
         <v/>
       </c>
-      <c r="D12" s="153" t="s">
+      <c r="D12" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="E12" s="154"/>
+      <c r="E12" s="77"/>
       <c r="F12" s="16"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
@@ -2925,12 +2919,12 @@
       <c r="AC12" s="67"/>
     </row>
     <row r="13" spans="1:29" ht="18" customHeight="1">
-      <c r="A13" s="116"/>
-      <c r="B13" s="120"/>
-      <c r="D13" s="153" t="s">
+      <c r="A13" s="137"/>
+      <c r="B13" s="119"/>
+      <c r="D13" s="76" t="s">
         <v>74</v>
       </c>
-      <c r="E13" s="154"/>
+      <c r="E13" s="77"/>
       <c r="F13" s="16"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -2967,17 +2961,17 @@
       <c r="AC13" s="44"/>
     </row>
     <row r="14" spans="1:29" ht="18" customHeight="1">
-      <c r="A14" s="117" t="s">
+      <c r="A14" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="121" t="str">
+      <c r="B14" s="141" t="str">
         <f>IFERROR(LOOKUP(10^10,N12:N17),"")</f>
         <v/>
       </c>
-      <c r="D14" s="153" t="s">
+      <c r="D14" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="154"/>
+      <c r="E14" s="77"/>
       <c r="F14" s="16"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
@@ -3014,12 +3008,12 @@
       <c r="AC14" s="46"/>
     </row>
     <row r="15" spans="1:29" ht="18" customHeight="1">
-      <c r="A15" s="117"/>
-      <c r="B15" s="122"/>
-      <c r="D15" s="153" t="s">
+      <c r="A15" s="138"/>
+      <c r="B15" s="142"/>
+      <c r="D15" s="76" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="154"/>
+      <c r="E15" s="77"/>
       <c r="F15" s="16"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
@@ -3043,17 +3037,17 @@
       <c r="R15" s="35"/>
     </row>
     <row r="16" spans="1:29" ht="18" customHeight="1">
-      <c r="A16" s="118" t="s">
+      <c r="A16" s="139" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="121" t="str">
+      <c r="B16" s="141" t="str">
         <f>IFERROR(LOOKUP(10^10,O12:O17),"")</f>
         <v/>
       </c>
-      <c r="D16" s="153" t="s">
+      <c r="D16" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="154"/>
+      <c r="E16" s="77"/>
       <c r="F16" s="16"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
@@ -3090,12 +3084,12 @@
       <c r="AC16" s="53"/>
     </row>
     <row r="17" spans="1:29" ht="18" customHeight="1">
-      <c r="A17" s="119"/>
-      <c r="B17" s="122"/>
-      <c r="D17" s="165" t="s">
+      <c r="A17" s="140"/>
+      <c r="B17" s="142"/>
+      <c r="D17" s="90" t="s">
         <v>77</v>
       </c>
-      <c r="E17" s="166"/>
+      <c r="E17" s="91"/>
       <c r="F17" s="19"/>
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
@@ -3130,10 +3124,10 @@
       <c r="AC17" s="55"/>
     </row>
     <row r="18" spans="1:29" ht="18" customHeight="1">
-      <c r="A18" s="118" t="s">
+      <c r="A18" s="139" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="121" t="str">
+      <c r="B18" s="141" t="str">
         <f>IFERROR(LOOKUP(10^10,P12:P17),"")</f>
         <v/>
       </c>
@@ -3152,8 +3146,8 @@
       <c r="AC18" s="55"/>
     </row>
     <row r="19" spans="1:29" ht="18" customHeight="1">
-      <c r="A19" s="123"/>
-      <c r="B19" s="124"/>
+      <c r="A19" s="143"/>
+      <c r="B19" s="144"/>
       <c r="R19" s="57"/>
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
@@ -3182,34 +3176,34 @@
       <c r="AC20" s="55"/>
     </row>
     <row r="21" spans="1:29" ht="19" customHeight="1">
-      <c r="A21" s="125" t="s">
+      <c r="A21" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="126"/>
-      <c r="C21" s="161" t="s">
+      <c r="B21" s="85"/>
+      <c r="C21" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="126"/>
-      <c r="E21" s="163" t="s">
+      <c r="D21" s="85"/>
+      <c r="E21" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="164"/>
-      <c r="G21" s="164"/>
-      <c r="H21" s="163" t="s">
+      <c r="F21" s="89"/>
+      <c r="G21" s="89"/>
+      <c r="H21" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="I21" s="164"/>
-      <c r="J21" s="164"/>
-      <c r="K21" s="163" t="s">
+      <c r="I21" s="89"/>
+      <c r="J21" s="89"/>
+      <c r="K21" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="L21" s="164"/>
-      <c r="M21" s="164"/>
-      <c r="N21" s="163" t="s">
+      <c r="L21" s="89"/>
+      <c r="M21" s="89"/>
+      <c r="N21" s="88" t="s">
         <v>40</v>
       </c>
-      <c r="O21" s="164"/>
-      <c r="P21" s="167"/>
+      <c r="O21" s="89"/>
+      <c r="P21" s="92"/>
       <c r="R21" s="56"/>
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
@@ -3224,10 +3218,10 @@
       <c r="AC21" s="55"/>
     </row>
     <row r="22" spans="1:29" ht="19" customHeight="1">
-      <c r="A22" s="127"/>
-      <c r="B22" s="128"/>
-      <c r="C22" s="162"/>
-      <c r="D22" s="128"/>
+      <c r="A22" s="145"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="87"/>
       <c r="E22" s="8">
         <v>2019</v>
       </c>
@@ -3278,10 +3272,10 @@
       <c r="AC22" s="55"/>
     </row>
     <row r="23" spans="1:29" ht="18" customHeight="1">
-      <c r="A23" s="145"/>
-      <c r="B23" s="146"/>
-      <c r="C23" s="151"/>
-      <c r="D23" s="151"/>
+      <c r="A23" s="94"/>
+      <c r="B23" s="95"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="100"/>
       <c r="E23" s="72"/>
       <c r="F23" s="72"/>
       <c r="G23" s="72"/>
@@ -3308,10 +3302,10 @@
       <c r="AC23" s="55"/>
     </row>
     <row r="24" spans="1:29" ht="18" customHeight="1">
-      <c r="A24" s="145"/>
-      <c r="B24" s="146"/>
-      <c r="C24" s="151"/>
-      <c r="D24" s="151"/>
+      <c r="A24" s="94"/>
+      <c r="B24" s="95"/>
+      <c r="C24" s="100"/>
+      <c r="D24" s="100"/>
       <c r="E24" s="72"/>
       <c r="F24" s="72"/>
       <c r="G24" s="72"/>
@@ -3338,10 +3332,10 @@
       <c r="AC24" s="55"/>
     </row>
     <row r="25" spans="1:29" ht="18" customHeight="1">
-      <c r="A25" s="147"/>
-      <c r="B25" s="148"/>
-      <c r="C25" s="152"/>
-      <c r="D25" s="152"/>
+      <c r="A25" s="96"/>
+      <c r="B25" s="97"/>
+      <c r="C25" s="101"/>
+      <c r="D25" s="101"/>
       <c r="E25" s="74"/>
       <c r="F25" s="74"/>
       <c r="G25" s="74"/>
@@ -3382,30 +3376,30 @@
       <c r="AC26" s="55"/>
     </row>
     <row r="27" spans="1:29" ht="19" customHeight="1">
-      <c r="A27" s="134" t="s">
+      <c r="A27" s="93" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="135"/>
-      <c r="C27" s="144" t="s">
+      <c r="B27" s="81"/>
+      <c r="C27" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="135"/>
-      <c r="E27" s="135"/>
-      <c r="F27" s="144" t="s">
+      <c r="D27" s="81"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="G27" s="135"/>
-      <c r="H27" s="135"/>
-      <c r="I27" s="135"/>
-      <c r="J27" s="135"/>
-      <c r="K27" s="135"/>
-      <c r="L27" s="135"/>
-      <c r="M27" s="159"/>
-      <c r="N27" s="144" t="s">
+      <c r="G27" s="81"/>
+      <c r="H27" s="81"/>
+      <c r="I27" s="81"/>
+      <c r="J27" s="81"/>
+      <c r="K27" s="81"/>
+      <c r="L27" s="81"/>
+      <c r="M27" s="82"/>
+      <c r="N27" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="O27" s="135"/>
-      <c r="P27" s="160"/>
+      <c r="O27" s="81"/>
+      <c r="P27" s="83"/>
       <c r="R27" s="56"/>
       <c r="S27" s="4"/>
       <c r="T27" s="4"/>
@@ -3420,22 +3414,22 @@
       <c r="AC27" s="55"/>
     </row>
     <row r="28" spans="1:29" ht="18" customHeight="1">
-      <c r="A28" s="145"/>
-      <c r="B28" s="146"/>
-      <c r="C28" s="149"/>
-      <c r="D28" s="149"/>
-      <c r="E28" s="149"/>
-      <c r="F28" s="168"/>
-      <c r="G28" s="168"/>
-      <c r="H28" s="168"/>
-      <c r="I28" s="168"/>
-      <c r="J28" s="168"/>
-      <c r="K28" s="168"/>
-      <c r="L28" s="168"/>
-      <c r="M28" s="168"/>
-      <c r="N28" s="156"/>
-      <c r="O28" s="156"/>
-      <c r="P28" s="157"/>
+      <c r="A28" s="94"/>
+      <c r="B28" s="95"/>
+      <c r="C28" s="98"/>
+      <c r="D28" s="98"/>
+      <c r="E28" s="98"/>
+      <c r="F28" s="79"/>
+      <c r="G28" s="79"/>
+      <c r="H28" s="79"/>
+      <c r="I28" s="79"/>
+      <c r="J28" s="79"/>
+      <c r="K28" s="79"/>
+      <c r="L28" s="79"/>
+      <c r="M28" s="79"/>
+      <c r="N28" s="100"/>
+      <c r="O28" s="100"/>
+      <c r="P28" s="166"/>
       <c r="R28" s="56"/>
       <c r="S28" s="4"/>
       <c r="T28" s="4"/>
@@ -3450,22 +3444,22 @@
       <c r="AC28" s="55"/>
     </row>
     <row r="29" spans="1:29" ht="18" customHeight="1">
-      <c r="A29" s="145"/>
-      <c r="B29" s="146"/>
-      <c r="C29" s="149"/>
-      <c r="D29" s="149"/>
-      <c r="E29" s="149"/>
-      <c r="F29" s="168"/>
-      <c r="G29" s="168"/>
-      <c r="H29" s="168"/>
-      <c r="I29" s="168"/>
-      <c r="J29" s="168"/>
-      <c r="K29" s="168"/>
-      <c r="L29" s="168"/>
-      <c r="M29" s="168"/>
-      <c r="N29" s="156"/>
-      <c r="O29" s="156"/>
-      <c r="P29" s="157"/>
+      <c r="A29" s="94"/>
+      <c r="B29" s="95"/>
+      <c r="C29" s="98"/>
+      <c r="D29" s="98"/>
+      <c r="E29" s="98"/>
+      <c r="F29" s="79"/>
+      <c r="G29" s="79"/>
+      <c r="H29" s="79"/>
+      <c r="I29" s="79"/>
+      <c r="J29" s="79"/>
+      <c r="K29" s="79"/>
+      <c r="L29" s="79"/>
+      <c r="M29" s="79"/>
+      <c r="N29" s="100"/>
+      <c r="O29" s="100"/>
+      <c r="P29" s="166"/>
       <c r="R29" s="56"/>
       <c r="S29" s="4"/>
       <c r="T29" s="4"/>
@@ -3480,22 +3474,22 @@
       <c r="AC29" s="55"/>
     </row>
     <row r="30" spans="1:29" ht="18" customHeight="1">
-      <c r="A30" s="145"/>
-      <c r="B30" s="146"/>
-      <c r="C30" s="149"/>
-      <c r="D30" s="149"/>
-      <c r="E30" s="149"/>
-      <c r="F30" s="168"/>
-      <c r="G30" s="168"/>
-      <c r="H30" s="168"/>
-      <c r="I30" s="168"/>
-      <c r="J30" s="168"/>
-      <c r="K30" s="168"/>
-      <c r="L30" s="168"/>
-      <c r="M30" s="168"/>
-      <c r="N30" s="156"/>
-      <c r="O30" s="156"/>
-      <c r="P30" s="157"/>
+      <c r="A30" s="94"/>
+      <c r="B30" s="95"/>
+      <c r="C30" s="98"/>
+      <c r="D30" s="98"/>
+      <c r="E30" s="98"/>
+      <c r="F30" s="79"/>
+      <c r="G30" s="79"/>
+      <c r="H30" s="79"/>
+      <c r="I30" s="79"/>
+      <c r="J30" s="79"/>
+      <c r="K30" s="79"/>
+      <c r="L30" s="79"/>
+      <c r="M30" s="79"/>
+      <c r="N30" s="100"/>
+      <c r="O30" s="100"/>
+      <c r="P30" s="166"/>
       <c r="R30" s="56"/>
       <c r="S30" s="4"/>
       <c r="T30" s="4"/>
@@ -3510,22 +3504,22 @@
       <c r="AC30" s="55"/>
     </row>
     <row r="31" spans="1:29" ht="18" customHeight="1">
-      <c r="A31" s="145"/>
-      <c r="B31" s="146"/>
-      <c r="C31" s="149"/>
-      <c r="D31" s="149"/>
-      <c r="E31" s="149"/>
-      <c r="F31" s="168"/>
-      <c r="G31" s="168"/>
-      <c r="H31" s="168"/>
-      <c r="I31" s="168"/>
-      <c r="J31" s="168"/>
-      <c r="K31" s="168"/>
-      <c r="L31" s="168"/>
-      <c r="M31" s="168"/>
-      <c r="N31" s="156"/>
-      <c r="O31" s="156"/>
-      <c r="P31" s="157"/>
+      <c r="A31" s="94"/>
+      <c r="B31" s="95"/>
+      <c r="C31" s="98"/>
+      <c r="D31" s="98"/>
+      <c r="E31" s="98"/>
+      <c r="F31" s="79"/>
+      <c r="G31" s="79"/>
+      <c r="H31" s="79"/>
+      <c r="I31" s="79"/>
+      <c r="J31" s="79"/>
+      <c r="K31" s="79"/>
+      <c r="L31" s="79"/>
+      <c r="M31" s="79"/>
+      <c r="N31" s="100"/>
+      <c r="O31" s="100"/>
+      <c r="P31" s="166"/>
       <c r="R31" s="56"/>
       <c r="S31" s="4"/>
       <c r="T31" s="4"/>
@@ -3540,22 +3534,22 @@
       <c r="AC31" s="55"/>
     </row>
     <row r="32" spans="1:29" ht="18" customHeight="1">
-      <c r="A32" s="147"/>
-      <c r="B32" s="148"/>
-      <c r="C32" s="150"/>
-      <c r="D32" s="150"/>
-      <c r="E32" s="150"/>
-      <c r="F32" s="169"/>
-      <c r="G32" s="169"/>
-      <c r="H32" s="169"/>
-      <c r="I32" s="169"/>
-      <c r="J32" s="169"/>
-      <c r="K32" s="169"/>
-      <c r="L32" s="169"/>
-      <c r="M32" s="169"/>
-      <c r="N32" s="155"/>
-      <c r="O32" s="155"/>
-      <c r="P32" s="158"/>
+      <c r="A32" s="96"/>
+      <c r="B32" s="97"/>
+      <c r="C32" s="99"/>
+      <c r="D32" s="99"/>
+      <c r="E32" s="99"/>
+      <c r="F32" s="78"/>
+      <c r="G32" s="78"/>
+      <c r="H32" s="78"/>
+      <c r="I32" s="78"/>
+      <c r="J32" s="78"/>
+      <c r="K32" s="78"/>
+      <c r="L32" s="78"/>
+      <c r="M32" s="78"/>
+      <c r="N32" s="101"/>
+      <c r="O32" s="101"/>
+      <c r="P32" s="167"/>
       <c r="R32" s="58"/>
       <c r="S32" s="59"/>
       <c r="T32" s="59"/>
@@ -3576,74 +3570,74 @@
       </c>
     </row>
     <row r="35" spans="1:29">
-      <c r="A35" s="102" t="s">
+      <c r="A35" s="120" t="s">
         <v>64</v>
       </c>
-      <c r="B35" s="103"/>
-      <c r="C35" s="103" t="s">
+      <c r="B35" s="121"/>
+      <c r="C35" s="121" t="s">
         <v>65</v>
       </c>
-      <c r="D35" s="103"/>
-      <c r="E35" s="103"/>
-      <c r="F35" s="103"/>
-      <c r="G35" s="103"/>
-      <c r="H35" s="103" t="s">
+      <c r="D35" s="121"/>
+      <c r="E35" s="121"/>
+      <c r="F35" s="121"/>
+      <c r="G35" s="121"/>
+      <c r="H35" s="121" t="s">
         <v>66</v>
       </c>
-      <c r="I35" s="103"/>
-      <c r="J35" s="103"/>
-      <c r="K35" s="104"/>
+      <c r="I35" s="121"/>
+      <c r="J35" s="121"/>
+      <c r="K35" s="122"/>
       <c r="L35" s="11"/>
       <c r="M35" s="11"/>
       <c r="N35" s="11"/>
       <c r="O35" s="11"/>
     </row>
     <row r="36" spans="1:29">
-      <c r="A36" s="90"/>
-      <c r="B36" s="91"/>
-      <c r="C36" s="92"/>
-      <c r="D36" s="93"/>
-      <c r="E36" s="93"/>
-      <c r="F36" s="93"/>
-      <c r="G36" s="94"/>
-      <c r="H36" s="92"/>
-      <c r="I36" s="93"/>
-      <c r="J36" s="93"/>
-      <c r="K36" s="95"/>
+      <c r="A36" s="123"/>
+      <c r="B36" s="124"/>
+      <c r="C36" s="125"/>
+      <c r="D36" s="126"/>
+      <c r="E36" s="126"/>
+      <c r="F36" s="126"/>
+      <c r="G36" s="127"/>
+      <c r="H36" s="125"/>
+      <c r="I36" s="126"/>
+      <c r="J36" s="126"/>
+      <c r="K36" s="128"/>
       <c r="L36" s="11"/>
       <c r="M36" s="11"/>
       <c r="N36" s="11"/>
       <c r="O36" s="11"/>
     </row>
     <row r="37" spans="1:29">
-      <c r="A37" s="90"/>
-      <c r="B37" s="91"/>
-      <c r="C37" s="92"/>
-      <c r="D37" s="93"/>
-      <c r="E37" s="93"/>
-      <c r="F37" s="93"/>
-      <c r="G37" s="94"/>
-      <c r="H37" s="92"/>
-      <c r="I37" s="93"/>
-      <c r="J37" s="93"/>
-      <c r="K37" s="95"/>
+      <c r="A37" s="123"/>
+      <c r="B37" s="124"/>
+      <c r="C37" s="125"/>
+      <c r="D37" s="126"/>
+      <c r="E37" s="126"/>
+      <c r="F37" s="126"/>
+      <c r="G37" s="127"/>
+      <c r="H37" s="125"/>
+      <c r="I37" s="126"/>
+      <c r="J37" s="126"/>
+      <c r="K37" s="128"/>
       <c r="L37" s="11"/>
       <c r="M37" s="11"/>
       <c r="N37" s="11"/>
       <c r="O37" s="11"/>
     </row>
     <row r="38" spans="1:29">
-      <c r="A38" s="96"/>
-      <c r="B38" s="97"/>
-      <c r="C38" s="98"/>
-      <c r="D38" s="99"/>
-      <c r="E38" s="99"/>
-      <c r="F38" s="99"/>
-      <c r="G38" s="100"/>
-      <c r="H38" s="98"/>
-      <c r="I38" s="99"/>
-      <c r="J38" s="99"/>
-      <c r="K38" s="101"/>
+      <c r="A38" s="153"/>
+      <c r="B38" s="154"/>
+      <c r="C38" s="155"/>
+      <c r="D38" s="156"/>
+      <c r="E38" s="156"/>
+      <c r="F38" s="156"/>
+      <c r="G38" s="157"/>
+      <c r="H38" s="155"/>
+      <c r="I38" s="156"/>
+      <c r="J38" s="156"/>
+      <c r="K38" s="158"/>
       <c r="L38" s="11"/>
       <c r="M38" s="11"/>
       <c r="N38" s="11"/>
@@ -3660,134 +3654,134 @@
       </c>
     </row>
     <row r="42" spans="1:29">
-      <c r="A42" s="84" t="s">
+      <c r="A42" s="146" t="s">
         <v>69</v>
       </c>
-      <c r="B42" s="85"/>
-      <c r="C42" s="85" t="s">
+      <c r="B42" s="147"/>
+      <c r="C42" s="147" t="s">
         <v>70</v>
       </c>
-      <c r="D42" s="85"/>
-      <c r="E42" s="85"/>
-      <c r="F42" s="85"/>
-      <c r="G42" s="85"/>
-      <c r="H42" s="85"/>
-      <c r="I42" s="85"/>
-      <c r="J42" s="85"/>
-      <c r="K42" s="85"/>
-      <c r="L42" s="85"/>
-      <c r="M42" s="85"/>
-      <c r="N42" s="85"/>
-      <c r="O42" s="85"/>
-      <c r="P42" s="85"/>
-      <c r="Q42" s="85" t="s">
+      <c r="D42" s="147"/>
+      <c r="E42" s="147"/>
+      <c r="F42" s="147"/>
+      <c r="G42" s="147"/>
+      <c r="H42" s="147"/>
+      <c r="I42" s="147"/>
+      <c r="J42" s="147"/>
+      <c r="K42" s="147"/>
+      <c r="L42" s="147"/>
+      <c r="M42" s="147"/>
+      <c r="N42" s="147"/>
+      <c r="O42" s="147"/>
+      <c r="P42" s="147"/>
+      <c r="Q42" s="147" t="s">
         <v>71</v>
       </c>
-      <c r="R42" s="85"/>
-      <c r="S42" s="85"/>
-      <c r="T42" s="85"/>
-      <c r="U42" s="85"/>
-      <c r="V42" s="85"/>
-      <c r="W42" s="85"/>
-      <c r="X42" s="85"/>
-      <c r="Y42" s="85"/>
-      <c r="Z42" s="85"/>
-      <c r="AA42" s="85"/>
-      <c r="AB42" s="85"/>
-      <c r="AC42" s="89"/>
+      <c r="R42" s="147"/>
+      <c r="S42" s="147"/>
+      <c r="T42" s="147"/>
+      <c r="U42" s="147"/>
+      <c r="V42" s="147"/>
+      <c r="W42" s="147"/>
+      <c r="X42" s="147"/>
+      <c r="Y42" s="147"/>
+      <c r="Z42" s="147"/>
+      <c r="AA42" s="147"/>
+      <c r="AB42" s="147"/>
+      <c r="AC42" s="148"/>
     </row>
     <row r="43" spans="1:29">
-      <c r="A43" s="76"/>
-      <c r="B43" s="77"/>
-      <c r="C43" s="78"/>
-      <c r="D43" s="78"/>
-      <c r="E43" s="78"/>
-      <c r="F43" s="78"/>
-      <c r="G43" s="78"/>
-      <c r="H43" s="78"/>
-      <c r="I43" s="78"/>
-      <c r="J43" s="78"/>
-      <c r="K43" s="78"/>
-      <c r="L43" s="78"/>
-      <c r="M43" s="78"/>
-      <c r="N43" s="78"/>
-      <c r="O43" s="78"/>
-      <c r="P43" s="78"/>
-      <c r="Q43" s="78"/>
-      <c r="R43" s="78"/>
-      <c r="S43" s="78"/>
-      <c r="T43" s="78"/>
-      <c r="U43" s="78"/>
-      <c r="V43" s="78"/>
-      <c r="W43" s="78"/>
-      <c r="X43" s="78"/>
-      <c r="Y43" s="78"/>
-      <c r="Z43" s="78"/>
-      <c r="AA43" s="78"/>
-      <c r="AB43" s="78"/>
-      <c r="AC43" s="79"/>
+      <c r="A43" s="149"/>
+      <c r="B43" s="150"/>
+      <c r="C43" s="151"/>
+      <c r="D43" s="151"/>
+      <c r="E43" s="151"/>
+      <c r="F43" s="151"/>
+      <c r="G43" s="151"/>
+      <c r="H43" s="151"/>
+      <c r="I43" s="151"/>
+      <c r="J43" s="151"/>
+      <c r="K43" s="151"/>
+      <c r="L43" s="151"/>
+      <c r="M43" s="151"/>
+      <c r="N43" s="151"/>
+      <c r="O43" s="151"/>
+      <c r="P43" s="151"/>
+      <c r="Q43" s="151"/>
+      <c r="R43" s="151"/>
+      <c r="S43" s="151"/>
+      <c r="T43" s="151"/>
+      <c r="U43" s="151"/>
+      <c r="V43" s="151"/>
+      <c r="W43" s="151"/>
+      <c r="X43" s="151"/>
+      <c r="Y43" s="151"/>
+      <c r="Z43" s="151"/>
+      <c r="AA43" s="151"/>
+      <c r="AB43" s="151"/>
+      <c r="AC43" s="152"/>
     </row>
     <row r="44" spans="1:29">
-      <c r="A44" s="76"/>
-      <c r="B44" s="77"/>
-      <c r="C44" s="78"/>
-      <c r="D44" s="78"/>
-      <c r="E44" s="78"/>
-      <c r="F44" s="78"/>
-      <c r="G44" s="78"/>
-      <c r="H44" s="78"/>
-      <c r="I44" s="78"/>
-      <c r="J44" s="78"/>
-      <c r="K44" s="78"/>
-      <c r="L44" s="78"/>
-      <c r="M44" s="78"/>
-      <c r="N44" s="78"/>
-      <c r="O44" s="78"/>
-      <c r="P44" s="78"/>
-      <c r="Q44" s="78"/>
-      <c r="R44" s="78"/>
-      <c r="S44" s="78"/>
-      <c r="T44" s="78"/>
-      <c r="U44" s="78"/>
-      <c r="V44" s="78"/>
-      <c r="W44" s="78"/>
-      <c r="X44" s="78"/>
-      <c r="Y44" s="78"/>
-      <c r="Z44" s="78"/>
-      <c r="AA44" s="78"/>
-      <c r="AB44" s="78"/>
-      <c r="AC44" s="79"/>
+      <c r="A44" s="149"/>
+      <c r="B44" s="150"/>
+      <c r="C44" s="151"/>
+      <c r="D44" s="151"/>
+      <c r="E44" s="151"/>
+      <c r="F44" s="151"/>
+      <c r="G44" s="151"/>
+      <c r="H44" s="151"/>
+      <c r="I44" s="151"/>
+      <c r="J44" s="151"/>
+      <c r="K44" s="151"/>
+      <c r="L44" s="151"/>
+      <c r="M44" s="151"/>
+      <c r="N44" s="151"/>
+      <c r="O44" s="151"/>
+      <c r="P44" s="151"/>
+      <c r="Q44" s="151"/>
+      <c r="R44" s="151"/>
+      <c r="S44" s="151"/>
+      <c r="T44" s="151"/>
+      <c r="U44" s="151"/>
+      <c r="V44" s="151"/>
+      <c r="W44" s="151"/>
+      <c r="X44" s="151"/>
+      <c r="Y44" s="151"/>
+      <c r="Z44" s="151"/>
+      <c r="AA44" s="151"/>
+      <c r="AB44" s="151"/>
+      <c r="AC44" s="152"/>
     </row>
     <row r="45" spans="1:29">
-      <c r="A45" s="80"/>
-      <c r="B45" s="81"/>
-      <c r="C45" s="82"/>
-      <c r="D45" s="82"/>
-      <c r="E45" s="82"/>
-      <c r="F45" s="82"/>
-      <c r="G45" s="82"/>
-      <c r="H45" s="82"/>
-      <c r="I45" s="82"/>
-      <c r="J45" s="82"/>
-      <c r="K45" s="82"/>
-      <c r="L45" s="82"/>
-      <c r="M45" s="82"/>
-      <c r="N45" s="82"/>
-      <c r="O45" s="82"/>
-      <c r="P45" s="82"/>
-      <c r="Q45" s="82"/>
-      <c r="R45" s="82"/>
-      <c r="S45" s="82"/>
-      <c r="T45" s="82"/>
-      <c r="U45" s="82"/>
-      <c r="V45" s="82"/>
-      <c r="W45" s="82"/>
-      <c r="X45" s="82"/>
-      <c r="Y45" s="82"/>
-      <c r="Z45" s="82"/>
-      <c r="AA45" s="82"/>
-      <c r="AB45" s="82"/>
-      <c r="AC45" s="83"/>
+      <c r="A45" s="162"/>
+      <c r="B45" s="163"/>
+      <c r="C45" s="164"/>
+      <c r="D45" s="164"/>
+      <c r="E45" s="164"/>
+      <c r="F45" s="164"/>
+      <c r="G45" s="164"/>
+      <c r="H45" s="164"/>
+      <c r="I45" s="164"/>
+      <c r="J45" s="164"/>
+      <c r="K45" s="164"/>
+      <c r="L45" s="164"/>
+      <c r="M45" s="164"/>
+      <c r="N45" s="164"/>
+      <c r="O45" s="164"/>
+      <c r="P45" s="164"/>
+      <c r="Q45" s="164"/>
+      <c r="R45" s="164"/>
+      <c r="S45" s="164"/>
+      <c r="T45" s="164"/>
+      <c r="U45" s="164"/>
+      <c r="V45" s="164"/>
+      <c r="W45" s="164"/>
+      <c r="X45" s="164"/>
+      <c r="Y45" s="164"/>
+      <c r="Z45" s="164"/>
+      <c r="AA45" s="164"/>
+      <c r="AB45" s="164"/>
+      <c r="AC45" s="165"/>
     </row>
     <row r="46" spans="1:29">
       <c r="A46" s="10" t="s">
@@ -3795,254 +3789,235 @@
       </c>
     </row>
     <row r="47" spans="1:29">
-      <c r="A47" s="84" t="s">
+      <c r="A47" s="146" t="s">
         <v>69</v>
       </c>
-      <c r="B47" s="85"/>
-      <c r="C47" s="85" t="s">
+      <c r="B47" s="147"/>
+      <c r="C47" s="147" t="s">
         <v>70</v>
       </c>
-      <c r="D47" s="85"/>
-      <c r="E47" s="85"/>
-      <c r="F47" s="85"/>
-      <c r="G47" s="85"/>
-      <c r="H47" s="85"/>
-      <c r="I47" s="85"/>
-      <c r="J47" s="85"/>
-      <c r="K47" s="85"/>
-      <c r="L47" s="85"/>
-      <c r="M47" s="85"/>
-      <c r="N47" s="85"/>
-      <c r="O47" s="85"/>
-      <c r="P47" s="85"/>
-      <c r="Q47" s="86" t="s">
+      <c r="D47" s="147"/>
+      <c r="E47" s="147"/>
+      <c r="F47" s="147"/>
+      <c r="G47" s="147"/>
+      <c r="H47" s="147"/>
+      <c r="I47" s="147"/>
+      <c r="J47" s="147"/>
+      <c r="K47" s="147"/>
+      <c r="L47" s="147"/>
+      <c r="M47" s="147"/>
+      <c r="N47" s="147"/>
+      <c r="O47" s="147"/>
+      <c r="P47" s="147"/>
+      <c r="Q47" s="159" t="s">
         <v>71</v>
       </c>
-      <c r="R47" s="87"/>
-      <c r="S47" s="87"/>
-      <c r="T47" s="87"/>
-      <c r="U47" s="87"/>
-      <c r="V47" s="87"/>
-      <c r="W47" s="87"/>
-      <c r="X47" s="87"/>
-      <c r="Y47" s="87"/>
-      <c r="Z47" s="87"/>
-      <c r="AA47" s="87"/>
-      <c r="AB47" s="87"/>
-      <c r="AC47" s="88"/>
+      <c r="R47" s="160"/>
+      <c r="S47" s="160"/>
+      <c r="T47" s="160"/>
+      <c r="U47" s="160"/>
+      <c r="V47" s="160"/>
+      <c r="W47" s="160"/>
+      <c r="X47" s="160"/>
+      <c r="Y47" s="160"/>
+      <c r="Z47" s="160"/>
+      <c r="AA47" s="160"/>
+      <c r="AB47" s="160"/>
+      <c r="AC47" s="161"/>
     </row>
     <row r="48" spans="1:29">
-      <c r="A48" s="76"/>
-      <c r="B48" s="77"/>
-      <c r="C48" s="78"/>
-      <c r="D48" s="78"/>
-      <c r="E48" s="78"/>
-      <c r="F48" s="78"/>
-      <c r="G48" s="78"/>
-      <c r="H48" s="78"/>
-      <c r="I48" s="78"/>
-      <c r="J48" s="78"/>
-      <c r="K48" s="78"/>
-      <c r="L48" s="78"/>
-      <c r="M48" s="78"/>
-      <c r="N48" s="78"/>
-      <c r="O48" s="78"/>
-      <c r="P48" s="78"/>
-      <c r="Q48" s="78"/>
-      <c r="R48" s="78"/>
-      <c r="S48" s="78"/>
-      <c r="T48" s="78"/>
-      <c r="U48" s="78"/>
-      <c r="V48" s="78"/>
-      <c r="W48" s="78"/>
-      <c r="X48" s="78"/>
-      <c r="Y48" s="78"/>
-      <c r="Z48" s="78"/>
-      <c r="AA48" s="78"/>
-      <c r="AB48" s="78"/>
-      <c r="AC48" s="79"/>
+      <c r="A48" s="149"/>
+      <c r="B48" s="150"/>
+      <c r="C48" s="151"/>
+      <c r="D48" s="151"/>
+      <c r="E48" s="151"/>
+      <c r="F48" s="151"/>
+      <c r="G48" s="151"/>
+      <c r="H48" s="151"/>
+      <c r="I48" s="151"/>
+      <c r="J48" s="151"/>
+      <c r="K48" s="151"/>
+      <c r="L48" s="151"/>
+      <c r="M48" s="151"/>
+      <c r="N48" s="151"/>
+      <c r="O48" s="151"/>
+      <c r="P48" s="151"/>
+      <c r="Q48" s="151"/>
+      <c r="R48" s="151"/>
+      <c r="S48" s="151"/>
+      <c r="T48" s="151"/>
+      <c r="U48" s="151"/>
+      <c r="V48" s="151"/>
+      <c r="W48" s="151"/>
+      <c r="X48" s="151"/>
+      <c r="Y48" s="151"/>
+      <c r="Z48" s="151"/>
+      <c r="AA48" s="151"/>
+      <c r="AB48" s="151"/>
+      <c r="AC48" s="152"/>
     </row>
     <row r="49" spans="1:29">
-      <c r="A49" s="76"/>
-      <c r="B49" s="77"/>
-      <c r="C49" s="78"/>
-      <c r="D49" s="78"/>
-      <c r="E49" s="78"/>
-      <c r="F49" s="78"/>
-      <c r="G49" s="78"/>
-      <c r="H49" s="78"/>
-      <c r="I49" s="78"/>
-      <c r="J49" s="78"/>
-      <c r="K49" s="78"/>
-      <c r="L49" s="78"/>
-      <c r="M49" s="78"/>
-      <c r="N49" s="78"/>
-      <c r="O49" s="78"/>
-      <c r="P49" s="78"/>
-      <c r="Q49" s="78"/>
-      <c r="R49" s="78"/>
-      <c r="S49" s="78"/>
-      <c r="T49" s="78"/>
-      <c r="U49" s="78"/>
-      <c r="V49" s="78"/>
-      <c r="W49" s="78"/>
-      <c r="X49" s="78"/>
-      <c r="Y49" s="78"/>
-      <c r="Z49" s="78"/>
-      <c r="AA49" s="78"/>
-      <c r="AB49" s="78"/>
-      <c r="AC49" s="79"/>
+      <c r="A49" s="149"/>
+      <c r="B49" s="150"/>
+      <c r="C49" s="151"/>
+      <c r="D49" s="151"/>
+      <c r="E49" s="151"/>
+      <c r="F49" s="151"/>
+      <c r="G49" s="151"/>
+      <c r="H49" s="151"/>
+      <c r="I49" s="151"/>
+      <c r="J49" s="151"/>
+      <c r="K49" s="151"/>
+      <c r="L49" s="151"/>
+      <c r="M49" s="151"/>
+      <c r="N49" s="151"/>
+      <c r="O49" s="151"/>
+      <c r="P49" s="151"/>
+      <c r="Q49" s="151"/>
+      <c r="R49" s="151"/>
+      <c r="S49" s="151"/>
+      <c r="T49" s="151"/>
+      <c r="U49" s="151"/>
+      <c r="V49" s="151"/>
+      <c r="W49" s="151"/>
+      <c r="X49" s="151"/>
+      <c r="Y49" s="151"/>
+      <c r="Z49" s="151"/>
+      <c r="AA49" s="151"/>
+      <c r="AB49" s="151"/>
+      <c r="AC49" s="152"/>
     </row>
     <row r="50" spans="1:29">
-      <c r="A50" s="76"/>
-      <c r="B50" s="77"/>
-      <c r="C50" s="78"/>
-      <c r="D50" s="78"/>
-      <c r="E50" s="78"/>
-      <c r="F50" s="78"/>
-      <c r="G50" s="78"/>
-      <c r="H50" s="78"/>
-      <c r="I50" s="78"/>
-      <c r="J50" s="78"/>
-      <c r="K50" s="78"/>
-      <c r="L50" s="78"/>
-      <c r="M50" s="78"/>
-      <c r="N50" s="78"/>
-      <c r="O50" s="78"/>
-      <c r="P50" s="78"/>
-      <c r="Q50" s="78"/>
-      <c r="R50" s="78"/>
-      <c r="S50" s="78"/>
-      <c r="T50" s="78"/>
-      <c r="U50" s="78"/>
-      <c r="V50" s="78"/>
-      <c r="W50" s="78"/>
-      <c r="X50" s="78"/>
-      <c r="Y50" s="78"/>
-      <c r="Z50" s="78"/>
-      <c r="AA50" s="78"/>
-      <c r="AB50" s="78"/>
-      <c r="AC50" s="79"/>
+      <c r="A50" s="149"/>
+      <c r="B50" s="150"/>
+      <c r="C50" s="151"/>
+      <c r="D50" s="151"/>
+      <c r="E50" s="151"/>
+      <c r="F50" s="151"/>
+      <c r="G50" s="151"/>
+      <c r="H50" s="151"/>
+      <c r="I50" s="151"/>
+      <c r="J50" s="151"/>
+      <c r="K50" s="151"/>
+      <c r="L50" s="151"/>
+      <c r="M50" s="151"/>
+      <c r="N50" s="151"/>
+      <c r="O50" s="151"/>
+      <c r="P50" s="151"/>
+      <c r="Q50" s="151"/>
+      <c r="R50" s="151"/>
+      <c r="S50" s="151"/>
+      <c r="T50" s="151"/>
+      <c r="U50" s="151"/>
+      <c r="V50" s="151"/>
+      <c r="W50" s="151"/>
+      <c r="X50" s="151"/>
+      <c r="Y50" s="151"/>
+      <c r="Z50" s="151"/>
+      <c r="AA50" s="151"/>
+      <c r="AB50" s="151"/>
+      <c r="AC50" s="152"/>
     </row>
     <row r="51" spans="1:29">
-      <c r="A51" s="76"/>
-      <c r="B51" s="77"/>
-      <c r="C51" s="78"/>
-      <c r="D51" s="78"/>
-      <c r="E51" s="78"/>
-      <c r="F51" s="78"/>
-      <c r="G51" s="78"/>
-      <c r="H51" s="78"/>
-      <c r="I51" s="78"/>
-      <c r="J51" s="78"/>
-      <c r="K51" s="78"/>
-      <c r="L51" s="78"/>
-      <c r="M51" s="78"/>
-      <c r="N51" s="78"/>
-      <c r="O51" s="78"/>
-      <c r="P51" s="78"/>
-      <c r="Q51" s="78"/>
-      <c r="R51" s="78"/>
-      <c r="S51" s="78"/>
-      <c r="T51" s="78"/>
-      <c r="U51" s="78"/>
-      <c r="V51" s="78"/>
-      <c r="W51" s="78"/>
-      <c r="X51" s="78"/>
-      <c r="Y51" s="78"/>
-      <c r="Z51" s="78"/>
-      <c r="AA51" s="78"/>
-      <c r="AB51" s="78"/>
-      <c r="AC51" s="79"/>
+      <c r="A51" s="149"/>
+      <c r="B51" s="150"/>
+      <c r="C51" s="151"/>
+      <c r="D51" s="151"/>
+      <c r="E51" s="151"/>
+      <c r="F51" s="151"/>
+      <c r="G51" s="151"/>
+      <c r="H51" s="151"/>
+      <c r="I51" s="151"/>
+      <c r="J51" s="151"/>
+      <c r="K51" s="151"/>
+      <c r="L51" s="151"/>
+      <c r="M51" s="151"/>
+      <c r="N51" s="151"/>
+      <c r="O51" s="151"/>
+      <c r="P51" s="151"/>
+      <c r="Q51" s="151"/>
+      <c r="R51" s="151"/>
+      <c r="S51" s="151"/>
+      <c r="T51" s="151"/>
+      <c r="U51" s="151"/>
+      <c r="V51" s="151"/>
+      <c r="W51" s="151"/>
+      <c r="X51" s="151"/>
+      <c r="Y51" s="151"/>
+      <c r="Z51" s="151"/>
+      <c r="AA51" s="151"/>
+      <c r="AB51" s="151"/>
+      <c r="AC51" s="152"/>
     </row>
     <row r="52" spans="1:29">
-      <c r="A52" s="80"/>
-      <c r="B52" s="81"/>
-      <c r="C52" s="82"/>
-      <c r="D52" s="82"/>
-      <c r="E52" s="82"/>
-      <c r="F52" s="82"/>
-      <c r="G52" s="82"/>
-      <c r="H52" s="82"/>
-      <c r="I52" s="82"/>
-      <c r="J52" s="82"/>
-      <c r="K52" s="82"/>
-      <c r="L52" s="82"/>
-      <c r="M52" s="82"/>
-      <c r="N52" s="82"/>
-      <c r="O52" s="82"/>
-      <c r="P52" s="82"/>
-      <c r="Q52" s="82"/>
-      <c r="R52" s="82"/>
-      <c r="S52" s="82"/>
-      <c r="T52" s="82"/>
-      <c r="U52" s="82"/>
-      <c r="V52" s="82"/>
-      <c r="W52" s="82"/>
-      <c r="X52" s="82"/>
-      <c r="Y52" s="82"/>
-      <c r="Z52" s="82"/>
-      <c r="AA52" s="82"/>
-      <c r="AB52" s="82"/>
-      <c r="AC52" s="83"/>
+      <c r="A52" s="162"/>
+      <c r="B52" s="163"/>
+      <c r="C52" s="164"/>
+      <c r="D52" s="164"/>
+      <c r="E52" s="164"/>
+      <c r="F52" s="164"/>
+      <c r="G52" s="164"/>
+      <c r="H52" s="164"/>
+      <c r="I52" s="164"/>
+      <c r="J52" s="164"/>
+      <c r="K52" s="164"/>
+      <c r="L52" s="164"/>
+      <c r="M52" s="164"/>
+      <c r="N52" s="164"/>
+      <c r="O52" s="164"/>
+      <c r="P52" s="164"/>
+      <c r="Q52" s="164"/>
+      <c r="R52" s="164"/>
+      <c r="S52" s="164"/>
+      <c r="T52" s="164"/>
+      <c r="U52" s="164"/>
+      <c r="V52" s="164"/>
+      <c r="W52" s="164"/>
+      <c r="X52" s="164"/>
+      <c r="Y52" s="164"/>
+      <c r="Z52" s="164"/>
+      <c r="AA52" s="164"/>
+      <c r="AB52" s="164"/>
+      <c r="AC52" s="165"/>
     </row>
   </sheetData>
   <mergeCells count="115">
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F32:M32"/>
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="N30:P30"/>
-    <mergeCell ref="N31:P31"/>
-    <mergeCell ref="N32:P32"/>
-    <mergeCell ref="F31:M31"/>
-    <mergeCell ref="F27:M27"/>
-    <mergeCell ref="N27:P27"/>
-    <mergeCell ref="F28:M28"/>
-    <mergeCell ref="F29:M29"/>
-    <mergeCell ref="F30:M30"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="W2:AB2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:R2"/>
-    <mergeCell ref="W1:AB1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:P51"/>
+    <mergeCell ref="Q51:AC51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:P52"/>
+    <mergeCell ref="Q52:AC52"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:P49"/>
+    <mergeCell ref="Q49:AC49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:P50"/>
+    <mergeCell ref="Q50:AC50"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:P47"/>
+    <mergeCell ref="Q47:AC47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:P48"/>
+    <mergeCell ref="Q48:AC48"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:P44"/>
+    <mergeCell ref="Q44:AC44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:P45"/>
+    <mergeCell ref="Q45:AC45"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:P42"/>
+    <mergeCell ref="Q42:AC42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:P43"/>
+    <mergeCell ref="Q43:AC43"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="C35:G35"/>
     <mergeCell ref="H35:K35"/>
@@ -4067,42 +4042,61 @@
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="A21:B22"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:P42"/>
-    <mergeCell ref="Q42:AC42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:P43"/>
-    <mergeCell ref="Q43:AC43"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:P47"/>
-    <mergeCell ref="Q47:AC47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:P48"/>
-    <mergeCell ref="Q48:AC48"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:P44"/>
-    <mergeCell ref="Q44:AC44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:P45"/>
-    <mergeCell ref="Q45:AC45"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:P51"/>
-    <mergeCell ref="Q51:AC51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:P52"/>
-    <mergeCell ref="Q52:AC52"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:P49"/>
-    <mergeCell ref="Q49:AC49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:P50"/>
-    <mergeCell ref="Q50:AC50"/>
+    <mergeCell ref="W2:AB2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:R2"/>
+    <mergeCell ref="W1:AB1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F32:M32"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="N32:P32"/>
+    <mergeCell ref="F31:M31"/>
+    <mergeCell ref="F27:M27"/>
+    <mergeCell ref="N27:P27"/>
+    <mergeCell ref="F28:M28"/>
+    <mergeCell ref="F29:M29"/>
+    <mergeCell ref="F30:M30"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="N21:P21"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <conditionalFormatting sqref="F4:J9 L4:O9">

--- a/src/main/resources/excel/meetingSheet_2nd2term.xlsx
+++ b/src/main/resources/excel/meetingSheet_2nd2term.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yamazakikeisuke/IdeaProjects/student_management_system/src/main/resources/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/MEGAsync/IdeaProjects/student_management_system/src/main/resources/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F87765C-E5FC-0C46-BDBF-9ABDF746E0CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6CEE8F-4BB3-0340-8309-3114F6F95577}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3540" yWindow="1460" windowWidth="25260" windowHeight="16540" xr2:uid="{B568BDAE-9867-864B-9F86-2CF23C3644F0}"/>
   </bookViews>
@@ -33,14 +33,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -799,7 +799,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="61">
+  <borders count="63">
     <border>
       <left/>
       <right/>
@@ -1561,13 +1561,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1796,6 +1818,231 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1805,15 +2052,15 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1823,15 +2070,9 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1847,229 +2088,13 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2409,8 +2434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E040C1C8-E3C5-9F44-AD5D-963E75E85E9B}">
   <dimension ref="A1:AC52"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A28" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2427,86 +2452,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="15" customHeight="1">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="128" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="104" t="s">
+      <c r="B1" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104"/>
-      <c r="R1" s="104"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="129"/>
+      <c r="N1" s="129"/>
+      <c r="O1" s="129"/>
+      <c r="P1" s="129"/>
+      <c r="Q1" s="129"/>
+      <c r="R1" s="129"/>
       <c r="S1" s="3"/>
-      <c r="T1" s="106" t="s">
+      <c r="T1" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="U1" s="107"/>
-      <c r="V1" s="107"/>
-      <c r="W1" s="106" t="s">
+      <c r="U1" s="106"/>
+      <c r="V1" s="106"/>
+      <c r="W1" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="X1" s="107"/>
-      <c r="Y1" s="107"/>
-      <c r="Z1" s="107"/>
-      <c r="AA1" s="107"/>
-      <c r="AB1" s="107"/>
+      <c r="X1" s="106"/>
+      <c r="Y1" s="106"/>
+      <c r="Z1" s="106"/>
+      <c r="AA1" s="106"/>
+      <c r="AB1" s="106"/>
       <c r="AC1" s="2"/>
     </row>
     <row r="2" spans="1:29" ht="25" customHeight="1">
-      <c r="A2" s="103"/>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="105"/>
-      <c r="N2" s="105"/>
-      <c r="O2" s="105"/>
-      <c r="P2" s="105"/>
-      <c r="Q2" s="105"/>
-      <c r="R2" s="105"/>
+      <c r="A2" s="128"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="130"/>
+      <c r="K2" s="130"/>
+      <c r="L2" s="130"/>
+      <c r="M2" s="130"/>
+      <c r="N2" s="130"/>
+      <c r="O2" s="130"/>
+      <c r="P2" s="130"/>
+      <c r="Q2" s="130"/>
+      <c r="R2" s="130"/>
       <c r="S2" s="6"/>
-      <c r="T2" s="129" t="s">
+      <c r="T2" s="166" t="s">
         <v>76</v>
       </c>
-      <c r="U2" s="130"/>
-      <c r="V2" s="130"/>
-      <c r="W2" s="102"/>
-      <c r="X2" s="102"/>
-      <c r="Y2" s="102"/>
-      <c r="Z2" s="102"/>
-      <c r="AA2" s="102"/>
-      <c r="AB2" s="102"/>
+      <c r="U2" s="167"/>
+      <c r="V2" s="168"/>
+      <c r="W2" s="127"/>
+      <c r="X2" s="127"/>
+      <c r="Y2" s="127"/>
+      <c r="Z2" s="127"/>
+      <c r="AA2" s="127"/>
+      <c r="AB2" s="127"/>
       <c r="AC2" s="7"/>
     </row>
     <row r="3" spans="1:29" ht="18" customHeight="1">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="123" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="109"/>
-      <c r="D3" s="93" t="s">
+      <c r="B3" s="131"/>
+      <c r="D3" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="81"/>
+      <c r="E3" s="133"/>
       <c r="F3" s="12" t="s">
         <v>12</v>
       </c>
@@ -2579,17 +2604,17 @@
       </c>
     </row>
     <row r="4" spans="1:29" ht="18" customHeight="1">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="119" t="str" cm="1">
+      <c r="B4" s="118" t="str" cm="1">
         <f t="array" ref="B4">IFERROR(_xlfn.IFS(P9&gt;9,P9*2+P7,P8&gt;9,P8*2+P7,P7&gt;9,P7*3,P6&gt;9,P6*3,P5&gt;9,P5*3,P4&gt;9,P4*3),"")</f>
         <v/>
       </c>
-      <c r="D4" s="110" t="s">
+      <c r="D4" s="134" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="111"/>
+      <c r="E4" s="135"/>
       <c r="F4" s="16"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
@@ -2617,12 +2642,12 @@
       <c r="AC4" s="44"/>
     </row>
     <row r="5" spans="1:29" ht="18" customHeight="1">
-      <c r="A5" s="116"/>
-      <c r="B5" s="119"/>
-      <c r="D5" s="112" t="s">
+      <c r="A5" s="113"/>
+      <c r="B5" s="118"/>
+      <c r="D5" s="136" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="113"/>
+      <c r="E5" s="137"/>
       <c r="F5" s="19"/>
       <c r="G5" s="20"/>
       <c r="H5" s="20"/>
@@ -2650,17 +2675,17 @@
       <c r="AC5" s="44"/>
     </row>
     <row r="6" spans="1:29" ht="18" customHeight="1">
-      <c r="A6" s="116" t="s">
+      <c r="A6" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="119" t="str" cm="1">
+      <c r="B6" s="118" t="str" cm="1">
         <f t="array" ref="B6">IFERROR(_xlfn.IFS(P9&gt;9,P9,P8&gt;9,P8,P7&gt;9,P7,P6&gt;9,P6,P5&gt;9,P5,P4&gt;9,P4),"")</f>
         <v/>
       </c>
-      <c r="D6" s="114" t="s">
+      <c r="D6" s="138" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="115"/>
+      <c r="E6" s="139"/>
       <c r="F6" s="23"/>
       <c r="G6" s="24"/>
       <c r="H6" s="24"/>
@@ -2688,12 +2713,12 @@
       <c r="AC6" s="44"/>
     </row>
     <row r="7" spans="1:29" ht="18" customHeight="1">
-      <c r="A7" s="116"/>
-      <c r="B7" s="119"/>
-      <c r="D7" s="117" t="s">
+      <c r="A7" s="113"/>
+      <c r="B7" s="118"/>
+      <c r="D7" s="140" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="118"/>
+      <c r="E7" s="141"/>
       <c r="F7" s="27"/>
       <c r="G7" s="28"/>
       <c r="H7" s="28"/>
@@ -2721,17 +2746,17 @@
       <c r="AC7" s="46"/>
     </row>
     <row r="8" spans="1:29" ht="18" customHeight="1">
-      <c r="A8" s="116" t="s">
+      <c r="A8" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="119" t="str" cm="1">
+      <c r="B8" s="118" t="str" cm="1">
         <f t="array" ref="B8">IFERROR(_xlfn.IFS(K9&gt;9,K9+K7,K8&gt;9,K8+K7,K7&gt;9,K7*2,K6&gt;0,K6*2,K5&gt;0,K5*2,K4&gt;0,K4*2),"")</f>
         <v/>
       </c>
-      <c r="D8" s="131" t="s">
+      <c r="D8" s="107" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="132"/>
+      <c r="E8" s="108"/>
       <c r="F8" s="31"/>
       <c r="G8" s="32"/>
       <c r="H8" s="32"/>
@@ -2759,12 +2784,12 @@
       <c r="AC8" s="66"/>
     </row>
     <row r="9" spans="1:29" ht="18" customHeight="1">
-      <c r="A9" s="116"/>
-      <c r="B9" s="119"/>
-      <c r="D9" s="133" t="s">
+      <c r="A9" s="113"/>
+      <c r="B9" s="118"/>
+      <c r="D9" s="109" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="134"/>
+      <c r="E9" s="110"/>
       <c r="F9" s="27"/>
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
@@ -2792,10 +2817,10 @@
       <c r="AC9" s="44"/>
     </row>
     <row r="10" spans="1:29" ht="18" customHeight="1">
-      <c r="A10" s="116" t="s">
+      <c r="A10" s="113" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="119" t="str" cm="1">
+      <c r="B10" s="118" t="str" cm="1">
         <f t="array" ref="B10">IFERROR(_xlfn.IFS(K9&gt;0,K9,K8&gt;0,K8,K7&gt;0,K7,K6&gt;0,K6,K5&gt;0,K5,K4&gt;0,K4),"")</f>
         <v/>
       </c>
@@ -2817,12 +2842,12 @@
       <c r="AC10" s="44"/>
     </row>
     <row r="11" spans="1:29" ht="18" customHeight="1">
-      <c r="A11" s="116"/>
-      <c r="B11" s="119"/>
-      <c r="D11" s="135" t="s">
+      <c r="A11" s="113"/>
+      <c r="B11" s="118"/>
+      <c r="D11" s="111" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="136"/>
+      <c r="E11" s="112"/>
       <c r="F11" s="36" t="s">
         <v>12</v>
       </c>
@@ -2872,17 +2897,17 @@
       <c r="AC11" s="46"/>
     </row>
     <row r="12" spans="1:29" ht="18" customHeight="1">
-      <c r="A12" s="137" t="s">
+      <c r="A12" s="114" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="119" t="str">
+      <c r="B12" s="118" t="str">
         <f>IFERROR(ROUND(B4/135*100,0),"")</f>
         <v/>
       </c>
-      <c r="D12" s="76" t="s">
+      <c r="D12" s="151" t="s">
         <v>73</v>
       </c>
-      <c r="E12" s="77"/>
+      <c r="E12" s="152"/>
       <c r="F12" s="16"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
@@ -2919,12 +2944,12 @@
       <c r="AC12" s="67"/>
     </row>
     <row r="13" spans="1:29" ht="18" customHeight="1">
-      <c r="A13" s="137"/>
-      <c r="B13" s="119"/>
-      <c r="D13" s="76" t="s">
+      <c r="A13" s="114"/>
+      <c r="B13" s="118"/>
+      <c r="D13" s="151" t="s">
         <v>74</v>
       </c>
-      <c r="E13" s="77"/>
+      <c r="E13" s="152"/>
       <c r="F13" s="16"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -2961,17 +2986,17 @@
       <c r="AC13" s="44"/>
     </row>
     <row r="14" spans="1:29" ht="18" customHeight="1">
-      <c r="A14" s="138" t="s">
+      <c r="A14" s="115" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="141" t="str">
+      <c r="B14" s="119" t="str">
         <f>IFERROR(LOOKUP(10^10,N12:N17),"")</f>
         <v/>
       </c>
-      <c r="D14" s="76" t="s">
+      <c r="D14" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="77"/>
+      <c r="E14" s="152"/>
       <c r="F14" s="16"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
@@ -3008,12 +3033,12 @@
       <c r="AC14" s="46"/>
     </row>
     <row r="15" spans="1:29" ht="18" customHeight="1">
-      <c r="A15" s="138"/>
-      <c r="B15" s="142"/>
-      <c r="D15" s="76" t="s">
+      <c r="A15" s="115"/>
+      <c r="B15" s="120"/>
+      <c r="D15" s="151" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="77"/>
+      <c r="E15" s="152"/>
       <c r="F15" s="16"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
@@ -3037,17 +3062,17 @@
       <c r="R15" s="35"/>
     </row>
     <row r="16" spans="1:29" ht="18" customHeight="1">
-      <c r="A16" s="139" t="s">
+      <c r="A16" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="141" t="str">
+      <c r="B16" s="119" t="str">
         <f>IFERROR(LOOKUP(10^10,O12:O17),"")</f>
         <v/>
       </c>
-      <c r="D16" s="76" t="s">
+      <c r="D16" s="151" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="77"/>
+      <c r="E16" s="152"/>
       <c r="F16" s="16"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
@@ -3084,12 +3109,12 @@
       <c r="AC16" s="53"/>
     </row>
     <row r="17" spans="1:29" ht="18" customHeight="1">
-      <c r="A17" s="140"/>
-      <c r="B17" s="142"/>
-      <c r="D17" s="90" t="s">
+      <c r="A17" s="117"/>
+      <c r="B17" s="120"/>
+      <c r="D17" s="163" t="s">
         <v>77</v>
       </c>
-      <c r="E17" s="91"/>
+      <c r="E17" s="164"/>
       <c r="F17" s="19"/>
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
@@ -3124,10 +3149,10 @@
       <c r="AC17" s="55"/>
     </row>
     <row r="18" spans="1:29" ht="18" customHeight="1">
-      <c r="A18" s="139" t="s">
+      <c r="A18" s="116" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="141" t="str">
+      <c r="B18" s="119" t="str">
         <f>IFERROR(LOOKUP(10^10,P12:P17),"")</f>
         <v/>
       </c>
@@ -3146,8 +3171,8 @@
       <c r="AC18" s="55"/>
     </row>
     <row r="19" spans="1:29" ht="18" customHeight="1">
-      <c r="A19" s="143"/>
-      <c r="B19" s="144"/>
+      <c r="A19" s="121"/>
+      <c r="B19" s="122"/>
       <c r="R19" s="57"/>
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
@@ -3176,34 +3201,34 @@
       <c r="AC20" s="55"/>
     </row>
     <row r="21" spans="1:29" ht="19" customHeight="1">
-      <c r="A21" s="108" t="s">
+      <c r="A21" s="123" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="85"/>
-      <c r="C21" s="84" t="s">
+      <c r="B21" s="124"/>
+      <c r="C21" s="159" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="85"/>
-      <c r="E21" s="88" t="s">
+      <c r="D21" s="124"/>
+      <c r="E21" s="161" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="89"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="88" t="s">
+      <c r="F21" s="162"/>
+      <c r="G21" s="162"/>
+      <c r="H21" s="161" t="s">
         <v>38</v>
       </c>
-      <c r="I21" s="89"/>
-      <c r="J21" s="89"/>
-      <c r="K21" s="88" t="s">
+      <c r="I21" s="162"/>
+      <c r="J21" s="162"/>
+      <c r="K21" s="161" t="s">
         <v>39</v>
       </c>
-      <c r="L21" s="89"/>
-      <c r="M21" s="89"/>
-      <c r="N21" s="88" t="s">
+      <c r="L21" s="162"/>
+      <c r="M21" s="162"/>
+      <c r="N21" s="161" t="s">
         <v>40</v>
       </c>
-      <c r="O21" s="89"/>
-      <c r="P21" s="92"/>
+      <c r="O21" s="162"/>
+      <c r="P21" s="165"/>
       <c r="R21" s="56"/>
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
@@ -3218,10 +3243,10 @@
       <c r="AC21" s="55"/>
     </row>
     <row r="22" spans="1:29" ht="19" customHeight="1">
-      <c r="A22" s="145"/>
-      <c r="B22" s="87"/>
-      <c r="C22" s="86"/>
-      <c r="D22" s="87"/>
+      <c r="A22" s="125"/>
+      <c r="B22" s="126"/>
+      <c r="C22" s="160"/>
+      <c r="D22" s="126"/>
       <c r="E22" s="8">
         <v>2019</v>
       </c>
@@ -3272,10 +3297,10 @@
       <c r="AC22" s="55"/>
     </row>
     <row r="23" spans="1:29" ht="18" customHeight="1">
-      <c r="A23" s="94"/>
-      <c r="B23" s="95"/>
-      <c r="C23" s="100"/>
-      <c r="D23" s="100"/>
+      <c r="A23" s="143"/>
+      <c r="B23" s="144"/>
+      <c r="C23" s="149"/>
+      <c r="D23" s="149"/>
       <c r="E23" s="72"/>
       <c r="F23" s="72"/>
       <c r="G23" s="72"/>
@@ -3302,10 +3327,10 @@
       <c r="AC23" s="55"/>
     </row>
     <row r="24" spans="1:29" ht="18" customHeight="1">
-      <c r="A24" s="94"/>
-      <c r="B24" s="95"/>
-      <c r="C24" s="100"/>
-      <c r="D24" s="100"/>
+      <c r="A24" s="143"/>
+      <c r="B24" s="144"/>
+      <c r="C24" s="149"/>
+      <c r="D24" s="149"/>
       <c r="E24" s="72"/>
       <c r="F24" s="72"/>
       <c r="G24" s="72"/>
@@ -3332,10 +3357,10 @@
       <c r="AC24" s="55"/>
     </row>
     <row r="25" spans="1:29" ht="18" customHeight="1">
-      <c r="A25" s="96"/>
-      <c r="B25" s="97"/>
-      <c r="C25" s="101"/>
-      <c r="D25" s="101"/>
+      <c r="A25" s="145"/>
+      <c r="B25" s="146"/>
+      <c r="C25" s="150"/>
+      <c r="D25" s="150"/>
       <c r="E25" s="74"/>
       <c r="F25" s="74"/>
       <c r="G25" s="74"/>
@@ -3376,30 +3401,30 @@
       <c r="AC26" s="55"/>
     </row>
     <row r="27" spans="1:29" ht="19" customHeight="1">
-      <c r="A27" s="93" t="s">
+      <c r="A27" s="132" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="81"/>
-      <c r="C27" s="80" t="s">
+      <c r="B27" s="133"/>
+      <c r="C27" s="142" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="81"/>
-      <c r="E27" s="81"/>
-      <c r="F27" s="80" t="s">
+      <c r="D27" s="133"/>
+      <c r="E27" s="133"/>
+      <c r="F27" s="142" t="s">
         <v>43</v>
       </c>
-      <c r="G27" s="81"/>
-      <c r="H27" s="81"/>
-      <c r="I27" s="81"/>
-      <c r="J27" s="81"/>
-      <c r="K27" s="81"/>
-      <c r="L27" s="81"/>
-      <c r="M27" s="82"/>
-      <c r="N27" s="80" t="s">
+      <c r="G27" s="133"/>
+      <c r="H27" s="133"/>
+      <c r="I27" s="133"/>
+      <c r="J27" s="133"/>
+      <c r="K27" s="133"/>
+      <c r="L27" s="133"/>
+      <c r="M27" s="157"/>
+      <c r="N27" s="142" t="s">
         <v>44</v>
       </c>
-      <c r="O27" s="81"/>
-      <c r="P27" s="83"/>
+      <c r="O27" s="133"/>
+      <c r="P27" s="158"/>
       <c r="R27" s="56"/>
       <c r="S27" s="4"/>
       <c r="T27" s="4"/>
@@ -3414,22 +3439,22 @@
       <c r="AC27" s="55"/>
     </row>
     <row r="28" spans="1:29" ht="18" customHeight="1">
-      <c r="A28" s="94"/>
-      <c r="B28" s="95"/>
-      <c r="C28" s="98"/>
-      <c r="D28" s="98"/>
-      <c r="E28" s="98"/>
-      <c r="F28" s="79"/>
-      <c r="G28" s="79"/>
-      <c r="H28" s="79"/>
-      <c r="I28" s="79"/>
-      <c r="J28" s="79"/>
-      <c r="K28" s="79"/>
-      <c r="L28" s="79"/>
-      <c r="M28" s="79"/>
-      <c r="N28" s="100"/>
-      <c r="O28" s="100"/>
-      <c r="P28" s="166"/>
+      <c r="A28" s="143"/>
+      <c r="B28" s="144"/>
+      <c r="C28" s="147"/>
+      <c r="D28" s="147"/>
+      <c r="E28" s="147"/>
+      <c r="F28" s="156"/>
+      <c r="G28" s="156"/>
+      <c r="H28" s="156"/>
+      <c r="I28" s="156"/>
+      <c r="J28" s="156"/>
+      <c r="K28" s="156"/>
+      <c r="L28" s="156"/>
+      <c r="M28" s="156"/>
+      <c r="N28" s="149"/>
+      <c r="O28" s="149"/>
+      <c r="P28" s="154"/>
       <c r="R28" s="56"/>
       <c r="S28" s="4"/>
       <c r="T28" s="4"/>
@@ -3444,22 +3469,22 @@
       <c r="AC28" s="55"/>
     </row>
     <row r="29" spans="1:29" ht="18" customHeight="1">
-      <c r="A29" s="94"/>
-      <c r="B29" s="95"/>
-      <c r="C29" s="98"/>
-      <c r="D29" s="98"/>
-      <c r="E29" s="98"/>
-      <c r="F29" s="79"/>
-      <c r="G29" s="79"/>
-      <c r="H29" s="79"/>
-      <c r="I29" s="79"/>
-      <c r="J29" s="79"/>
-      <c r="K29" s="79"/>
-      <c r="L29" s="79"/>
-      <c r="M29" s="79"/>
-      <c r="N29" s="100"/>
-      <c r="O29" s="100"/>
-      <c r="P29" s="166"/>
+      <c r="A29" s="143"/>
+      <c r="B29" s="144"/>
+      <c r="C29" s="147"/>
+      <c r="D29" s="147"/>
+      <c r="E29" s="147"/>
+      <c r="F29" s="156"/>
+      <c r="G29" s="156"/>
+      <c r="H29" s="156"/>
+      <c r="I29" s="156"/>
+      <c r="J29" s="156"/>
+      <c r="K29" s="156"/>
+      <c r="L29" s="156"/>
+      <c r="M29" s="156"/>
+      <c r="N29" s="149"/>
+      <c r="O29" s="149"/>
+      <c r="P29" s="154"/>
       <c r="R29" s="56"/>
       <c r="S29" s="4"/>
       <c r="T29" s="4"/>
@@ -3474,22 +3499,22 @@
       <c r="AC29" s="55"/>
     </row>
     <row r="30" spans="1:29" ht="18" customHeight="1">
-      <c r="A30" s="94"/>
-      <c r="B30" s="95"/>
-      <c r="C30" s="98"/>
-      <c r="D30" s="98"/>
-      <c r="E30" s="98"/>
-      <c r="F30" s="79"/>
-      <c r="G30" s="79"/>
-      <c r="H30" s="79"/>
-      <c r="I30" s="79"/>
-      <c r="J30" s="79"/>
-      <c r="K30" s="79"/>
-      <c r="L30" s="79"/>
-      <c r="M30" s="79"/>
-      <c r="N30" s="100"/>
-      <c r="O30" s="100"/>
-      <c r="P30" s="166"/>
+      <c r="A30" s="143"/>
+      <c r="B30" s="144"/>
+      <c r="C30" s="147"/>
+      <c r="D30" s="147"/>
+      <c r="E30" s="147"/>
+      <c r="F30" s="156"/>
+      <c r="G30" s="156"/>
+      <c r="H30" s="156"/>
+      <c r="I30" s="156"/>
+      <c r="J30" s="156"/>
+      <c r="K30" s="156"/>
+      <c r="L30" s="156"/>
+      <c r="M30" s="156"/>
+      <c r="N30" s="149"/>
+      <c r="O30" s="149"/>
+      <c r="P30" s="154"/>
       <c r="R30" s="56"/>
       <c r="S30" s="4"/>
       <c r="T30" s="4"/>
@@ -3504,22 +3529,22 @@
       <c r="AC30" s="55"/>
     </row>
     <row r="31" spans="1:29" ht="18" customHeight="1">
-      <c r="A31" s="94"/>
-      <c r="B31" s="95"/>
-      <c r="C31" s="98"/>
-      <c r="D31" s="98"/>
-      <c r="E31" s="98"/>
-      <c r="F31" s="79"/>
-      <c r="G31" s="79"/>
-      <c r="H31" s="79"/>
-      <c r="I31" s="79"/>
-      <c r="J31" s="79"/>
-      <c r="K31" s="79"/>
-      <c r="L31" s="79"/>
-      <c r="M31" s="79"/>
-      <c r="N31" s="100"/>
-      <c r="O31" s="100"/>
-      <c r="P31" s="166"/>
+      <c r="A31" s="143"/>
+      <c r="B31" s="144"/>
+      <c r="C31" s="147"/>
+      <c r="D31" s="147"/>
+      <c r="E31" s="147"/>
+      <c r="F31" s="156"/>
+      <c r="G31" s="156"/>
+      <c r="H31" s="156"/>
+      <c r="I31" s="156"/>
+      <c r="J31" s="156"/>
+      <c r="K31" s="156"/>
+      <c r="L31" s="156"/>
+      <c r="M31" s="156"/>
+      <c r="N31" s="149"/>
+      <c r="O31" s="149"/>
+      <c r="P31" s="154"/>
       <c r="R31" s="56"/>
       <c r="S31" s="4"/>
       <c r="T31" s="4"/>
@@ -3534,22 +3559,22 @@
       <c r="AC31" s="55"/>
     </row>
     <row r="32" spans="1:29" ht="18" customHeight="1">
-      <c r="A32" s="96"/>
-      <c r="B32" s="97"/>
-      <c r="C32" s="99"/>
-      <c r="D32" s="99"/>
-      <c r="E32" s="99"/>
-      <c r="F32" s="78"/>
-      <c r="G32" s="78"/>
-      <c r="H32" s="78"/>
-      <c r="I32" s="78"/>
-      <c r="J32" s="78"/>
-      <c r="K32" s="78"/>
-      <c r="L32" s="78"/>
-      <c r="M32" s="78"/>
-      <c r="N32" s="101"/>
-      <c r="O32" s="101"/>
-      <c r="P32" s="167"/>
+      <c r="A32" s="145"/>
+      <c r="B32" s="146"/>
+      <c r="C32" s="148"/>
+      <c r="D32" s="148"/>
+      <c r="E32" s="148"/>
+      <c r="F32" s="153"/>
+      <c r="G32" s="153"/>
+      <c r="H32" s="153"/>
+      <c r="I32" s="153"/>
+      <c r="J32" s="153"/>
+      <c r="K32" s="153"/>
+      <c r="L32" s="153"/>
+      <c r="M32" s="153"/>
+      <c r="N32" s="150"/>
+      <c r="O32" s="150"/>
+      <c r="P32" s="155"/>
       <c r="R32" s="58"/>
       <c r="S32" s="59"/>
       <c r="T32" s="59"/>
@@ -3570,74 +3595,74 @@
       </c>
     </row>
     <row r="35" spans="1:29">
-      <c r="A35" s="120" t="s">
+      <c r="A35" s="102" t="s">
         <v>64</v>
       </c>
-      <c r="B35" s="121"/>
-      <c r="C35" s="121" t="s">
+      <c r="B35" s="103"/>
+      <c r="C35" s="103" t="s">
         <v>65</v>
       </c>
-      <c r="D35" s="121"/>
-      <c r="E35" s="121"/>
-      <c r="F35" s="121"/>
-      <c r="G35" s="121"/>
-      <c r="H35" s="121" t="s">
+      <c r="D35" s="103"/>
+      <c r="E35" s="103"/>
+      <c r="F35" s="103"/>
+      <c r="G35" s="103"/>
+      <c r="H35" s="103" t="s">
         <v>66</v>
       </c>
-      <c r="I35" s="121"/>
-      <c r="J35" s="121"/>
-      <c r="K35" s="122"/>
+      <c r="I35" s="103"/>
+      <c r="J35" s="103"/>
+      <c r="K35" s="104"/>
       <c r="L35" s="11"/>
       <c r="M35" s="11"/>
       <c r="N35" s="11"/>
       <c r="O35" s="11"/>
     </row>
     <row r="36" spans="1:29">
-      <c r="A36" s="123"/>
-      <c r="B36" s="124"/>
-      <c r="C36" s="125"/>
-      <c r="D36" s="126"/>
-      <c r="E36" s="126"/>
-      <c r="F36" s="126"/>
-      <c r="G36" s="127"/>
-      <c r="H36" s="125"/>
-      <c r="I36" s="126"/>
-      <c r="J36" s="126"/>
-      <c r="K36" s="128"/>
+      <c r="A36" s="90"/>
+      <c r="B36" s="91"/>
+      <c r="C36" s="92"/>
+      <c r="D36" s="93"/>
+      <c r="E36" s="93"/>
+      <c r="F36" s="93"/>
+      <c r="G36" s="94"/>
+      <c r="H36" s="92"/>
+      <c r="I36" s="93"/>
+      <c r="J36" s="93"/>
+      <c r="K36" s="95"/>
       <c r="L36" s="11"/>
       <c r="M36" s="11"/>
       <c r="N36" s="11"/>
       <c r="O36" s="11"/>
     </row>
     <row r="37" spans="1:29">
-      <c r="A37" s="123"/>
-      <c r="B37" s="124"/>
-      <c r="C37" s="125"/>
-      <c r="D37" s="126"/>
-      <c r="E37" s="126"/>
-      <c r="F37" s="126"/>
-      <c r="G37" s="127"/>
-      <c r="H37" s="125"/>
-      <c r="I37" s="126"/>
-      <c r="J37" s="126"/>
-      <c r="K37" s="128"/>
+      <c r="A37" s="90"/>
+      <c r="B37" s="91"/>
+      <c r="C37" s="92"/>
+      <c r="D37" s="93"/>
+      <c r="E37" s="93"/>
+      <c r="F37" s="93"/>
+      <c r="G37" s="94"/>
+      <c r="H37" s="92"/>
+      <c r="I37" s="93"/>
+      <c r="J37" s="93"/>
+      <c r="K37" s="95"/>
       <c r="L37" s="11"/>
       <c r="M37" s="11"/>
       <c r="N37" s="11"/>
       <c r="O37" s="11"/>
     </row>
     <row r="38" spans="1:29">
-      <c r="A38" s="153"/>
-      <c r="B38" s="154"/>
-      <c r="C38" s="155"/>
-      <c r="D38" s="156"/>
-      <c r="E38" s="156"/>
-      <c r="F38" s="156"/>
-      <c r="G38" s="157"/>
-      <c r="H38" s="155"/>
-      <c r="I38" s="156"/>
-      <c r="J38" s="156"/>
-      <c r="K38" s="158"/>
+      <c r="A38" s="96"/>
+      <c r="B38" s="97"/>
+      <c r="C38" s="98"/>
+      <c r="D38" s="99"/>
+      <c r="E38" s="99"/>
+      <c r="F38" s="99"/>
+      <c r="G38" s="100"/>
+      <c r="H38" s="98"/>
+      <c r="I38" s="99"/>
+      <c r="J38" s="99"/>
+      <c r="K38" s="101"/>
       <c r="L38" s="11"/>
       <c r="M38" s="11"/>
       <c r="N38" s="11"/>
@@ -3654,134 +3679,134 @@
       </c>
     </row>
     <row r="42" spans="1:29">
-      <c r="A42" s="146" t="s">
+      <c r="A42" s="84" t="s">
         <v>69</v>
       </c>
-      <c r="B42" s="147"/>
-      <c r="C42" s="147" t="s">
+      <c r="B42" s="85"/>
+      <c r="C42" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="D42" s="147"/>
-      <c r="E42" s="147"/>
-      <c r="F42" s="147"/>
-      <c r="G42" s="147"/>
-      <c r="H42" s="147"/>
-      <c r="I42" s="147"/>
-      <c r="J42" s="147"/>
-      <c r="K42" s="147"/>
-      <c r="L42" s="147"/>
-      <c r="M42" s="147"/>
-      <c r="N42" s="147"/>
-      <c r="O42" s="147"/>
-      <c r="P42" s="147"/>
-      <c r="Q42" s="147" t="s">
+      <c r="D42" s="85"/>
+      <c r="E42" s="85"/>
+      <c r="F42" s="85"/>
+      <c r="G42" s="85"/>
+      <c r="H42" s="85"/>
+      <c r="I42" s="85"/>
+      <c r="J42" s="85"/>
+      <c r="K42" s="85"/>
+      <c r="L42" s="85"/>
+      <c r="M42" s="85"/>
+      <c r="N42" s="85"/>
+      <c r="O42" s="85"/>
+      <c r="P42" s="85"/>
+      <c r="Q42" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="R42" s="147"/>
-      <c r="S42" s="147"/>
-      <c r="T42" s="147"/>
-      <c r="U42" s="147"/>
-      <c r="V42" s="147"/>
-      <c r="W42" s="147"/>
-      <c r="X42" s="147"/>
-      <c r="Y42" s="147"/>
-      <c r="Z42" s="147"/>
-      <c r="AA42" s="147"/>
-      <c r="AB42" s="147"/>
-      <c r="AC42" s="148"/>
+      <c r="R42" s="85"/>
+      <c r="S42" s="85"/>
+      <c r="T42" s="85"/>
+      <c r="U42" s="85"/>
+      <c r="V42" s="85"/>
+      <c r="W42" s="85"/>
+      <c r="X42" s="85"/>
+      <c r="Y42" s="85"/>
+      <c r="Z42" s="85"/>
+      <c r="AA42" s="85"/>
+      <c r="AB42" s="85"/>
+      <c r="AC42" s="89"/>
     </row>
     <row r="43" spans="1:29">
-      <c r="A43" s="149"/>
-      <c r="B43" s="150"/>
-      <c r="C43" s="151"/>
-      <c r="D43" s="151"/>
-      <c r="E43" s="151"/>
-      <c r="F43" s="151"/>
-      <c r="G43" s="151"/>
-      <c r="H43" s="151"/>
-      <c r="I43" s="151"/>
-      <c r="J43" s="151"/>
-      <c r="K43" s="151"/>
-      <c r="L43" s="151"/>
-      <c r="M43" s="151"/>
-      <c r="N43" s="151"/>
-      <c r="O43" s="151"/>
-      <c r="P43" s="151"/>
-      <c r="Q43" s="151"/>
-      <c r="R43" s="151"/>
-      <c r="S43" s="151"/>
-      <c r="T43" s="151"/>
-      <c r="U43" s="151"/>
-      <c r="V43" s="151"/>
-      <c r="W43" s="151"/>
-      <c r="X43" s="151"/>
-      <c r="Y43" s="151"/>
-      <c r="Z43" s="151"/>
-      <c r="AA43" s="151"/>
-      <c r="AB43" s="151"/>
-      <c r="AC43" s="152"/>
+      <c r="A43" s="76"/>
+      <c r="B43" s="77"/>
+      <c r="C43" s="78"/>
+      <c r="D43" s="78"/>
+      <c r="E43" s="78"/>
+      <c r="F43" s="78"/>
+      <c r="G43" s="78"/>
+      <c r="H43" s="78"/>
+      <c r="I43" s="78"/>
+      <c r="J43" s="78"/>
+      <c r="K43" s="78"/>
+      <c r="L43" s="78"/>
+      <c r="M43" s="78"/>
+      <c r="N43" s="78"/>
+      <c r="O43" s="78"/>
+      <c r="P43" s="78"/>
+      <c r="Q43" s="78"/>
+      <c r="R43" s="78"/>
+      <c r="S43" s="78"/>
+      <c r="T43" s="78"/>
+      <c r="U43" s="78"/>
+      <c r="V43" s="78"/>
+      <c r="W43" s="78"/>
+      <c r="X43" s="78"/>
+      <c r="Y43" s="78"/>
+      <c r="Z43" s="78"/>
+      <c r="AA43" s="78"/>
+      <c r="AB43" s="78"/>
+      <c r="AC43" s="79"/>
     </row>
     <row r="44" spans="1:29">
-      <c r="A44" s="149"/>
-      <c r="B44" s="150"/>
-      <c r="C44" s="151"/>
-      <c r="D44" s="151"/>
-      <c r="E44" s="151"/>
-      <c r="F44" s="151"/>
-      <c r="G44" s="151"/>
-      <c r="H44" s="151"/>
-      <c r="I44" s="151"/>
-      <c r="J44" s="151"/>
-      <c r="K44" s="151"/>
-      <c r="L44" s="151"/>
-      <c r="M44" s="151"/>
-      <c r="N44" s="151"/>
-      <c r="O44" s="151"/>
-      <c r="P44" s="151"/>
-      <c r="Q44" s="151"/>
-      <c r="R44" s="151"/>
-      <c r="S44" s="151"/>
-      <c r="T44" s="151"/>
-      <c r="U44" s="151"/>
-      <c r="V44" s="151"/>
-      <c r="W44" s="151"/>
-      <c r="X44" s="151"/>
-      <c r="Y44" s="151"/>
-      <c r="Z44" s="151"/>
-      <c r="AA44" s="151"/>
-      <c r="AB44" s="151"/>
-      <c r="AC44" s="152"/>
+      <c r="A44" s="76"/>
+      <c r="B44" s="77"/>
+      <c r="C44" s="78"/>
+      <c r="D44" s="78"/>
+      <c r="E44" s="78"/>
+      <c r="F44" s="78"/>
+      <c r="G44" s="78"/>
+      <c r="H44" s="78"/>
+      <c r="I44" s="78"/>
+      <c r="J44" s="78"/>
+      <c r="K44" s="78"/>
+      <c r="L44" s="78"/>
+      <c r="M44" s="78"/>
+      <c r="N44" s="78"/>
+      <c r="O44" s="78"/>
+      <c r="P44" s="78"/>
+      <c r="Q44" s="78"/>
+      <c r="R44" s="78"/>
+      <c r="S44" s="78"/>
+      <c r="T44" s="78"/>
+      <c r="U44" s="78"/>
+      <c r="V44" s="78"/>
+      <c r="W44" s="78"/>
+      <c r="X44" s="78"/>
+      <c r="Y44" s="78"/>
+      <c r="Z44" s="78"/>
+      <c r="AA44" s="78"/>
+      <c r="AB44" s="78"/>
+      <c r="AC44" s="79"/>
     </row>
     <row r="45" spans="1:29">
-      <c r="A45" s="162"/>
-      <c r="B45" s="163"/>
-      <c r="C45" s="164"/>
-      <c r="D45" s="164"/>
-      <c r="E45" s="164"/>
-      <c r="F45" s="164"/>
-      <c r="G45" s="164"/>
-      <c r="H45" s="164"/>
-      <c r="I45" s="164"/>
-      <c r="J45" s="164"/>
-      <c r="K45" s="164"/>
-      <c r="L45" s="164"/>
-      <c r="M45" s="164"/>
-      <c r="N45" s="164"/>
-      <c r="O45" s="164"/>
-      <c r="P45" s="164"/>
-      <c r="Q45" s="164"/>
-      <c r="R45" s="164"/>
-      <c r="S45" s="164"/>
-      <c r="T45" s="164"/>
-      <c r="U45" s="164"/>
-      <c r="V45" s="164"/>
-      <c r="W45" s="164"/>
-      <c r="X45" s="164"/>
-      <c r="Y45" s="164"/>
-      <c r="Z45" s="164"/>
-      <c r="AA45" s="164"/>
-      <c r="AB45" s="164"/>
-      <c r="AC45" s="165"/>
+      <c r="A45" s="80"/>
+      <c r="B45" s="81"/>
+      <c r="C45" s="82"/>
+      <c r="D45" s="82"/>
+      <c r="E45" s="82"/>
+      <c r="F45" s="82"/>
+      <c r="G45" s="82"/>
+      <c r="H45" s="82"/>
+      <c r="I45" s="82"/>
+      <c r="J45" s="82"/>
+      <c r="K45" s="82"/>
+      <c r="L45" s="82"/>
+      <c r="M45" s="82"/>
+      <c r="N45" s="82"/>
+      <c r="O45" s="82"/>
+      <c r="P45" s="82"/>
+      <c r="Q45" s="82"/>
+      <c r="R45" s="82"/>
+      <c r="S45" s="82"/>
+      <c r="T45" s="82"/>
+      <c r="U45" s="82"/>
+      <c r="V45" s="82"/>
+      <c r="W45" s="82"/>
+      <c r="X45" s="82"/>
+      <c r="Y45" s="82"/>
+      <c r="Z45" s="82"/>
+      <c r="AA45" s="82"/>
+      <c r="AB45" s="82"/>
+      <c r="AC45" s="83"/>
     </row>
     <row r="46" spans="1:29">
       <c r="A46" s="10" t="s">
@@ -3789,235 +3814,254 @@
       </c>
     </row>
     <row r="47" spans="1:29">
-      <c r="A47" s="146" t="s">
+      <c r="A47" s="84" t="s">
         <v>69</v>
       </c>
-      <c r="B47" s="147"/>
-      <c r="C47" s="147" t="s">
+      <c r="B47" s="85"/>
+      <c r="C47" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="D47" s="147"/>
-      <c r="E47" s="147"/>
-      <c r="F47" s="147"/>
-      <c r="G47" s="147"/>
-      <c r="H47" s="147"/>
-      <c r="I47" s="147"/>
-      <c r="J47" s="147"/>
-      <c r="K47" s="147"/>
-      <c r="L47" s="147"/>
-      <c r="M47" s="147"/>
-      <c r="N47" s="147"/>
-      <c r="O47" s="147"/>
-      <c r="P47" s="147"/>
-      <c r="Q47" s="159" t="s">
+      <c r="D47" s="85"/>
+      <c r="E47" s="85"/>
+      <c r="F47" s="85"/>
+      <c r="G47" s="85"/>
+      <c r="H47" s="85"/>
+      <c r="I47" s="85"/>
+      <c r="J47" s="85"/>
+      <c r="K47" s="85"/>
+      <c r="L47" s="85"/>
+      <c r="M47" s="85"/>
+      <c r="N47" s="85"/>
+      <c r="O47" s="85"/>
+      <c r="P47" s="85"/>
+      <c r="Q47" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="R47" s="160"/>
-      <c r="S47" s="160"/>
-      <c r="T47" s="160"/>
-      <c r="U47" s="160"/>
-      <c r="V47" s="160"/>
-      <c r="W47" s="160"/>
-      <c r="X47" s="160"/>
-      <c r="Y47" s="160"/>
-      <c r="Z47" s="160"/>
-      <c r="AA47" s="160"/>
-      <c r="AB47" s="160"/>
-      <c r="AC47" s="161"/>
+      <c r="R47" s="87"/>
+      <c r="S47" s="87"/>
+      <c r="T47" s="87"/>
+      <c r="U47" s="87"/>
+      <c r="V47" s="87"/>
+      <c r="W47" s="87"/>
+      <c r="X47" s="87"/>
+      <c r="Y47" s="87"/>
+      <c r="Z47" s="87"/>
+      <c r="AA47" s="87"/>
+      <c r="AB47" s="87"/>
+      <c r="AC47" s="88"/>
     </row>
     <row r="48" spans="1:29">
-      <c r="A48" s="149"/>
-      <c r="B48" s="150"/>
-      <c r="C48" s="151"/>
-      <c r="D48" s="151"/>
-      <c r="E48" s="151"/>
-      <c r="F48" s="151"/>
-      <c r="G48" s="151"/>
-      <c r="H48" s="151"/>
-      <c r="I48" s="151"/>
-      <c r="J48" s="151"/>
-      <c r="K48" s="151"/>
-      <c r="L48" s="151"/>
-      <c r="M48" s="151"/>
-      <c r="N48" s="151"/>
-      <c r="O48" s="151"/>
-      <c r="P48" s="151"/>
-      <c r="Q48" s="151"/>
-      <c r="R48" s="151"/>
-      <c r="S48" s="151"/>
-      <c r="T48" s="151"/>
-      <c r="U48" s="151"/>
-      <c r="V48" s="151"/>
-      <c r="W48" s="151"/>
-      <c r="X48" s="151"/>
-      <c r="Y48" s="151"/>
-      <c r="Z48" s="151"/>
-      <c r="AA48" s="151"/>
-      <c r="AB48" s="151"/>
-      <c r="AC48" s="152"/>
+      <c r="A48" s="76"/>
+      <c r="B48" s="77"/>
+      <c r="C48" s="78"/>
+      <c r="D48" s="78"/>
+      <c r="E48" s="78"/>
+      <c r="F48" s="78"/>
+      <c r="G48" s="78"/>
+      <c r="H48" s="78"/>
+      <c r="I48" s="78"/>
+      <c r="J48" s="78"/>
+      <c r="K48" s="78"/>
+      <c r="L48" s="78"/>
+      <c r="M48" s="78"/>
+      <c r="N48" s="78"/>
+      <c r="O48" s="78"/>
+      <c r="P48" s="78"/>
+      <c r="Q48" s="78"/>
+      <c r="R48" s="78"/>
+      <c r="S48" s="78"/>
+      <c r="T48" s="78"/>
+      <c r="U48" s="78"/>
+      <c r="V48" s="78"/>
+      <c r="W48" s="78"/>
+      <c r="X48" s="78"/>
+      <c r="Y48" s="78"/>
+      <c r="Z48" s="78"/>
+      <c r="AA48" s="78"/>
+      <c r="AB48" s="78"/>
+      <c r="AC48" s="79"/>
     </row>
     <row r="49" spans="1:29">
-      <c r="A49" s="149"/>
-      <c r="B49" s="150"/>
-      <c r="C49" s="151"/>
-      <c r="D49" s="151"/>
-      <c r="E49" s="151"/>
-      <c r="F49" s="151"/>
-      <c r="G49" s="151"/>
-      <c r="H49" s="151"/>
-      <c r="I49" s="151"/>
-      <c r="J49" s="151"/>
-      <c r="K49" s="151"/>
-      <c r="L49" s="151"/>
-      <c r="M49" s="151"/>
-      <c r="N49" s="151"/>
-      <c r="O49" s="151"/>
-      <c r="P49" s="151"/>
-      <c r="Q49" s="151"/>
-      <c r="R49" s="151"/>
-      <c r="S49" s="151"/>
-      <c r="T49" s="151"/>
-      <c r="U49" s="151"/>
-      <c r="V49" s="151"/>
-      <c r="W49" s="151"/>
-      <c r="X49" s="151"/>
-      <c r="Y49" s="151"/>
-      <c r="Z49" s="151"/>
-      <c r="AA49" s="151"/>
-      <c r="AB49" s="151"/>
-      <c r="AC49" s="152"/>
+      <c r="A49" s="76"/>
+      <c r="B49" s="77"/>
+      <c r="C49" s="78"/>
+      <c r="D49" s="78"/>
+      <c r="E49" s="78"/>
+      <c r="F49" s="78"/>
+      <c r="G49" s="78"/>
+      <c r="H49" s="78"/>
+      <c r="I49" s="78"/>
+      <c r="J49" s="78"/>
+      <c r="K49" s="78"/>
+      <c r="L49" s="78"/>
+      <c r="M49" s="78"/>
+      <c r="N49" s="78"/>
+      <c r="O49" s="78"/>
+      <c r="P49" s="78"/>
+      <c r="Q49" s="78"/>
+      <c r="R49" s="78"/>
+      <c r="S49" s="78"/>
+      <c r="T49" s="78"/>
+      <c r="U49" s="78"/>
+      <c r="V49" s="78"/>
+      <c r="W49" s="78"/>
+      <c r="X49" s="78"/>
+      <c r="Y49" s="78"/>
+      <c r="Z49" s="78"/>
+      <c r="AA49" s="78"/>
+      <c r="AB49" s="78"/>
+      <c r="AC49" s="79"/>
     </row>
     <row r="50" spans="1:29">
-      <c r="A50" s="149"/>
-      <c r="B50" s="150"/>
-      <c r="C50" s="151"/>
-      <c r="D50" s="151"/>
-      <c r="E50" s="151"/>
-      <c r="F50" s="151"/>
-      <c r="G50" s="151"/>
-      <c r="H50" s="151"/>
-      <c r="I50" s="151"/>
-      <c r="J50" s="151"/>
-      <c r="K50" s="151"/>
-      <c r="L50" s="151"/>
-      <c r="M50" s="151"/>
-      <c r="N50" s="151"/>
-      <c r="O50" s="151"/>
-      <c r="P50" s="151"/>
-      <c r="Q50" s="151"/>
-      <c r="R50" s="151"/>
-      <c r="S50" s="151"/>
-      <c r="T50" s="151"/>
-      <c r="U50" s="151"/>
-      <c r="V50" s="151"/>
-      <c r="W50" s="151"/>
-      <c r="X50" s="151"/>
-      <c r="Y50" s="151"/>
-      <c r="Z50" s="151"/>
-      <c r="AA50" s="151"/>
-      <c r="AB50" s="151"/>
-      <c r="AC50" s="152"/>
+      <c r="A50" s="76"/>
+      <c r="B50" s="77"/>
+      <c r="C50" s="78"/>
+      <c r="D50" s="78"/>
+      <c r="E50" s="78"/>
+      <c r="F50" s="78"/>
+      <c r="G50" s="78"/>
+      <c r="H50" s="78"/>
+      <c r="I50" s="78"/>
+      <c r="J50" s="78"/>
+      <c r="K50" s="78"/>
+      <c r="L50" s="78"/>
+      <c r="M50" s="78"/>
+      <c r="N50" s="78"/>
+      <c r="O50" s="78"/>
+      <c r="P50" s="78"/>
+      <c r="Q50" s="78"/>
+      <c r="R50" s="78"/>
+      <c r="S50" s="78"/>
+      <c r="T50" s="78"/>
+      <c r="U50" s="78"/>
+      <c r="V50" s="78"/>
+      <c r="W50" s="78"/>
+      <c r="X50" s="78"/>
+      <c r="Y50" s="78"/>
+      <c r="Z50" s="78"/>
+      <c r="AA50" s="78"/>
+      <c r="AB50" s="78"/>
+      <c r="AC50" s="79"/>
     </row>
     <row r="51" spans="1:29">
-      <c r="A51" s="149"/>
-      <c r="B51" s="150"/>
-      <c r="C51" s="151"/>
-      <c r="D51" s="151"/>
-      <c r="E51" s="151"/>
-      <c r="F51" s="151"/>
-      <c r="G51" s="151"/>
-      <c r="H51" s="151"/>
-      <c r="I51" s="151"/>
-      <c r="J51" s="151"/>
-      <c r="K51" s="151"/>
-      <c r="L51" s="151"/>
-      <c r="M51" s="151"/>
-      <c r="N51" s="151"/>
-      <c r="O51" s="151"/>
-      <c r="P51" s="151"/>
-      <c r="Q51" s="151"/>
-      <c r="R51" s="151"/>
-      <c r="S51" s="151"/>
-      <c r="T51" s="151"/>
-      <c r="U51" s="151"/>
-      <c r="V51" s="151"/>
-      <c r="W51" s="151"/>
-      <c r="X51" s="151"/>
-      <c r="Y51" s="151"/>
-      <c r="Z51" s="151"/>
-      <c r="AA51" s="151"/>
-      <c r="AB51" s="151"/>
-      <c r="AC51" s="152"/>
+      <c r="A51" s="76"/>
+      <c r="B51" s="77"/>
+      <c r="C51" s="78"/>
+      <c r="D51" s="78"/>
+      <c r="E51" s="78"/>
+      <c r="F51" s="78"/>
+      <c r="G51" s="78"/>
+      <c r="H51" s="78"/>
+      <c r="I51" s="78"/>
+      <c r="J51" s="78"/>
+      <c r="K51" s="78"/>
+      <c r="L51" s="78"/>
+      <c r="M51" s="78"/>
+      <c r="N51" s="78"/>
+      <c r="O51" s="78"/>
+      <c r="P51" s="78"/>
+      <c r="Q51" s="78"/>
+      <c r="R51" s="78"/>
+      <c r="S51" s="78"/>
+      <c r="T51" s="78"/>
+      <c r="U51" s="78"/>
+      <c r="V51" s="78"/>
+      <c r="W51" s="78"/>
+      <c r="X51" s="78"/>
+      <c r="Y51" s="78"/>
+      <c r="Z51" s="78"/>
+      <c r="AA51" s="78"/>
+      <c r="AB51" s="78"/>
+      <c r="AC51" s="79"/>
     </row>
     <row r="52" spans="1:29">
-      <c r="A52" s="162"/>
-      <c r="B52" s="163"/>
-      <c r="C52" s="164"/>
-      <c r="D52" s="164"/>
-      <c r="E52" s="164"/>
-      <c r="F52" s="164"/>
-      <c r="G52" s="164"/>
-      <c r="H52" s="164"/>
-      <c r="I52" s="164"/>
-      <c r="J52" s="164"/>
-      <c r="K52" s="164"/>
-      <c r="L52" s="164"/>
-      <c r="M52" s="164"/>
-      <c r="N52" s="164"/>
-      <c r="O52" s="164"/>
-      <c r="P52" s="164"/>
-      <c r="Q52" s="164"/>
-      <c r="R52" s="164"/>
-      <c r="S52" s="164"/>
-      <c r="T52" s="164"/>
-      <c r="U52" s="164"/>
-      <c r="V52" s="164"/>
-      <c r="W52" s="164"/>
-      <c r="X52" s="164"/>
-      <c r="Y52" s="164"/>
-      <c r="Z52" s="164"/>
-      <c r="AA52" s="164"/>
-      <c r="AB52" s="164"/>
-      <c r="AC52" s="165"/>
+      <c r="A52" s="80"/>
+      <c r="B52" s="81"/>
+      <c r="C52" s="82"/>
+      <c r="D52" s="82"/>
+      <c r="E52" s="82"/>
+      <c r="F52" s="82"/>
+      <c r="G52" s="82"/>
+      <c r="H52" s="82"/>
+      <c r="I52" s="82"/>
+      <c r="J52" s="82"/>
+      <c r="K52" s="82"/>
+      <c r="L52" s="82"/>
+      <c r="M52" s="82"/>
+      <c r="N52" s="82"/>
+      <c r="O52" s="82"/>
+      <c r="P52" s="82"/>
+      <c r="Q52" s="82"/>
+      <c r="R52" s="82"/>
+      <c r="S52" s="82"/>
+      <c r="T52" s="82"/>
+      <c r="U52" s="82"/>
+      <c r="V52" s="82"/>
+      <c r="W52" s="82"/>
+      <c r="X52" s="82"/>
+      <c r="Y52" s="82"/>
+      <c r="Z52" s="82"/>
+      <c r="AA52" s="82"/>
+      <c r="AB52" s="82"/>
+      <c r="AC52" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="115">
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:P51"/>
-    <mergeCell ref="Q51:AC51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:P52"/>
-    <mergeCell ref="Q52:AC52"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:P49"/>
-    <mergeCell ref="Q49:AC49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:P50"/>
-    <mergeCell ref="Q50:AC50"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:P47"/>
-    <mergeCell ref="Q47:AC47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:P48"/>
-    <mergeCell ref="Q48:AC48"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:P44"/>
-    <mergeCell ref="Q44:AC44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:P45"/>
-    <mergeCell ref="Q45:AC45"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:P42"/>
-    <mergeCell ref="Q42:AC42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:P43"/>
-    <mergeCell ref="Q43:AC43"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F32:M32"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="N32:P32"/>
+    <mergeCell ref="F31:M31"/>
+    <mergeCell ref="F27:M27"/>
+    <mergeCell ref="N27:P27"/>
+    <mergeCell ref="F28:M28"/>
+    <mergeCell ref="F29:M29"/>
+    <mergeCell ref="F30:M30"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="W2:AB2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:R2"/>
+    <mergeCell ref="W1:AB1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="C35:G35"/>
     <mergeCell ref="H35:K35"/>
@@ -4042,61 +4086,42 @@
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="A21:B22"/>
-    <mergeCell ref="W2:AB2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:R2"/>
-    <mergeCell ref="W1:AB1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F32:M32"/>
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="N30:P30"/>
-    <mergeCell ref="N31:P31"/>
-    <mergeCell ref="N32:P32"/>
-    <mergeCell ref="F31:M31"/>
-    <mergeCell ref="F27:M27"/>
-    <mergeCell ref="N27:P27"/>
-    <mergeCell ref="F28:M28"/>
-    <mergeCell ref="F29:M29"/>
-    <mergeCell ref="F30:M30"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:P42"/>
+    <mergeCell ref="Q42:AC42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:P43"/>
+    <mergeCell ref="Q43:AC43"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:P47"/>
+    <mergeCell ref="Q47:AC47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:P48"/>
+    <mergeCell ref="Q48:AC48"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:P44"/>
+    <mergeCell ref="Q44:AC44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:P45"/>
+    <mergeCell ref="Q45:AC45"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:P51"/>
+    <mergeCell ref="Q51:AC51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:P52"/>
+    <mergeCell ref="Q52:AC52"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:P49"/>
+    <mergeCell ref="Q49:AC49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:P50"/>
+    <mergeCell ref="Q50:AC50"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <conditionalFormatting sqref="F4:J9 L4:O9">
@@ -4116,7 +4141,10 @@
   </conditionalFormatting>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.2" right="0.2" top="0.2" bottom="0.2" header="0.2" footer="0.2"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" scale="96" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="32" max="16383" man="1"/>
+  </rowBreaks>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>

--- a/src/main/resources/excel/meetingSheet_2nd2term.xlsx
+++ b/src/main/resources/excel/meetingSheet_2nd2term.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/MEGAsync/IdeaProjects/student_management_system/src/main/resources/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6CEE8F-4BB3-0340-8309-3114F6F95577}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4535D89-007B-5F45-917F-C09BA4200CD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3540" yWindow="1460" windowWidth="25260" windowHeight="16540" xr2:uid="{B568BDAE-9867-864B-9F86-2CF23C3644F0}"/>
   </bookViews>
@@ -30,28 +30,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1818,6 +1796,225 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1830,6 +2027,33 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1842,259 +2066,13 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2434,8 +2412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E040C1C8-E3C5-9F44-AD5D-963E75E85E9B}">
   <dimension ref="A1:AC52"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A28" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P35" sqref="P35"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2452,86 +2430,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="15" customHeight="1">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="129" t="s">
+      <c r="B1" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="129"/>
-      <c r="J1" s="129"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="129"/>
-      <c r="M1" s="129"/>
-      <c r="N1" s="129"/>
-      <c r="O1" s="129"/>
-      <c r="P1" s="129"/>
-      <c r="Q1" s="129"/>
-      <c r="R1" s="129"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="106"/>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="106"/>
+      <c r="R1" s="106"/>
       <c r="S1" s="3"/>
-      <c r="T1" s="105" t="s">
+      <c r="T1" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="U1" s="106"/>
-      <c r="V1" s="106"/>
-      <c r="W1" s="105" t="s">
+      <c r="U1" s="109"/>
+      <c r="V1" s="109"/>
+      <c r="W1" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="X1" s="106"/>
-      <c r="Y1" s="106"/>
-      <c r="Z1" s="106"/>
-      <c r="AA1" s="106"/>
-      <c r="AB1" s="106"/>
+      <c r="X1" s="109"/>
+      <c r="Y1" s="109"/>
+      <c r="Z1" s="109"/>
+      <c r="AA1" s="109"/>
+      <c r="AB1" s="109"/>
       <c r="AC1" s="2"/>
     </row>
     <row r="2" spans="1:29" ht="25" customHeight="1">
-      <c r="A2" s="128"/>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="130"/>
-      <c r="O2" s="130"/>
-      <c r="P2" s="130"/>
-      <c r="Q2" s="130"/>
-      <c r="R2" s="130"/>
+      <c r="A2" s="105"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="107"/>
+      <c r="N2" s="107"/>
+      <c r="O2" s="107"/>
+      <c r="P2" s="107"/>
+      <c r="Q2" s="107"/>
+      <c r="R2" s="107"/>
       <c r="S2" s="6"/>
-      <c r="T2" s="166" t="s">
+      <c r="T2" s="131" t="s">
         <v>76</v>
       </c>
-      <c r="U2" s="167"/>
-      <c r="V2" s="168"/>
-      <c r="W2" s="127"/>
-      <c r="X2" s="127"/>
-      <c r="Y2" s="127"/>
-      <c r="Z2" s="127"/>
-      <c r="AA2" s="127"/>
-      <c r="AB2" s="127"/>
+      <c r="U2" s="132"/>
+      <c r="V2" s="133"/>
+      <c r="W2" s="104"/>
+      <c r="X2" s="104"/>
+      <c r="Y2" s="104"/>
+      <c r="Z2" s="104"/>
+      <c r="AA2" s="104"/>
+      <c r="AB2" s="104"/>
       <c r="AC2" s="7"/>
     </row>
     <row r="3" spans="1:29" ht="18" customHeight="1">
-      <c r="A3" s="123" t="s">
+      <c r="A3" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="131"/>
-      <c r="D3" s="132" t="s">
+      <c r="B3" s="111"/>
+      <c r="D3" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="133"/>
+      <c r="E3" s="85"/>
       <c r="F3" s="12" t="s">
         <v>12</v>
       </c>
@@ -2604,17 +2582,14 @@
       </c>
     </row>
     <row r="4" spans="1:29" ht="18" customHeight="1">
-      <c r="A4" s="113" t="s">
+      <c r="A4" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="118" t="str" cm="1">
-        <f t="array" ref="B4">IFERROR(_xlfn.IFS(P9&gt;9,P9*2+P7,P8&gt;9,P8*2+P7,P7&gt;9,P7*3,P6&gt;9,P6*3,P5&gt;9,P5*3,P4&gt;9,P4*3),"")</f>
-        <v/>
-      </c>
-      <c r="D4" s="134" t="s">
+      <c r="B4" s="121"/>
+      <c r="D4" s="112" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="135"/>
+      <c r="E4" s="113"/>
       <c r="F4" s="16"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
@@ -2642,12 +2617,12 @@
       <c r="AC4" s="44"/>
     </row>
     <row r="5" spans="1:29" ht="18" customHeight="1">
-      <c r="A5" s="113"/>
-      <c r="B5" s="118"/>
-      <c r="D5" s="136" t="s">
+      <c r="A5" s="118"/>
+      <c r="B5" s="121"/>
+      <c r="D5" s="114" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="137"/>
+      <c r="E5" s="115"/>
       <c r="F5" s="19"/>
       <c r="G5" s="20"/>
       <c r="H5" s="20"/>
@@ -2675,17 +2650,14 @@
       <c r="AC5" s="44"/>
     </row>
     <row r="6" spans="1:29" ht="18" customHeight="1">
-      <c r="A6" s="113" t="s">
+      <c r="A6" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="118" t="str" cm="1">
-        <f t="array" ref="B6">IFERROR(_xlfn.IFS(P9&gt;9,P9,P8&gt;9,P8,P7&gt;9,P7,P6&gt;9,P6,P5&gt;9,P5,P4&gt;9,P4),"")</f>
-        <v/>
-      </c>
-      <c r="D6" s="138" t="s">
+      <c r="B6" s="121"/>
+      <c r="D6" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="139"/>
+      <c r="E6" s="117"/>
       <c r="F6" s="23"/>
       <c r="G6" s="24"/>
       <c r="H6" s="24"/>
@@ -2713,12 +2685,12 @@
       <c r="AC6" s="44"/>
     </row>
     <row r="7" spans="1:29" ht="18" customHeight="1">
-      <c r="A7" s="113"/>
-      <c r="B7" s="118"/>
-      <c r="D7" s="140" t="s">
+      <c r="A7" s="118"/>
+      <c r="B7" s="121"/>
+      <c r="D7" s="119" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="141"/>
+      <c r="E7" s="120"/>
       <c r="F7" s="27"/>
       <c r="G7" s="28"/>
       <c r="H7" s="28"/>
@@ -2746,17 +2718,14 @@
       <c r="AC7" s="46"/>
     </row>
     <row r="8" spans="1:29" ht="18" customHeight="1">
-      <c r="A8" s="113" t="s">
+      <c r="A8" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="118" t="str" cm="1">
-        <f t="array" ref="B8">IFERROR(_xlfn.IFS(K9&gt;9,K9+K7,K8&gt;9,K8+K7,K7&gt;9,K7*2,K6&gt;0,K6*2,K5&gt;0,K5*2,K4&gt;0,K4*2),"")</f>
-        <v/>
-      </c>
-      <c r="D8" s="107" t="s">
+      <c r="B8" s="121"/>
+      <c r="D8" s="134" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="108"/>
+      <c r="E8" s="135"/>
       <c r="F8" s="31"/>
       <c r="G8" s="32"/>
       <c r="H8" s="32"/>
@@ -2784,12 +2753,12 @@
       <c r="AC8" s="66"/>
     </row>
     <row r="9" spans="1:29" ht="18" customHeight="1">
-      <c r="A9" s="113"/>
-      <c r="B9" s="118"/>
-      <c r="D9" s="109" t="s">
+      <c r="A9" s="118"/>
+      <c r="B9" s="121"/>
+      <c r="D9" s="136" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="110"/>
+      <c r="E9" s="137"/>
       <c r="F9" s="27"/>
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
@@ -2817,13 +2786,10 @@
       <c r="AC9" s="44"/>
     </row>
     <row r="10" spans="1:29" ht="18" customHeight="1">
-      <c r="A10" s="113" t="s">
+      <c r="A10" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="118" t="str" cm="1">
-        <f t="array" ref="B10">IFERROR(_xlfn.IFS(K9&gt;0,K9,K8&gt;0,K8,K7&gt;0,K7,K6&gt;0,K6,K5&gt;0,K5,K4&gt;0,K4),"")</f>
-        <v/>
-      </c>
+      <c r="B10" s="121"/>
       <c r="D10" s="35"/>
       <c r="E10" s="35"/>
       <c r="R10" s="49" t="s">
@@ -2842,12 +2808,12 @@
       <c r="AC10" s="44"/>
     </row>
     <row r="11" spans="1:29" ht="18" customHeight="1">
-      <c r="A11" s="113"/>
-      <c r="B11" s="118"/>
-      <c r="D11" s="111" t="s">
+      <c r="A11" s="118"/>
+      <c r="B11" s="121"/>
+      <c r="D11" s="138" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="112"/>
+      <c r="E11" s="139"/>
       <c r="F11" s="36" t="s">
         <v>12</v>
       </c>
@@ -2897,17 +2863,14 @@
       <c r="AC11" s="46"/>
     </row>
     <row r="12" spans="1:29" ht="18" customHeight="1">
-      <c r="A12" s="114" t="s">
+      <c r="A12" s="140" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="118" t="str">
-        <f>IFERROR(ROUND(B4/135*100,0),"")</f>
-        <v/>
-      </c>
-      <c r="D12" s="151" t="s">
+      <c r="B12" s="121"/>
+      <c r="D12" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="E12" s="152"/>
+      <c r="E12" s="77"/>
       <c r="F12" s="16"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
@@ -2916,18 +2879,9 @@
       <c r="K12" s="18"/>
       <c r="L12" s="43"/>
       <c r="M12" s="44"/>
-      <c r="N12" s="64" t="str">
-        <f>IFERROR(ROUND(IF(K12="","",K12/500*100*5+$B$4/135*100*3),1),"")</f>
-        <v/>
-      </c>
-      <c r="O12" s="68" t="str">
-        <f>IFERROR(ROUND(IF(K12="","",K12/500*100*4+$B$4/135*100*4),1),"")</f>
-        <v/>
-      </c>
-      <c r="P12" s="69" t="str">
-        <f>IFERROR(ROUND(IF(K12="","",K12/500*100*3+$B$4/135*100*5),1),"")</f>
-        <v/>
-      </c>
+      <c r="N12" s="64"/>
+      <c r="O12" s="68"/>
+      <c r="P12" s="69"/>
       <c r="R12" s="52" t="s">
         <v>60</v>
       </c>
@@ -2944,12 +2898,12 @@
       <c r="AC12" s="67"/>
     </row>
     <row r="13" spans="1:29" ht="18" customHeight="1">
-      <c r="A13" s="114"/>
-      <c r="B13" s="118"/>
-      <c r="D13" s="151" t="s">
+      <c r="A13" s="140"/>
+      <c r="B13" s="121"/>
+      <c r="D13" s="76" t="s">
         <v>74</v>
       </c>
-      <c r="E13" s="152"/>
+      <c r="E13" s="77"/>
       <c r="F13" s="16"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -2958,18 +2912,9 @@
       <c r="K13" s="18"/>
       <c r="L13" s="43"/>
       <c r="M13" s="44"/>
-      <c r="N13" s="64" t="str">
-        <f t="shared" ref="N13:N17" si="0">IFERROR(ROUND(IF(K13="","",K13/500*100*5+$B$4/135*100*3),1),"")</f>
-        <v/>
-      </c>
-      <c r="O13" s="68" t="str">
-        <f t="shared" ref="O13:O17" si="1">IFERROR(ROUND(IF(K13="","",K13/500*100*4+$B$4/135*100*4),1),"")</f>
-        <v/>
-      </c>
-      <c r="P13" s="69" t="str">
-        <f t="shared" ref="P13:P17" si="2">IFERROR(ROUND(IF(K13="","",K13/500*100*3+$B$4/135*100*5),1),"")</f>
-        <v/>
-      </c>
+      <c r="N13" s="64"/>
+      <c r="O13" s="68"/>
+      <c r="P13" s="69"/>
       <c r="R13" s="49" t="s">
         <v>61</v>
       </c>
@@ -2986,17 +2931,14 @@
       <c r="AC13" s="44"/>
     </row>
     <row r="14" spans="1:29" ht="18" customHeight="1">
-      <c r="A14" s="115" t="s">
+      <c r="A14" s="141" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="119" t="str">
-        <f>IFERROR(LOOKUP(10^10,N12:N17),"")</f>
-        <v/>
-      </c>
-      <c r="D14" s="151" t="s">
+      <c r="B14" s="166"/>
+      <c r="D14" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="152"/>
+      <c r="E14" s="77"/>
       <c r="F14" s="16"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
@@ -3005,18 +2947,9 @@
       <c r="K14" s="18"/>
       <c r="L14" s="43"/>
       <c r="M14" s="44"/>
-      <c r="N14" s="64" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="O14" s="68" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="P14" s="69" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="N14" s="64"/>
+      <c r="O14" s="68"/>
+      <c r="P14" s="69"/>
       <c r="R14" s="50" t="s">
         <v>62</v>
       </c>
@@ -3033,12 +2966,12 @@
       <c r="AC14" s="46"/>
     </row>
     <row r="15" spans="1:29" ht="18" customHeight="1">
-      <c r="A15" s="115"/>
-      <c r="B15" s="120"/>
-      <c r="D15" s="151" t="s">
+      <c r="A15" s="141"/>
+      <c r="B15" s="167"/>
+      <c r="D15" s="76" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="152"/>
+      <c r="E15" s="77"/>
       <c r="F15" s="16"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
@@ -3047,32 +2980,20 @@
       <c r="K15" s="18"/>
       <c r="L15" s="43"/>
       <c r="M15" s="44"/>
-      <c r="N15" s="64" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="O15" s="68" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="P15" s="69" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="N15" s="64"/>
+      <c r="O15" s="68"/>
+      <c r="P15" s="69"/>
       <c r="R15" s="35"/>
     </row>
     <row r="16" spans="1:29" ht="18" customHeight="1">
-      <c r="A16" s="116" t="s">
+      <c r="A16" s="142" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="119" t="str">
-        <f>IFERROR(LOOKUP(10^10,O12:O17),"")</f>
-        <v/>
-      </c>
-      <c r="D16" s="151" t="s">
+      <c r="B16" s="166"/>
+      <c r="D16" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="152"/>
+      <c r="E16" s="77"/>
       <c r="F16" s="16"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
@@ -3081,18 +3002,9 @@
       <c r="K16" s="18"/>
       <c r="L16" s="43"/>
       <c r="M16" s="44"/>
-      <c r="N16" s="64" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="O16" s="68" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="P16" s="69" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="N16" s="64"/>
+      <c r="O16" s="68"/>
+      <c r="P16" s="69"/>
       <c r="R16" s="63" t="s">
         <v>45</v>
       </c>
@@ -3109,12 +3021,12 @@
       <c r="AC16" s="53"/>
     </row>
     <row r="17" spans="1:29" ht="18" customHeight="1">
-      <c r="A17" s="117"/>
-      <c r="B17" s="120"/>
-      <c r="D17" s="163" t="s">
+      <c r="A17" s="143"/>
+      <c r="B17" s="167"/>
+      <c r="D17" s="94" t="s">
         <v>77</v>
       </c>
-      <c r="E17" s="164"/>
+      <c r="E17" s="95"/>
       <c r="F17" s="19"/>
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
@@ -3123,18 +3035,9 @@
       <c r="K17" s="22"/>
       <c r="L17" s="45"/>
       <c r="M17" s="46"/>
-      <c r="N17" s="65" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="O17" s="70" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="P17" s="71" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="N17" s="65"/>
+      <c r="O17" s="70"/>
+      <c r="P17" s="71"/>
       <c r="R17" s="54"/>
       <c r="S17" s="4"/>
       <c r="T17" s="4"/>
@@ -3149,13 +3052,10 @@
       <c r="AC17" s="55"/>
     </row>
     <row r="18" spans="1:29" ht="18" customHeight="1">
-      <c r="A18" s="116" t="s">
+      <c r="A18" s="142" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="119" t="str">
-        <f>IFERROR(LOOKUP(10^10,P12:P17),"")</f>
-        <v/>
-      </c>
+      <c r="B18" s="166"/>
       <c r="O18" s="47"/>
       <c r="R18" s="56"/>
       <c r="S18" s="4"/>
@@ -3171,8 +3071,8 @@
       <c r="AC18" s="55"/>
     </row>
     <row r="19" spans="1:29" ht="18" customHeight="1">
-      <c r="A19" s="121"/>
-      <c r="B19" s="122"/>
+      <c r="A19" s="144"/>
+      <c r="B19" s="168"/>
       <c r="R19" s="57"/>
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
@@ -3201,34 +3101,34 @@
       <c r="AC20" s="55"/>
     </row>
     <row r="21" spans="1:29" ht="19" customHeight="1">
-      <c r="A21" s="123" t="s">
+      <c r="A21" s="110" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="124"/>
-      <c r="C21" s="159" t="s">
+      <c r="B21" s="89"/>
+      <c r="C21" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="124"/>
-      <c r="E21" s="161" t="s">
+      <c r="D21" s="89"/>
+      <c r="E21" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="162"/>
-      <c r="G21" s="162"/>
-      <c r="H21" s="161" t="s">
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="I21" s="162"/>
-      <c r="J21" s="162"/>
-      <c r="K21" s="161" t="s">
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="L21" s="162"/>
-      <c r="M21" s="162"/>
-      <c r="N21" s="161" t="s">
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
+      <c r="N21" s="92" t="s">
         <v>40</v>
       </c>
-      <c r="O21" s="162"/>
-      <c r="P21" s="165"/>
+      <c r="O21" s="93"/>
+      <c r="P21" s="96"/>
       <c r="R21" s="56"/>
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
@@ -3243,10 +3143,10 @@
       <c r="AC21" s="55"/>
     </row>
     <row r="22" spans="1:29" ht="19" customHeight="1">
-      <c r="A22" s="125"/>
-      <c r="B22" s="126"/>
-      <c r="C22" s="160"/>
-      <c r="D22" s="126"/>
+      <c r="A22" s="145"/>
+      <c r="B22" s="91"/>
+      <c r="C22" s="90"/>
+      <c r="D22" s="91"/>
       <c r="E22" s="8">
         <v>2019</v>
       </c>
@@ -3297,10 +3197,10 @@
       <c r="AC22" s="55"/>
     </row>
     <row r="23" spans="1:29" ht="18" customHeight="1">
-      <c r="A23" s="143"/>
-      <c r="B23" s="144"/>
-      <c r="C23" s="149"/>
-      <c r="D23" s="149"/>
+      <c r="A23" s="98"/>
+      <c r="B23" s="99"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="79"/>
       <c r="E23" s="72"/>
       <c r="F23" s="72"/>
       <c r="G23" s="72"/>
@@ -3327,10 +3227,10 @@
       <c r="AC23" s="55"/>
     </row>
     <row r="24" spans="1:29" ht="18" customHeight="1">
-      <c r="A24" s="143"/>
-      <c r="B24" s="144"/>
-      <c r="C24" s="149"/>
-      <c r="D24" s="149"/>
+      <c r="A24" s="98"/>
+      <c r="B24" s="99"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="79"/>
       <c r="E24" s="72"/>
       <c r="F24" s="72"/>
       <c r="G24" s="72"/>
@@ -3357,10 +3257,10 @@
       <c r="AC24" s="55"/>
     </row>
     <row r="25" spans="1:29" ht="18" customHeight="1">
-      <c r="A25" s="145"/>
-      <c r="B25" s="146"/>
-      <c r="C25" s="150"/>
-      <c r="D25" s="150"/>
+      <c r="A25" s="100"/>
+      <c r="B25" s="101"/>
+      <c r="C25" s="81"/>
+      <c r="D25" s="81"/>
       <c r="E25" s="74"/>
       <c r="F25" s="74"/>
       <c r="G25" s="74"/>
@@ -3401,30 +3301,30 @@
       <c r="AC26" s="55"/>
     </row>
     <row r="27" spans="1:29" ht="19" customHeight="1">
-      <c r="A27" s="132" t="s">
+      <c r="A27" s="97" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="133"/>
-      <c r="C27" s="142" t="s">
+      <c r="B27" s="85"/>
+      <c r="C27" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="133"/>
-      <c r="E27" s="133"/>
-      <c r="F27" s="142" t="s">
+      <c r="D27" s="85"/>
+      <c r="E27" s="85"/>
+      <c r="F27" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="G27" s="133"/>
-      <c r="H27" s="133"/>
-      <c r="I27" s="133"/>
-      <c r="J27" s="133"/>
-      <c r="K27" s="133"/>
-      <c r="L27" s="133"/>
-      <c r="M27" s="157"/>
-      <c r="N27" s="142" t="s">
+      <c r="G27" s="85"/>
+      <c r="H27" s="85"/>
+      <c r="I27" s="85"/>
+      <c r="J27" s="85"/>
+      <c r="K27" s="85"/>
+      <c r="L27" s="85"/>
+      <c r="M27" s="86"/>
+      <c r="N27" s="84" t="s">
         <v>44</v>
       </c>
-      <c r="O27" s="133"/>
-      <c r="P27" s="158"/>
+      <c r="O27" s="85"/>
+      <c r="P27" s="87"/>
       <c r="R27" s="56"/>
       <c r="S27" s="4"/>
       <c r="T27" s="4"/>
@@ -3439,22 +3339,22 @@
       <c r="AC27" s="55"/>
     </row>
     <row r="28" spans="1:29" ht="18" customHeight="1">
-      <c r="A28" s="143"/>
-      <c r="B28" s="144"/>
-      <c r="C28" s="147"/>
-      <c r="D28" s="147"/>
-      <c r="E28" s="147"/>
-      <c r="F28" s="156"/>
-      <c r="G28" s="156"/>
-      <c r="H28" s="156"/>
-      <c r="I28" s="156"/>
-      <c r="J28" s="156"/>
-      <c r="K28" s="156"/>
-      <c r="L28" s="156"/>
-      <c r="M28" s="156"/>
-      <c r="N28" s="149"/>
-      <c r="O28" s="149"/>
-      <c r="P28" s="154"/>
+      <c r="A28" s="98"/>
+      <c r="B28" s="99"/>
+      <c r="C28" s="102"/>
+      <c r="D28" s="102"/>
+      <c r="E28" s="102"/>
+      <c r="F28" s="83"/>
+      <c r="G28" s="83"/>
+      <c r="H28" s="83"/>
+      <c r="I28" s="83"/>
+      <c r="J28" s="83"/>
+      <c r="K28" s="83"/>
+      <c r="L28" s="83"/>
+      <c r="M28" s="83"/>
+      <c r="N28" s="79"/>
+      <c r="O28" s="79"/>
+      <c r="P28" s="80"/>
       <c r="R28" s="56"/>
       <c r="S28" s="4"/>
       <c r="T28" s="4"/>
@@ -3469,22 +3369,22 @@
       <c r="AC28" s="55"/>
     </row>
     <row r="29" spans="1:29" ht="18" customHeight="1">
-      <c r="A29" s="143"/>
-      <c r="B29" s="144"/>
-      <c r="C29" s="147"/>
-      <c r="D29" s="147"/>
-      <c r="E29" s="147"/>
-      <c r="F29" s="156"/>
-      <c r="G29" s="156"/>
-      <c r="H29" s="156"/>
-      <c r="I29" s="156"/>
-      <c r="J29" s="156"/>
-      <c r="K29" s="156"/>
-      <c r="L29" s="156"/>
-      <c r="M29" s="156"/>
-      <c r="N29" s="149"/>
-      <c r="O29" s="149"/>
-      <c r="P29" s="154"/>
+      <c r="A29" s="98"/>
+      <c r="B29" s="99"/>
+      <c r="C29" s="102"/>
+      <c r="D29" s="102"/>
+      <c r="E29" s="102"/>
+      <c r="F29" s="83"/>
+      <c r="G29" s="83"/>
+      <c r="H29" s="83"/>
+      <c r="I29" s="83"/>
+      <c r="J29" s="83"/>
+      <c r="K29" s="83"/>
+      <c r="L29" s="83"/>
+      <c r="M29" s="83"/>
+      <c r="N29" s="79"/>
+      <c r="O29" s="79"/>
+      <c r="P29" s="80"/>
       <c r="R29" s="56"/>
       <c r="S29" s="4"/>
       <c r="T29" s="4"/>
@@ -3499,22 +3399,22 @@
       <c r="AC29" s="55"/>
     </row>
     <row r="30" spans="1:29" ht="18" customHeight="1">
-      <c r="A30" s="143"/>
-      <c r="B30" s="144"/>
-      <c r="C30" s="147"/>
-      <c r="D30" s="147"/>
-      <c r="E30" s="147"/>
-      <c r="F30" s="156"/>
-      <c r="G30" s="156"/>
-      <c r="H30" s="156"/>
-      <c r="I30" s="156"/>
-      <c r="J30" s="156"/>
-      <c r="K30" s="156"/>
-      <c r="L30" s="156"/>
-      <c r="M30" s="156"/>
-      <c r="N30" s="149"/>
-      <c r="O30" s="149"/>
-      <c r="P30" s="154"/>
+      <c r="A30" s="98"/>
+      <c r="B30" s="99"/>
+      <c r="C30" s="102"/>
+      <c r="D30" s="102"/>
+      <c r="E30" s="102"/>
+      <c r="F30" s="83"/>
+      <c r="G30" s="83"/>
+      <c r="H30" s="83"/>
+      <c r="I30" s="83"/>
+      <c r="J30" s="83"/>
+      <c r="K30" s="83"/>
+      <c r="L30" s="83"/>
+      <c r="M30" s="83"/>
+      <c r="N30" s="79"/>
+      <c r="O30" s="79"/>
+      <c r="P30" s="80"/>
       <c r="R30" s="56"/>
       <c r="S30" s="4"/>
       <c r="T30" s="4"/>
@@ -3529,22 +3429,22 @@
       <c r="AC30" s="55"/>
     </row>
     <row r="31" spans="1:29" ht="18" customHeight="1">
-      <c r="A31" s="143"/>
-      <c r="B31" s="144"/>
-      <c r="C31" s="147"/>
-      <c r="D31" s="147"/>
-      <c r="E31" s="147"/>
-      <c r="F31" s="156"/>
-      <c r="G31" s="156"/>
-      <c r="H31" s="156"/>
-      <c r="I31" s="156"/>
-      <c r="J31" s="156"/>
-      <c r="K31" s="156"/>
-      <c r="L31" s="156"/>
-      <c r="M31" s="156"/>
-      <c r="N31" s="149"/>
-      <c r="O31" s="149"/>
-      <c r="P31" s="154"/>
+      <c r="A31" s="98"/>
+      <c r="B31" s="99"/>
+      <c r="C31" s="102"/>
+      <c r="D31" s="102"/>
+      <c r="E31" s="102"/>
+      <c r="F31" s="83"/>
+      <c r="G31" s="83"/>
+      <c r="H31" s="83"/>
+      <c r="I31" s="83"/>
+      <c r="J31" s="83"/>
+      <c r="K31" s="83"/>
+      <c r="L31" s="83"/>
+      <c r="M31" s="83"/>
+      <c r="N31" s="79"/>
+      <c r="O31" s="79"/>
+      <c r="P31" s="80"/>
       <c r="R31" s="56"/>
       <c r="S31" s="4"/>
       <c r="T31" s="4"/>
@@ -3559,22 +3459,22 @@
       <c r="AC31" s="55"/>
     </row>
     <row r="32" spans="1:29" ht="18" customHeight="1">
-      <c r="A32" s="145"/>
-      <c r="B32" s="146"/>
-      <c r="C32" s="148"/>
-      <c r="D32" s="148"/>
-      <c r="E32" s="148"/>
-      <c r="F32" s="153"/>
-      <c r="G32" s="153"/>
-      <c r="H32" s="153"/>
-      <c r="I32" s="153"/>
-      <c r="J32" s="153"/>
-      <c r="K32" s="153"/>
-      <c r="L32" s="153"/>
-      <c r="M32" s="153"/>
-      <c r="N32" s="150"/>
-      <c r="O32" s="150"/>
-      <c r="P32" s="155"/>
+      <c r="A32" s="100"/>
+      <c r="B32" s="101"/>
+      <c r="C32" s="103"/>
+      <c r="D32" s="103"/>
+      <c r="E32" s="103"/>
+      <c r="F32" s="78"/>
+      <c r="G32" s="78"/>
+      <c r="H32" s="78"/>
+      <c r="I32" s="78"/>
+      <c r="J32" s="78"/>
+      <c r="K32" s="78"/>
+      <c r="L32" s="78"/>
+      <c r="M32" s="78"/>
+      <c r="N32" s="81"/>
+      <c r="O32" s="81"/>
+      <c r="P32" s="82"/>
       <c r="R32" s="58"/>
       <c r="S32" s="59"/>
       <c r="T32" s="59"/>
@@ -3595,74 +3495,74 @@
       </c>
     </row>
     <row r="35" spans="1:29">
-      <c r="A35" s="102" t="s">
+      <c r="A35" s="122" t="s">
         <v>64</v>
       </c>
-      <c r="B35" s="103"/>
-      <c r="C35" s="103" t="s">
+      <c r="B35" s="123"/>
+      <c r="C35" s="123" t="s">
         <v>65</v>
       </c>
-      <c r="D35" s="103"/>
-      <c r="E35" s="103"/>
-      <c r="F35" s="103"/>
-      <c r="G35" s="103"/>
-      <c r="H35" s="103" t="s">
+      <c r="D35" s="123"/>
+      <c r="E35" s="123"/>
+      <c r="F35" s="123"/>
+      <c r="G35" s="123"/>
+      <c r="H35" s="123" t="s">
         <v>66</v>
       </c>
-      <c r="I35" s="103"/>
-      <c r="J35" s="103"/>
-      <c r="K35" s="104"/>
+      <c r="I35" s="123"/>
+      <c r="J35" s="123"/>
+      <c r="K35" s="124"/>
       <c r="L35" s="11"/>
       <c r="M35" s="11"/>
       <c r="N35" s="11"/>
       <c r="O35" s="11"/>
     </row>
     <row r="36" spans="1:29">
-      <c r="A36" s="90"/>
-      <c r="B36" s="91"/>
-      <c r="C36" s="92"/>
-      <c r="D36" s="93"/>
-      <c r="E36" s="93"/>
-      <c r="F36" s="93"/>
-      <c r="G36" s="94"/>
-      <c r="H36" s="92"/>
-      <c r="I36" s="93"/>
-      <c r="J36" s="93"/>
-      <c r="K36" s="95"/>
+      <c r="A36" s="125"/>
+      <c r="B36" s="126"/>
+      <c r="C36" s="127"/>
+      <c r="D36" s="128"/>
+      <c r="E36" s="128"/>
+      <c r="F36" s="128"/>
+      <c r="G36" s="129"/>
+      <c r="H36" s="127"/>
+      <c r="I36" s="128"/>
+      <c r="J36" s="128"/>
+      <c r="K36" s="130"/>
       <c r="L36" s="11"/>
       <c r="M36" s="11"/>
       <c r="N36" s="11"/>
       <c r="O36" s="11"/>
     </row>
     <row r="37" spans="1:29">
-      <c r="A37" s="90"/>
-      <c r="B37" s="91"/>
-      <c r="C37" s="92"/>
-      <c r="D37" s="93"/>
-      <c r="E37" s="93"/>
-      <c r="F37" s="93"/>
-      <c r="G37" s="94"/>
-      <c r="H37" s="92"/>
-      <c r="I37" s="93"/>
-      <c r="J37" s="93"/>
-      <c r="K37" s="95"/>
+      <c r="A37" s="125"/>
+      <c r="B37" s="126"/>
+      <c r="C37" s="127"/>
+      <c r="D37" s="128"/>
+      <c r="E37" s="128"/>
+      <c r="F37" s="128"/>
+      <c r="G37" s="129"/>
+      <c r="H37" s="127"/>
+      <c r="I37" s="128"/>
+      <c r="J37" s="128"/>
+      <c r="K37" s="130"/>
       <c r="L37" s="11"/>
       <c r="M37" s="11"/>
       <c r="N37" s="11"/>
       <c r="O37" s="11"/>
     </row>
     <row r="38" spans="1:29">
-      <c r="A38" s="96"/>
-      <c r="B38" s="97"/>
-      <c r="C38" s="98"/>
-      <c r="D38" s="99"/>
-      <c r="E38" s="99"/>
-      <c r="F38" s="99"/>
-      <c r="G38" s="100"/>
-      <c r="H38" s="98"/>
-      <c r="I38" s="99"/>
-      <c r="J38" s="99"/>
-      <c r="K38" s="101"/>
+      <c r="A38" s="153"/>
+      <c r="B38" s="154"/>
+      <c r="C38" s="155"/>
+      <c r="D38" s="156"/>
+      <c r="E38" s="156"/>
+      <c r="F38" s="156"/>
+      <c r="G38" s="157"/>
+      <c r="H38" s="155"/>
+      <c r="I38" s="156"/>
+      <c r="J38" s="156"/>
+      <c r="K38" s="158"/>
       <c r="L38" s="11"/>
       <c r="M38" s="11"/>
       <c r="N38" s="11"/>
@@ -3679,134 +3579,134 @@
       </c>
     </row>
     <row r="42" spans="1:29">
-      <c r="A42" s="84" t="s">
+      <c r="A42" s="146" t="s">
         <v>69</v>
       </c>
-      <c r="B42" s="85"/>
-      <c r="C42" s="85" t="s">
+      <c r="B42" s="147"/>
+      <c r="C42" s="147" t="s">
         <v>70</v>
       </c>
-      <c r="D42" s="85"/>
-      <c r="E42" s="85"/>
-      <c r="F42" s="85"/>
-      <c r="G42" s="85"/>
-      <c r="H42" s="85"/>
-      <c r="I42" s="85"/>
-      <c r="J42" s="85"/>
-      <c r="K42" s="85"/>
-      <c r="L42" s="85"/>
-      <c r="M42" s="85"/>
-      <c r="N42" s="85"/>
-      <c r="O42" s="85"/>
-      <c r="P42" s="85"/>
-      <c r="Q42" s="85" t="s">
+      <c r="D42" s="147"/>
+      <c r="E42" s="147"/>
+      <c r="F42" s="147"/>
+      <c r="G42" s="147"/>
+      <c r="H42" s="147"/>
+      <c r="I42" s="147"/>
+      <c r="J42" s="147"/>
+      <c r="K42" s="147"/>
+      <c r="L42" s="147"/>
+      <c r="M42" s="147"/>
+      <c r="N42" s="147"/>
+      <c r="O42" s="147"/>
+      <c r="P42" s="147"/>
+      <c r="Q42" s="147" t="s">
         <v>71</v>
       </c>
-      <c r="R42" s="85"/>
-      <c r="S42" s="85"/>
-      <c r="T42" s="85"/>
-      <c r="U42" s="85"/>
-      <c r="V42" s="85"/>
-      <c r="W42" s="85"/>
-      <c r="X42" s="85"/>
-      <c r="Y42" s="85"/>
-      <c r="Z42" s="85"/>
-      <c r="AA42" s="85"/>
-      <c r="AB42" s="85"/>
-      <c r="AC42" s="89"/>
+      <c r="R42" s="147"/>
+      <c r="S42" s="147"/>
+      <c r="T42" s="147"/>
+      <c r="U42" s="147"/>
+      <c r="V42" s="147"/>
+      <c r="W42" s="147"/>
+      <c r="X42" s="147"/>
+      <c r="Y42" s="147"/>
+      <c r="Z42" s="147"/>
+      <c r="AA42" s="147"/>
+      <c r="AB42" s="147"/>
+      <c r="AC42" s="148"/>
     </row>
     <row r="43" spans="1:29">
-      <c r="A43" s="76"/>
-      <c r="B43" s="77"/>
-      <c r="C43" s="78"/>
-      <c r="D43" s="78"/>
-      <c r="E43" s="78"/>
-      <c r="F43" s="78"/>
-      <c r="G43" s="78"/>
-      <c r="H43" s="78"/>
-      <c r="I43" s="78"/>
-      <c r="J43" s="78"/>
-      <c r="K43" s="78"/>
-      <c r="L43" s="78"/>
-      <c r="M43" s="78"/>
-      <c r="N43" s="78"/>
-      <c r="O43" s="78"/>
-      <c r="P43" s="78"/>
-      <c r="Q43" s="78"/>
-      <c r="R43" s="78"/>
-      <c r="S43" s="78"/>
-      <c r="T43" s="78"/>
-      <c r="U43" s="78"/>
-      <c r="V43" s="78"/>
-      <c r="W43" s="78"/>
-      <c r="X43" s="78"/>
-      <c r="Y43" s="78"/>
-      <c r="Z43" s="78"/>
-      <c r="AA43" s="78"/>
-      <c r="AB43" s="78"/>
-      <c r="AC43" s="79"/>
+      <c r="A43" s="149"/>
+      <c r="B43" s="150"/>
+      <c r="C43" s="151"/>
+      <c r="D43" s="151"/>
+      <c r="E43" s="151"/>
+      <c r="F43" s="151"/>
+      <c r="G43" s="151"/>
+      <c r="H43" s="151"/>
+      <c r="I43" s="151"/>
+      <c r="J43" s="151"/>
+      <c r="K43" s="151"/>
+      <c r="L43" s="151"/>
+      <c r="M43" s="151"/>
+      <c r="N43" s="151"/>
+      <c r="O43" s="151"/>
+      <c r="P43" s="151"/>
+      <c r="Q43" s="151"/>
+      <c r="R43" s="151"/>
+      <c r="S43" s="151"/>
+      <c r="T43" s="151"/>
+      <c r="U43" s="151"/>
+      <c r="V43" s="151"/>
+      <c r="W43" s="151"/>
+      <c r="X43" s="151"/>
+      <c r="Y43" s="151"/>
+      <c r="Z43" s="151"/>
+      <c r="AA43" s="151"/>
+      <c r="AB43" s="151"/>
+      <c r="AC43" s="152"/>
     </row>
     <row r="44" spans="1:29">
-      <c r="A44" s="76"/>
-      <c r="B44" s="77"/>
-      <c r="C44" s="78"/>
-      <c r="D44" s="78"/>
-      <c r="E44" s="78"/>
-      <c r="F44" s="78"/>
-      <c r="G44" s="78"/>
-      <c r="H44" s="78"/>
-      <c r="I44" s="78"/>
-      <c r="J44" s="78"/>
-      <c r="K44" s="78"/>
-      <c r="L44" s="78"/>
-      <c r="M44" s="78"/>
-      <c r="N44" s="78"/>
-      <c r="O44" s="78"/>
-      <c r="P44" s="78"/>
-      <c r="Q44" s="78"/>
-      <c r="R44" s="78"/>
-      <c r="S44" s="78"/>
-      <c r="T44" s="78"/>
-      <c r="U44" s="78"/>
-      <c r="V44" s="78"/>
-      <c r="W44" s="78"/>
-      <c r="X44" s="78"/>
-      <c r="Y44" s="78"/>
-      <c r="Z44" s="78"/>
-      <c r="AA44" s="78"/>
-      <c r="AB44" s="78"/>
-      <c r="AC44" s="79"/>
+      <c r="A44" s="149"/>
+      <c r="B44" s="150"/>
+      <c r="C44" s="151"/>
+      <c r="D44" s="151"/>
+      <c r="E44" s="151"/>
+      <c r="F44" s="151"/>
+      <c r="G44" s="151"/>
+      <c r="H44" s="151"/>
+      <c r="I44" s="151"/>
+      <c r="J44" s="151"/>
+      <c r="K44" s="151"/>
+      <c r="L44" s="151"/>
+      <c r="M44" s="151"/>
+      <c r="N44" s="151"/>
+      <c r="O44" s="151"/>
+      <c r="P44" s="151"/>
+      <c r="Q44" s="151"/>
+      <c r="R44" s="151"/>
+      <c r="S44" s="151"/>
+      <c r="T44" s="151"/>
+      <c r="U44" s="151"/>
+      <c r="V44" s="151"/>
+      <c r="W44" s="151"/>
+      <c r="X44" s="151"/>
+      <c r="Y44" s="151"/>
+      <c r="Z44" s="151"/>
+      <c r="AA44" s="151"/>
+      <c r="AB44" s="151"/>
+      <c r="AC44" s="152"/>
     </row>
     <row r="45" spans="1:29">
-      <c r="A45" s="80"/>
-      <c r="B45" s="81"/>
-      <c r="C45" s="82"/>
-      <c r="D45" s="82"/>
-      <c r="E45" s="82"/>
-      <c r="F45" s="82"/>
-      <c r="G45" s="82"/>
-      <c r="H45" s="82"/>
-      <c r="I45" s="82"/>
-      <c r="J45" s="82"/>
-      <c r="K45" s="82"/>
-      <c r="L45" s="82"/>
-      <c r="M45" s="82"/>
-      <c r="N45" s="82"/>
-      <c r="O45" s="82"/>
-      <c r="P45" s="82"/>
-      <c r="Q45" s="82"/>
-      <c r="R45" s="82"/>
-      <c r="S45" s="82"/>
-      <c r="T45" s="82"/>
-      <c r="U45" s="82"/>
-      <c r="V45" s="82"/>
-      <c r="W45" s="82"/>
-      <c r="X45" s="82"/>
-      <c r="Y45" s="82"/>
-      <c r="Z45" s="82"/>
-      <c r="AA45" s="82"/>
-      <c r="AB45" s="82"/>
-      <c r="AC45" s="83"/>
+      <c r="A45" s="162"/>
+      <c r="B45" s="163"/>
+      <c r="C45" s="164"/>
+      <c r="D45" s="164"/>
+      <c r="E45" s="164"/>
+      <c r="F45" s="164"/>
+      <c r="G45" s="164"/>
+      <c r="H45" s="164"/>
+      <c r="I45" s="164"/>
+      <c r="J45" s="164"/>
+      <c r="K45" s="164"/>
+      <c r="L45" s="164"/>
+      <c r="M45" s="164"/>
+      <c r="N45" s="164"/>
+      <c r="O45" s="164"/>
+      <c r="P45" s="164"/>
+      <c r="Q45" s="164"/>
+      <c r="R45" s="164"/>
+      <c r="S45" s="164"/>
+      <c r="T45" s="164"/>
+      <c r="U45" s="164"/>
+      <c r="V45" s="164"/>
+      <c r="W45" s="164"/>
+      <c r="X45" s="164"/>
+      <c r="Y45" s="164"/>
+      <c r="Z45" s="164"/>
+      <c r="AA45" s="164"/>
+      <c r="AB45" s="164"/>
+      <c r="AC45" s="165"/>
     </row>
     <row r="46" spans="1:29">
       <c r="A46" s="10" t="s">
@@ -3814,254 +3714,235 @@
       </c>
     </row>
     <row r="47" spans="1:29">
-      <c r="A47" s="84" t="s">
+      <c r="A47" s="146" t="s">
         <v>69</v>
       </c>
-      <c r="B47" s="85"/>
-      <c r="C47" s="85" t="s">
+      <c r="B47" s="147"/>
+      <c r="C47" s="147" t="s">
         <v>70</v>
       </c>
-      <c r="D47" s="85"/>
-      <c r="E47" s="85"/>
-      <c r="F47" s="85"/>
-      <c r="G47" s="85"/>
-      <c r="H47" s="85"/>
-      <c r="I47" s="85"/>
-      <c r="J47" s="85"/>
-      <c r="K47" s="85"/>
-      <c r="L47" s="85"/>
-      <c r="M47" s="85"/>
-      <c r="N47" s="85"/>
-      <c r="O47" s="85"/>
-      <c r="P47" s="85"/>
-      <c r="Q47" s="86" t="s">
+      <c r="D47" s="147"/>
+      <c r="E47" s="147"/>
+      <c r="F47" s="147"/>
+      <c r="G47" s="147"/>
+      <c r="H47" s="147"/>
+      <c r="I47" s="147"/>
+      <c r="J47" s="147"/>
+      <c r="K47" s="147"/>
+      <c r="L47" s="147"/>
+      <c r="M47" s="147"/>
+      <c r="N47" s="147"/>
+      <c r="O47" s="147"/>
+      <c r="P47" s="147"/>
+      <c r="Q47" s="159" t="s">
         <v>71</v>
       </c>
-      <c r="R47" s="87"/>
-      <c r="S47" s="87"/>
-      <c r="T47" s="87"/>
-      <c r="U47" s="87"/>
-      <c r="V47" s="87"/>
-      <c r="W47" s="87"/>
-      <c r="X47" s="87"/>
-      <c r="Y47" s="87"/>
-      <c r="Z47" s="87"/>
-      <c r="AA47" s="87"/>
-      <c r="AB47" s="87"/>
-      <c r="AC47" s="88"/>
+      <c r="R47" s="160"/>
+      <c r="S47" s="160"/>
+      <c r="T47" s="160"/>
+      <c r="U47" s="160"/>
+      <c r="V47" s="160"/>
+      <c r="W47" s="160"/>
+      <c r="X47" s="160"/>
+      <c r="Y47" s="160"/>
+      <c r="Z47" s="160"/>
+      <c r="AA47" s="160"/>
+      <c r="AB47" s="160"/>
+      <c r="AC47" s="161"/>
     </row>
     <row r="48" spans="1:29">
-      <c r="A48" s="76"/>
-      <c r="B48" s="77"/>
-      <c r="C48" s="78"/>
-      <c r="D48" s="78"/>
-      <c r="E48" s="78"/>
-      <c r="F48" s="78"/>
-      <c r="G48" s="78"/>
-      <c r="H48" s="78"/>
-      <c r="I48" s="78"/>
-      <c r="J48" s="78"/>
-      <c r="K48" s="78"/>
-      <c r="L48" s="78"/>
-      <c r="M48" s="78"/>
-      <c r="N48" s="78"/>
-      <c r="O48" s="78"/>
-      <c r="P48" s="78"/>
-      <c r="Q48" s="78"/>
-      <c r="R48" s="78"/>
-      <c r="S48" s="78"/>
-      <c r="T48" s="78"/>
-      <c r="U48" s="78"/>
-      <c r="V48" s="78"/>
-      <c r="W48" s="78"/>
-      <c r="X48" s="78"/>
-      <c r="Y48" s="78"/>
-      <c r="Z48" s="78"/>
-      <c r="AA48" s="78"/>
-      <c r="AB48" s="78"/>
-      <c r="AC48" s="79"/>
+      <c r="A48" s="149"/>
+      <c r="B48" s="150"/>
+      <c r="C48" s="151"/>
+      <c r="D48" s="151"/>
+      <c r="E48" s="151"/>
+      <c r="F48" s="151"/>
+      <c r="G48" s="151"/>
+      <c r="H48" s="151"/>
+      <c r="I48" s="151"/>
+      <c r="J48" s="151"/>
+      <c r="K48" s="151"/>
+      <c r="L48" s="151"/>
+      <c r="M48" s="151"/>
+      <c r="N48" s="151"/>
+      <c r="O48" s="151"/>
+      <c r="P48" s="151"/>
+      <c r="Q48" s="151"/>
+      <c r="R48" s="151"/>
+      <c r="S48" s="151"/>
+      <c r="T48" s="151"/>
+      <c r="U48" s="151"/>
+      <c r="V48" s="151"/>
+      <c r="W48" s="151"/>
+      <c r="X48" s="151"/>
+      <c r="Y48" s="151"/>
+      <c r="Z48" s="151"/>
+      <c r="AA48" s="151"/>
+      <c r="AB48" s="151"/>
+      <c r="AC48" s="152"/>
     </row>
     <row r="49" spans="1:29">
-      <c r="A49" s="76"/>
-      <c r="B49" s="77"/>
-      <c r="C49" s="78"/>
-      <c r="D49" s="78"/>
-      <c r="E49" s="78"/>
-      <c r="F49" s="78"/>
-      <c r="G49" s="78"/>
-      <c r="H49" s="78"/>
-      <c r="I49" s="78"/>
-      <c r="J49" s="78"/>
-      <c r="K49" s="78"/>
-      <c r="L49" s="78"/>
-      <c r="M49" s="78"/>
-      <c r="N49" s="78"/>
-      <c r="O49" s="78"/>
-      <c r="P49" s="78"/>
-      <c r="Q49" s="78"/>
-      <c r="R49" s="78"/>
-      <c r="S49" s="78"/>
-      <c r="T49" s="78"/>
-      <c r="U49" s="78"/>
-      <c r="V49" s="78"/>
-      <c r="W49" s="78"/>
-      <c r="X49" s="78"/>
-      <c r="Y49" s="78"/>
-      <c r="Z49" s="78"/>
-      <c r="AA49" s="78"/>
-      <c r="AB49" s="78"/>
-      <c r="AC49" s="79"/>
+      <c r="A49" s="149"/>
+      <c r="B49" s="150"/>
+      <c r="C49" s="151"/>
+      <c r="D49" s="151"/>
+      <c r="E49" s="151"/>
+      <c r="F49" s="151"/>
+      <c r="G49" s="151"/>
+      <c r="H49" s="151"/>
+      <c r="I49" s="151"/>
+      <c r="J49" s="151"/>
+      <c r="K49" s="151"/>
+      <c r="L49" s="151"/>
+      <c r="M49" s="151"/>
+      <c r="N49" s="151"/>
+      <c r="O49" s="151"/>
+      <c r="P49" s="151"/>
+      <c r="Q49" s="151"/>
+      <c r="R49" s="151"/>
+      <c r="S49" s="151"/>
+      <c r="T49" s="151"/>
+      <c r="U49" s="151"/>
+      <c r="V49" s="151"/>
+      <c r="W49" s="151"/>
+      <c r="X49" s="151"/>
+      <c r="Y49" s="151"/>
+      <c r="Z49" s="151"/>
+      <c r="AA49" s="151"/>
+      <c r="AB49" s="151"/>
+      <c r="AC49" s="152"/>
     </row>
     <row r="50" spans="1:29">
-      <c r="A50" s="76"/>
-      <c r="B50" s="77"/>
-      <c r="C50" s="78"/>
-      <c r="D50" s="78"/>
-      <c r="E50" s="78"/>
-      <c r="F50" s="78"/>
-      <c r="G50" s="78"/>
-      <c r="H50" s="78"/>
-      <c r="I50" s="78"/>
-      <c r="J50" s="78"/>
-      <c r="K50" s="78"/>
-      <c r="L50" s="78"/>
-      <c r="M50" s="78"/>
-      <c r="N50" s="78"/>
-      <c r="O50" s="78"/>
-      <c r="P50" s="78"/>
-      <c r="Q50" s="78"/>
-      <c r="R50" s="78"/>
-      <c r="S50" s="78"/>
-      <c r="T50" s="78"/>
-      <c r="U50" s="78"/>
-      <c r="V50" s="78"/>
-      <c r="W50" s="78"/>
-      <c r="X50" s="78"/>
-      <c r="Y50" s="78"/>
-      <c r="Z50" s="78"/>
-      <c r="AA50" s="78"/>
-      <c r="AB50" s="78"/>
-      <c r="AC50" s="79"/>
+      <c r="A50" s="149"/>
+      <c r="B50" s="150"/>
+      <c r="C50" s="151"/>
+      <c r="D50" s="151"/>
+      <c r="E50" s="151"/>
+      <c r="F50" s="151"/>
+      <c r="G50" s="151"/>
+      <c r="H50" s="151"/>
+      <c r="I50" s="151"/>
+      <c r="J50" s="151"/>
+      <c r="K50" s="151"/>
+      <c r="L50" s="151"/>
+      <c r="M50" s="151"/>
+      <c r="N50" s="151"/>
+      <c r="O50" s="151"/>
+      <c r="P50" s="151"/>
+      <c r="Q50" s="151"/>
+      <c r="R50" s="151"/>
+      <c r="S50" s="151"/>
+      <c r="T50" s="151"/>
+      <c r="U50" s="151"/>
+      <c r="V50" s="151"/>
+      <c r="W50" s="151"/>
+      <c r="X50" s="151"/>
+      <c r="Y50" s="151"/>
+      <c r="Z50" s="151"/>
+      <c r="AA50" s="151"/>
+      <c r="AB50" s="151"/>
+      <c r="AC50" s="152"/>
     </row>
     <row r="51" spans="1:29">
-      <c r="A51" s="76"/>
-      <c r="B51" s="77"/>
-      <c r="C51" s="78"/>
-      <c r="D51" s="78"/>
-      <c r="E51" s="78"/>
-      <c r="F51" s="78"/>
-      <c r="G51" s="78"/>
-      <c r="H51" s="78"/>
-      <c r="I51" s="78"/>
-      <c r="J51" s="78"/>
-      <c r="K51" s="78"/>
-      <c r="L51" s="78"/>
-      <c r="M51" s="78"/>
-      <c r="N51" s="78"/>
-      <c r="O51" s="78"/>
-      <c r="P51" s="78"/>
-      <c r="Q51" s="78"/>
-      <c r="R51" s="78"/>
-      <c r="S51" s="78"/>
-      <c r="T51" s="78"/>
-      <c r="U51" s="78"/>
-      <c r="V51" s="78"/>
-      <c r="W51" s="78"/>
-      <c r="X51" s="78"/>
-      <c r="Y51" s="78"/>
-      <c r="Z51" s="78"/>
-      <c r="AA51" s="78"/>
-      <c r="AB51" s="78"/>
-      <c r="AC51" s="79"/>
+      <c r="A51" s="149"/>
+      <c r="B51" s="150"/>
+      <c r="C51" s="151"/>
+      <c r="D51" s="151"/>
+      <c r="E51" s="151"/>
+      <c r="F51" s="151"/>
+      <c r="G51" s="151"/>
+      <c r="H51" s="151"/>
+      <c r="I51" s="151"/>
+      <c r="J51" s="151"/>
+      <c r="K51" s="151"/>
+      <c r="L51" s="151"/>
+      <c r="M51" s="151"/>
+      <c r="N51" s="151"/>
+      <c r="O51" s="151"/>
+      <c r="P51" s="151"/>
+      <c r="Q51" s="151"/>
+      <c r="R51" s="151"/>
+      <c r="S51" s="151"/>
+      <c r="T51" s="151"/>
+      <c r="U51" s="151"/>
+      <c r="V51" s="151"/>
+      <c r="W51" s="151"/>
+      <c r="X51" s="151"/>
+      <c r="Y51" s="151"/>
+      <c r="Z51" s="151"/>
+      <c r="AA51" s="151"/>
+      <c r="AB51" s="151"/>
+      <c r="AC51" s="152"/>
     </row>
     <row r="52" spans="1:29">
-      <c r="A52" s="80"/>
-      <c r="B52" s="81"/>
-      <c r="C52" s="82"/>
-      <c r="D52" s="82"/>
-      <c r="E52" s="82"/>
-      <c r="F52" s="82"/>
-      <c r="G52" s="82"/>
-      <c r="H52" s="82"/>
-      <c r="I52" s="82"/>
-      <c r="J52" s="82"/>
-      <c r="K52" s="82"/>
-      <c r="L52" s="82"/>
-      <c r="M52" s="82"/>
-      <c r="N52" s="82"/>
-      <c r="O52" s="82"/>
-      <c r="P52" s="82"/>
-      <c r="Q52" s="82"/>
-      <c r="R52" s="82"/>
-      <c r="S52" s="82"/>
-      <c r="T52" s="82"/>
-      <c r="U52" s="82"/>
-      <c r="V52" s="82"/>
-      <c r="W52" s="82"/>
-      <c r="X52" s="82"/>
-      <c r="Y52" s="82"/>
-      <c r="Z52" s="82"/>
-      <c r="AA52" s="82"/>
-      <c r="AB52" s="82"/>
-      <c r="AC52" s="83"/>
+      <c r="A52" s="162"/>
+      <c r="B52" s="163"/>
+      <c r="C52" s="164"/>
+      <c r="D52" s="164"/>
+      <c r="E52" s="164"/>
+      <c r="F52" s="164"/>
+      <c r="G52" s="164"/>
+      <c r="H52" s="164"/>
+      <c r="I52" s="164"/>
+      <c r="J52" s="164"/>
+      <c r="K52" s="164"/>
+      <c r="L52" s="164"/>
+      <c r="M52" s="164"/>
+      <c r="N52" s="164"/>
+      <c r="O52" s="164"/>
+      <c r="P52" s="164"/>
+      <c r="Q52" s="164"/>
+      <c r="R52" s="164"/>
+      <c r="S52" s="164"/>
+      <c r="T52" s="164"/>
+      <c r="U52" s="164"/>
+      <c r="V52" s="164"/>
+      <c r="W52" s="164"/>
+      <c r="X52" s="164"/>
+      <c r="Y52" s="164"/>
+      <c r="Z52" s="164"/>
+      <c r="AA52" s="164"/>
+      <c r="AB52" s="164"/>
+      <c r="AC52" s="165"/>
     </row>
   </sheetData>
   <mergeCells count="115">
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F32:M32"/>
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="N30:P30"/>
-    <mergeCell ref="N31:P31"/>
-    <mergeCell ref="N32:P32"/>
-    <mergeCell ref="F31:M31"/>
-    <mergeCell ref="F27:M27"/>
-    <mergeCell ref="N27:P27"/>
-    <mergeCell ref="F28:M28"/>
-    <mergeCell ref="F29:M29"/>
-    <mergeCell ref="F30:M30"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="W2:AB2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:R2"/>
-    <mergeCell ref="W1:AB1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:P51"/>
+    <mergeCell ref="Q51:AC51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:P52"/>
+    <mergeCell ref="Q52:AC52"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:P49"/>
+    <mergeCell ref="Q49:AC49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:P50"/>
+    <mergeCell ref="Q50:AC50"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:P47"/>
+    <mergeCell ref="Q47:AC47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:P48"/>
+    <mergeCell ref="Q48:AC48"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:P44"/>
+    <mergeCell ref="Q44:AC44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:P45"/>
+    <mergeCell ref="Q45:AC45"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:P42"/>
+    <mergeCell ref="Q42:AC42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:P43"/>
+    <mergeCell ref="Q43:AC43"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="C35:G35"/>
     <mergeCell ref="H35:K35"/>
@@ -4086,42 +3967,61 @@
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="A21:B22"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:P42"/>
-    <mergeCell ref="Q42:AC42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:P43"/>
-    <mergeCell ref="Q43:AC43"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:P47"/>
-    <mergeCell ref="Q47:AC47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:P48"/>
-    <mergeCell ref="Q48:AC48"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:P44"/>
-    <mergeCell ref="Q44:AC44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:P45"/>
-    <mergeCell ref="Q45:AC45"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:P51"/>
-    <mergeCell ref="Q51:AC51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:P52"/>
-    <mergeCell ref="Q52:AC52"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:P49"/>
-    <mergeCell ref="Q49:AC49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:P50"/>
-    <mergeCell ref="Q50:AC50"/>
+    <mergeCell ref="W2:AB2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:R2"/>
+    <mergeCell ref="W1:AB1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F32:M32"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="N32:P32"/>
+    <mergeCell ref="F31:M31"/>
+    <mergeCell ref="F27:M27"/>
+    <mergeCell ref="N27:P27"/>
+    <mergeCell ref="F28:M28"/>
+    <mergeCell ref="F29:M29"/>
+    <mergeCell ref="F30:M30"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="N21:P21"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <conditionalFormatting sqref="F4:J9 L4:O9">

--- a/src/main/resources/excel/meetingSheet_2nd2term.xlsx
+++ b/src/main/resources/excel/meetingSheet_2nd2term.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/MEGAsync/IdeaProjects/student_management_system/src/main/resources/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Dropbox/IdeaProjects/student_management_system/src/main/resources/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4535D89-007B-5F45-917F-C09BA4200CD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5DCBA0-054E-944F-8E71-B0A9B4E5203A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3540" yWindow="1460" windowWidth="25260" windowHeight="16540" xr2:uid="{B568BDAE-9867-864B-9F86-2CF23C3644F0}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="77">
   <si>
     <t>内申 /135</t>
   </si>
@@ -59,13 +59,6 @@
     </rPh>
     <rPh sb="4" eb="9">
       <t xml:space="preserve">ホゴシャメンダンシート </t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>2019年度</t>
-    <rPh sb="4" eb="6">
-      <t xml:space="preserve">ネンド </t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -1796,6 +1789,240 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1805,13 +2032,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1820,12 +2041,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1835,15 +2050,9 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1857,222 +2066,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2430,166 +2423,164 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="15" customHeight="1">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="131"/>
+      <c r="B1" s="132" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
+      <c r="M1" s="132"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="132"/>
+      <c r="P1" s="132"/>
+      <c r="Q1" s="132"/>
+      <c r="R1" s="132"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="106" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="106"/>
-      <c r="R1" s="106"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="108" t="s">
+      <c r="U1" s="106"/>
+      <c r="V1" s="106"/>
+      <c r="W1" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="U1" s="109"/>
-      <c r="V1" s="109"/>
-      <c r="W1" s="108" t="s">
+      <c r="X1" s="106"/>
+      <c r="Y1" s="106"/>
+      <c r="Z1" s="106"/>
+      <c r="AA1" s="106"/>
+      <c r="AB1" s="106"/>
+      <c r="AC1" s="2"/>
+    </row>
+    <row r="2" spans="1:29" ht="25" customHeight="1">
+      <c r="A2" s="131"/>
+      <c r="B2" s="133"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
+      <c r="L2" s="133"/>
+      <c r="M2" s="133"/>
+      <c r="N2" s="133"/>
+      <c r="O2" s="133"/>
+      <c r="P2" s="133"/>
+      <c r="Q2" s="133"/>
+      <c r="R2" s="133"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="107" t="s">
+        <v>75</v>
+      </c>
+      <c r="U2" s="108"/>
+      <c r="V2" s="109"/>
+      <c r="W2" s="130"/>
+      <c r="X2" s="130"/>
+      <c r="Y2" s="130"/>
+      <c r="Z2" s="130"/>
+      <c r="AA2" s="130"/>
+      <c r="AB2" s="130"/>
+      <c r="AC2" s="7"/>
+    </row>
+    <row r="3" spans="1:29" ht="18" customHeight="1">
+      <c r="A3" s="126" t="s">
         <v>9</v>
       </c>
-      <c r="X1" s="109"/>
-      <c r="Y1" s="109"/>
-      <c r="Z1" s="109"/>
-      <c r="AA1" s="109"/>
-      <c r="AB1" s="109"/>
-      <c r="AC1" s="2"/>
-    </row>
-    <row r="2" spans="1:29" ht="25" customHeight="1">
-      <c r="A2" s="105"/>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="107"/>
-      <c r="N2" s="107"/>
-      <c r="O2" s="107"/>
-      <c r="P2" s="107"/>
-      <c r="Q2" s="107"/>
-      <c r="R2" s="107"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="131" t="s">
-        <v>76</v>
-      </c>
-      <c r="U2" s="132"/>
-      <c r="V2" s="133"/>
-      <c r="W2" s="104"/>
-      <c r="X2" s="104"/>
-      <c r="Y2" s="104"/>
-      <c r="Z2" s="104"/>
-      <c r="AA2" s="104"/>
-      <c r="AB2" s="104"/>
-      <c r="AC2" s="7"/>
-    </row>
-    <row r="3" spans="1:29" ht="18" customHeight="1">
-      <c r="A3" s="110" t="s">
+      <c r="B3" s="134"/>
+      <c r="D3" s="135" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="D3" s="97" t="s">
+      <c r="E3" s="136"/>
+      <c r="F3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="85"/>
-      <c r="F3" s="12" t="s">
+      <c r="G3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="H3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="I3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="J3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="K3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="L3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="M3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="N3" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="14" t="s">
+      <c r="O3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="O3" s="13" t="s">
+      <c r="P3" s="15" t="s">
         <v>21</v>
-      </c>
-      <c r="P3" s="15" t="s">
-        <v>22</v>
       </c>
       <c r="Q3" s="4"/>
       <c r="R3" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="S3" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="T3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="U3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="V3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="W3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="X3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y3" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z3" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA3" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="S3" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="T3" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="U3" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="V3" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="W3" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="X3" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y3" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z3" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA3" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB3" s="12" t="s">
+      <c r="AC3" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="AC3" s="15" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="4" spans="1:29" ht="18" customHeight="1">
-      <c r="A4" s="118" t="s">
+      <c r="A4" s="116" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="121"/>
-      <c r="D4" s="112" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="113"/>
+      <c r="D4" s="137" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="138"/>
       <c r="F4" s="16"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
@@ -2602,7 +2593,7 @@
       <c r="O4" s="17"/>
       <c r="P4" s="18"/>
       <c r="R4" s="49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S4" s="16"/>
       <c r="T4" s="5"/>
@@ -2617,12 +2608,12 @@
       <c r="AC4" s="44"/>
     </row>
     <row r="5" spans="1:29" ht="18" customHeight="1">
-      <c r="A5" s="118"/>
+      <c r="A5" s="116"/>
       <c r="B5" s="121"/>
-      <c r="D5" s="114" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="115"/>
+      <c r="D5" s="139" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="140"/>
       <c r="F5" s="19"/>
       <c r="G5" s="20"/>
       <c r="H5" s="20"/>
@@ -2635,7 +2626,7 @@
       <c r="O5" s="21"/>
       <c r="P5" s="22"/>
       <c r="R5" s="49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S5" s="16"/>
       <c r="T5" s="5"/>
@@ -2650,14 +2641,14 @@
       <c r="AC5" s="44"/>
     </row>
     <row r="6" spans="1:29" ht="18" customHeight="1">
-      <c r="A6" s="118" t="s">
+      <c r="A6" s="116" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="121"/>
-      <c r="D6" s="116" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="117"/>
+      <c r="D6" s="141" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="142"/>
       <c r="F6" s="23"/>
       <c r="G6" s="24"/>
       <c r="H6" s="24"/>
@@ -2670,7 +2661,7 @@
       <c r="O6" s="25"/>
       <c r="P6" s="26"/>
       <c r="R6" s="49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S6" s="16"/>
       <c r="T6" s="5"/>
@@ -2685,12 +2676,12 @@
       <c r="AC6" s="44"/>
     </row>
     <row r="7" spans="1:29" ht="18" customHeight="1">
-      <c r="A7" s="118"/>
+      <c r="A7" s="116"/>
       <c r="B7" s="121"/>
-      <c r="D7" s="119" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="120"/>
+      <c r="D7" s="143" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="144"/>
       <c r="F7" s="27"/>
       <c r="G7" s="28"/>
       <c r="H7" s="28"/>
@@ -2703,7 +2694,7 @@
       <c r="O7" s="29"/>
       <c r="P7" s="30"/>
       <c r="R7" s="50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S7" s="19"/>
       <c r="T7" s="20"/>
@@ -2718,14 +2709,14 @@
       <c r="AC7" s="46"/>
     </row>
     <row r="8" spans="1:29" ht="18" customHeight="1">
-      <c r="A8" s="118" t="s">
+      <c r="A8" s="116" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="121"/>
-      <c r="D8" s="134" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="135"/>
+      <c r="D8" s="110" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="111"/>
       <c r="F8" s="31"/>
       <c r="G8" s="32"/>
       <c r="H8" s="32"/>
@@ -2738,7 +2729,7 @@
       <c r="O8" s="33"/>
       <c r="P8" s="34"/>
       <c r="R8" s="51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S8" s="23"/>
       <c r="T8" s="24"/>
@@ -2753,12 +2744,12 @@
       <c r="AC8" s="66"/>
     </row>
     <row r="9" spans="1:29" ht="18" customHeight="1">
-      <c r="A9" s="118"/>
+      <c r="A9" s="116"/>
       <c r="B9" s="121"/>
-      <c r="D9" s="136" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="137"/>
+      <c r="D9" s="112" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="113"/>
       <c r="F9" s="27"/>
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
@@ -2771,7 +2762,7 @@
       <c r="O9" s="29"/>
       <c r="P9" s="30"/>
       <c r="R9" s="49" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S9" s="16"/>
       <c r="T9" s="5"/>
@@ -2786,14 +2777,14 @@
       <c r="AC9" s="44"/>
     </row>
     <row r="10" spans="1:29" ht="18" customHeight="1">
-      <c r="A10" s="118" t="s">
+      <c r="A10" s="116" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="121"/>
       <c r="D10" s="35"/>
       <c r="E10" s="35"/>
       <c r="R10" s="49" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S10" s="16"/>
       <c r="T10" s="5"/>
@@ -2808,47 +2799,47 @@
       <c r="AC10" s="44"/>
     </row>
     <row r="11" spans="1:29" ht="18" customHeight="1">
-      <c r="A11" s="118"/>
+      <c r="A11" s="116"/>
       <c r="B11" s="121"/>
-      <c r="D11" s="138" t="s">
+      <c r="D11" s="114" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="115"/>
+      <c r="F11" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="139"/>
-      <c r="F11" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" s="36" t="s">
+      <c r="M11" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="L11" s="38" t="s">
+      <c r="N11" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="M11" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="N11" s="40" t="s">
+      <c r="O11" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="O11" s="41" t="s">
+      <c r="P11" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="P11" s="42" t="s">
-        <v>33</v>
-      </c>
       <c r="R11" s="50" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S11" s="19"/>
       <c r="T11" s="20"/>
@@ -2863,14 +2854,14 @@
       <c r="AC11" s="46"/>
     </row>
     <row r="12" spans="1:29" ht="18" customHeight="1">
-      <c r="A12" s="140" t="s">
-        <v>34</v>
+      <c r="A12" s="117" t="s">
+        <v>33</v>
       </c>
       <c r="B12" s="121"/>
-      <c r="D12" s="76" t="s">
-        <v>73</v>
-      </c>
-      <c r="E12" s="77"/>
+      <c r="D12" s="154" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="155"/>
       <c r="F12" s="16"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
@@ -2883,7 +2874,7 @@
       <c r="O12" s="68"/>
       <c r="P12" s="69"/>
       <c r="R12" s="52" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S12" s="31"/>
       <c r="T12" s="32"/>
@@ -2898,12 +2889,12 @@
       <c r="AC12" s="67"/>
     </row>
     <row r="13" spans="1:29" ht="18" customHeight="1">
-      <c r="A13" s="140"/>
+      <c r="A13" s="117"/>
       <c r="B13" s="121"/>
-      <c r="D13" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="E13" s="77"/>
+      <c r="D13" s="154" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="155"/>
       <c r="F13" s="16"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -2916,7 +2907,7 @@
       <c r="O13" s="68"/>
       <c r="P13" s="69"/>
       <c r="R13" s="49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S13" s="16"/>
       <c r="T13" s="5"/>
@@ -2931,14 +2922,14 @@
       <c r="AC13" s="44"/>
     </row>
     <row r="14" spans="1:29" ht="18" customHeight="1">
-      <c r="A14" s="141" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="166"/>
-      <c r="D14" s="76" t="s">
+      <c r="A14" s="118" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="122"/>
+      <c r="D14" s="154" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="77"/>
+      <c r="E14" s="155"/>
       <c r="F14" s="16"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
@@ -2951,7 +2942,7 @@
       <c r="O14" s="68"/>
       <c r="P14" s="69"/>
       <c r="R14" s="50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S14" s="19"/>
       <c r="T14" s="20"/>
@@ -2966,12 +2957,12 @@
       <c r="AC14" s="46"/>
     </row>
     <row r="15" spans="1:29" ht="18" customHeight="1">
-      <c r="A15" s="141"/>
-      <c r="B15" s="167"/>
-      <c r="D15" s="76" t="s">
-        <v>75</v>
-      </c>
-      <c r="E15" s="77"/>
+      <c r="A15" s="118"/>
+      <c r="B15" s="123"/>
+      <c r="D15" s="154" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="155"/>
       <c r="F15" s="16"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
@@ -2986,14 +2977,14 @@
       <c r="R15" s="35"/>
     </row>
     <row r="16" spans="1:29" ht="18" customHeight="1">
-      <c r="A16" s="142" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="166"/>
-      <c r="D16" s="76" t="s">
+      <c r="A16" s="119" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="122"/>
+      <c r="D16" s="154" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="77"/>
+      <c r="E16" s="155"/>
       <c r="F16" s="16"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
@@ -3006,7 +2997,7 @@
       <c r="O16" s="68"/>
       <c r="P16" s="69"/>
       <c r="R16" s="63" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S16" s="47"/>
       <c r="T16" s="47"/>
@@ -3021,12 +3012,12 @@
       <c r="AC16" s="53"/>
     </row>
     <row r="17" spans="1:29" ht="18" customHeight="1">
-      <c r="A17" s="143"/>
-      <c r="B17" s="167"/>
-      <c r="D17" s="94" t="s">
-        <v>77</v>
-      </c>
-      <c r="E17" s="95"/>
+      <c r="A17" s="120"/>
+      <c r="B17" s="123"/>
+      <c r="D17" s="166" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="167"/>
       <c r="F17" s="19"/>
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
@@ -3052,10 +3043,10 @@
       <c r="AC17" s="55"/>
     </row>
     <row r="18" spans="1:29" ht="18" customHeight="1">
-      <c r="A18" s="142" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="166"/>
+      <c r="A18" s="119" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="122"/>
       <c r="O18" s="47"/>
       <c r="R18" s="56"/>
       <c r="S18" s="4"/>
@@ -3071,8 +3062,8 @@
       <c r="AC18" s="55"/>
     </row>
     <row r="19" spans="1:29" ht="18" customHeight="1">
-      <c r="A19" s="144"/>
-      <c r="B19" s="168"/>
+      <c r="A19" s="124"/>
+      <c r="B19" s="125"/>
       <c r="R19" s="57"/>
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
@@ -3101,34 +3092,34 @@
       <c r="AC20" s="55"/>
     </row>
     <row r="21" spans="1:29" ht="19" customHeight="1">
-      <c r="A21" s="110" t="s">
+      <c r="A21" s="126" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="127"/>
+      <c r="C21" s="162" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="89"/>
-      <c r="C21" s="88" t="s">
+      <c r="D21" s="127"/>
+      <c r="E21" s="164" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="89"/>
-      <c r="E21" s="92" t="s">
+      <c r="F21" s="165"/>
+      <c r="G21" s="165"/>
+      <c r="H21" s="164" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="92" t="s">
+      <c r="I21" s="165"/>
+      <c r="J21" s="165"/>
+      <c r="K21" s="164" t="s">
         <v>38</v>
       </c>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="92" t="s">
+      <c r="L21" s="165"/>
+      <c r="M21" s="165"/>
+      <c r="N21" s="164" t="s">
         <v>39</v>
       </c>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
-      <c r="N21" s="92" t="s">
-        <v>40</v>
-      </c>
-      <c r="O21" s="93"/>
-      <c r="P21" s="96"/>
+      <c r="O21" s="165"/>
+      <c r="P21" s="168"/>
       <c r="R21" s="56"/>
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
@@ -3143,10 +3134,10 @@
       <c r="AC21" s="55"/>
     </row>
     <row r="22" spans="1:29" ht="19" customHeight="1">
-      <c r="A22" s="145"/>
-      <c r="B22" s="91"/>
-      <c r="C22" s="90"/>
-      <c r="D22" s="91"/>
+      <c r="A22" s="128"/>
+      <c r="B22" s="129"/>
+      <c r="C22" s="163"/>
+      <c r="D22" s="129"/>
       <c r="E22" s="8">
         <v>2019</v>
       </c>
@@ -3197,10 +3188,10 @@
       <c r="AC22" s="55"/>
     </row>
     <row r="23" spans="1:29" ht="18" customHeight="1">
-      <c r="A23" s="98"/>
-      <c r="B23" s="99"/>
-      <c r="C23" s="79"/>
-      <c r="D23" s="79"/>
+      <c r="A23" s="146"/>
+      <c r="B23" s="147"/>
+      <c r="C23" s="152"/>
+      <c r="D23" s="152"/>
       <c r="E23" s="72"/>
       <c r="F23" s="72"/>
       <c r="G23" s="72"/>
@@ -3227,10 +3218,10 @@
       <c r="AC23" s="55"/>
     </row>
     <row r="24" spans="1:29" ht="18" customHeight="1">
-      <c r="A24" s="98"/>
-      <c r="B24" s="99"/>
-      <c r="C24" s="79"/>
-      <c r="D24" s="79"/>
+      <c r="A24" s="146"/>
+      <c r="B24" s="147"/>
+      <c r="C24" s="152"/>
+      <c r="D24" s="152"/>
       <c r="E24" s="72"/>
       <c r="F24" s="72"/>
       <c r="G24" s="72"/>
@@ -3257,10 +3248,10 @@
       <c r="AC24" s="55"/>
     </row>
     <row r="25" spans="1:29" ht="18" customHeight="1">
-      <c r="A25" s="100"/>
-      <c r="B25" s="101"/>
-      <c r="C25" s="81"/>
-      <c r="D25" s="81"/>
+      <c r="A25" s="148"/>
+      <c r="B25" s="149"/>
+      <c r="C25" s="153"/>
+      <c r="D25" s="153"/>
       <c r="E25" s="74"/>
       <c r="F25" s="74"/>
       <c r="G25" s="74"/>
@@ -3301,30 +3292,30 @@
       <c r="AC26" s="55"/>
     </row>
     <row r="27" spans="1:29" ht="19" customHeight="1">
-      <c r="A27" s="97" t="s">
+      <c r="A27" s="135" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="136"/>
+      <c r="C27" s="145" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="85"/>
-      <c r="C27" s="84" t="s">
+      <c r="D27" s="136"/>
+      <c r="E27" s="136"/>
+      <c r="F27" s="145" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="85"/>
-      <c r="E27" s="85"/>
-      <c r="F27" s="84" t="s">
+      <c r="G27" s="136"/>
+      <c r="H27" s="136"/>
+      <c r="I27" s="136"/>
+      <c r="J27" s="136"/>
+      <c r="K27" s="136"/>
+      <c r="L27" s="136"/>
+      <c r="M27" s="160"/>
+      <c r="N27" s="145" t="s">
         <v>43</v>
       </c>
-      <c r="G27" s="85"/>
-      <c r="H27" s="85"/>
-      <c r="I27" s="85"/>
-      <c r="J27" s="85"/>
-      <c r="K27" s="85"/>
-      <c r="L27" s="85"/>
-      <c r="M27" s="86"/>
-      <c r="N27" s="84" t="s">
-        <v>44</v>
-      </c>
-      <c r="O27" s="85"/>
-      <c r="P27" s="87"/>
+      <c r="O27" s="136"/>
+      <c r="P27" s="161"/>
       <c r="R27" s="56"/>
       <c r="S27" s="4"/>
       <c r="T27" s="4"/>
@@ -3339,22 +3330,22 @@
       <c r="AC27" s="55"/>
     </row>
     <row r="28" spans="1:29" ht="18" customHeight="1">
-      <c r="A28" s="98"/>
-      <c r="B28" s="99"/>
-      <c r="C28" s="102"/>
-      <c r="D28" s="102"/>
-      <c r="E28" s="102"/>
-      <c r="F28" s="83"/>
-      <c r="G28" s="83"/>
-      <c r="H28" s="83"/>
-      <c r="I28" s="83"/>
-      <c r="J28" s="83"/>
-      <c r="K28" s="83"/>
-      <c r="L28" s="83"/>
-      <c r="M28" s="83"/>
-      <c r="N28" s="79"/>
-      <c r="O28" s="79"/>
-      <c r="P28" s="80"/>
+      <c r="A28" s="146"/>
+      <c r="B28" s="147"/>
+      <c r="C28" s="150"/>
+      <c r="D28" s="150"/>
+      <c r="E28" s="150"/>
+      <c r="F28" s="159"/>
+      <c r="G28" s="159"/>
+      <c r="H28" s="159"/>
+      <c r="I28" s="159"/>
+      <c r="J28" s="159"/>
+      <c r="K28" s="159"/>
+      <c r="L28" s="159"/>
+      <c r="M28" s="159"/>
+      <c r="N28" s="152"/>
+      <c r="O28" s="152"/>
+      <c r="P28" s="157"/>
       <c r="R28" s="56"/>
       <c r="S28" s="4"/>
       <c r="T28" s="4"/>
@@ -3369,22 +3360,22 @@
       <c r="AC28" s="55"/>
     </row>
     <row r="29" spans="1:29" ht="18" customHeight="1">
-      <c r="A29" s="98"/>
-      <c r="B29" s="99"/>
-      <c r="C29" s="102"/>
-      <c r="D29" s="102"/>
-      <c r="E29" s="102"/>
-      <c r="F29" s="83"/>
-      <c r="G29" s="83"/>
-      <c r="H29" s="83"/>
-      <c r="I29" s="83"/>
-      <c r="J29" s="83"/>
-      <c r="K29" s="83"/>
-      <c r="L29" s="83"/>
-      <c r="M29" s="83"/>
-      <c r="N29" s="79"/>
-      <c r="O29" s="79"/>
-      <c r="P29" s="80"/>
+      <c r="A29" s="146"/>
+      <c r="B29" s="147"/>
+      <c r="C29" s="150"/>
+      <c r="D29" s="150"/>
+      <c r="E29" s="150"/>
+      <c r="F29" s="159"/>
+      <c r="G29" s="159"/>
+      <c r="H29" s="159"/>
+      <c r="I29" s="159"/>
+      <c r="J29" s="159"/>
+      <c r="K29" s="159"/>
+      <c r="L29" s="159"/>
+      <c r="M29" s="159"/>
+      <c r="N29" s="152"/>
+      <c r="O29" s="152"/>
+      <c r="P29" s="157"/>
       <c r="R29" s="56"/>
       <c r="S29" s="4"/>
       <c r="T29" s="4"/>
@@ -3399,22 +3390,22 @@
       <c r="AC29" s="55"/>
     </row>
     <row r="30" spans="1:29" ht="18" customHeight="1">
-      <c r="A30" s="98"/>
-      <c r="B30" s="99"/>
-      <c r="C30" s="102"/>
-      <c r="D30" s="102"/>
-      <c r="E30" s="102"/>
-      <c r="F30" s="83"/>
-      <c r="G30" s="83"/>
-      <c r="H30" s="83"/>
-      <c r="I30" s="83"/>
-      <c r="J30" s="83"/>
-      <c r="K30" s="83"/>
-      <c r="L30" s="83"/>
-      <c r="M30" s="83"/>
-      <c r="N30" s="79"/>
-      <c r="O30" s="79"/>
-      <c r="P30" s="80"/>
+      <c r="A30" s="146"/>
+      <c r="B30" s="147"/>
+      <c r="C30" s="150"/>
+      <c r="D30" s="150"/>
+      <c r="E30" s="150"/>
+      <c r="F30" s="159"/>
+      <c r="G30" s="159"/>
+      <c r="H30" s="159"/>
+      <c r="I30" s="159"/>
+      <c r="J30" s="159"/>
+      <c r="K30" s="159"/>
+      <c r="L30" s="159"/>
+      <c r="M30" s="159"/>
+      <c r="N30" s="152"/>
+      <c r="O30" s="152"/>
+      <c r="P30" s="157"/>
       <c r="R30" s="56"/>
       <c r="S30" s="4"/>
       <c r="T30" s="4"/>
@@ -3429,22 +3420,22 @@
       <c r="AC30" s="55"/>
     </row>
     <row r="31" spans="1:29" ht="18" customHeight="1">
-      <c r="A31" s="98"/>
-      <c r="B31" s="99"/>
-      <c r="C31" s="102"/>
-      <c r="D31" s="102"/>
-      <c r="E31" s="102"/>
-      <c r="F31" s="83"/>
-      <c r="G31" s="83"/>
-      <c r="H31" s="83"/>
-      <c r="I31" s="83"/>
-      <c r="J31" s="83"/>
-      <c r="K31" s="83"/>
-      <c r="L31" s="83"/>
-      <c r="M31" s="83"/>
-      <c r="N31" s="79"/>
-      <c r="O31" s="79"/>
-      <c r="P31" s="80"/>
+      <c r="A31" s="146"/>
+      <c r="B31" s="147"/>
+      <c r="C31" s="150"/>
+      <c r="D31" s="150"/>
+      <c r="E31" s="150"/>
+      <c r="F31" s="159"/>
+      <c r="G31" s="159"/>
+      <c r="H31" s="159"/>
+      <c r="I31" s="159"/>
+      <c r="J31" s="159"/>
+      <c r="K31" s="159"/>
+      <c r="L31" s="159"/>
+      <c r="M31" s="159"/>
+      <c r="N31" s="152"/>
+      <c r="O31" s="152"/>
+      <c r="P31" s="157"/>
       <c r="R31" s="56"/>
       <c r="S31" s="4"/>
       <c r="T31" s="4"/>
@@ -3459,22 +3450,22 @@
       <c r="AC31" s="55"/>
     </row>
     <row r="32" spans="1:29" ht="18" customHeight="1">
-      <c r="A32" s="100"/>
-      <c r="B32" s="101"/>
-      <c r="C32" s="103"/>
-      <c r="D32" s="103"/>
-      <c r="E32" s="103"/>
-      <c r="F32" s="78"/>
-      <c r="G32" s="78"/>
-      <c r="H32" s="78"/>
-      <c r="I32" s="78"/>
-      <c r="J32" s="78"/>
-      <c r="K32" s="78"/>
-      <c r="L32" s="78"/>
-      <c r="M32" s="78"/>
-      <c r="N32" s="81"/>
-      <c r="O32" s="81"/>
-      <c r="P32" s="82"/>
+      <c r="A32" s="148"/>
+      <c r="B32" s="149"/>
+      <c r="C32" s="151"/>
+      <c r="D32" s="151"/>
+      <c r="E32" s="151"/>
+      <c r="F32" s="156"/>
+      <c r="G32" s="156"/>
+      <c r="H32" s="156"/>
+      <c r="I32" s="156"/>
+      <c r="J32" s="156"/>
+      <c r="K32" s="156"/>
+      <c r="L32" s="156"/>
+      <c r="M32" s="156"/>
+      <c r="N32" s="153"/>
+      <c r="O32" s="153"/>
+      <c r="P32" s="158"/>
       <c r="R32" s="58"/>
       <c r="S32" s="59"/>
       <c r="T32" s="59"/>
@@ -3491,78 +3482,78 @@
     <row r="33" spans="1:29" ht="19" customHeight="1"/>
     <row r="34" spans="1:29">
       <c r="A34" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29">
+      <c r="A35" s="102" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="35" spans="1:29">
-      <c r="A35" s="122" t="s">
+      <c r="B35" s="103"/>
+      <c r="C35" s="103" t="s">
         <v>64</v>
       </c>
-      <c r="B35" s="123"/>
-      <c r="C35" s="123" t="s">
+      <c r="D35" s="103"/>
+      <c r="E35" s="103"/>
+      <c r="F35" s="103"/>
+      <c r="G35" s="103"/>
+      <c r="H35" s="103" t="s">
         <v>65</v>
       </c>
-      <c r="D35" s="123"/>
-      <c r="E35" s="123"/>
-      <c r="F35" s="123"/>
-      <c r="G35" s="123"/>
-      <c r="H35" s="123" t="s">
-        <v>66</v>
-      </c>
-      <c r="I35" s="123"/>
-      <c r="J35" s="123"/>
-      <c r="K35" s="124"/>
+      <c r="I35" s="103"/>
+      <c r="J35" s="103"/>
+      <c r="K35" s="104"/>
       <c r="L35" s="11"/>
       <c r="M35" s="11"/>
       <c r="N35" s="11"/>
       <c r="O35" s="11"/>
     </row>
     <row r="36" spans="1:29">
-      <c r="A36" s="125"/>
-      <c r="B36" s="126"/>
-      <c r="C36" s="127"/>
-      <c r="D36" s="128"/>
-      <c r="E36" s="128"/>
-      <c r="F36" s="128"/>
-      <c r="G36" s="129"/>
-      <c r="H36" s="127"/>
-      <c r="I36" s="128"/>
-      <c r="J36" s="128"/>
-      <c r="K36" s="130"/>
+      <c r="A36" s="90"/>
+      <c r="B36" s="91"/>
+      <c r="C36" s="92"/>
+      <c r="D36" s="93"/>
+      <c r="E36" s="93"/>
+      <c r="F36" s="93"/>
+      <c r="G36" s="94"/>
+      <c r="H36" s="92"/>
+      <c r="I36" s="93"/>
+      <c r="J36" s="93"/>
+      <c r="K36" s="95"/>
       <c r="L36" s="11"/>
       <c r="M36" s="11"/>
       <c r="N36" s="11"/>
       <c r="O36" s="11"/>
     </row>
     <row r="37" spans="1:29">
-      <c r="A37" s="125"/>
-      <c r="B37" s="126"/>
-      <c r="C37" s="127"/>
-      <c r="D37" s="128"/>
-      <c r="E37" s="128"/>
-      <c r="F37" s="128"/>
-      <c r="G37" s="129"/>
-      <c r="H37" s="127"/>
-      <c r="I37" s="128"/>
-      <c r="J37" s="128"/>
-      <c r="K37" s="130"/>
+      <c r="A37" s="90"/>
+      <c r="B37" s="91"/>
+      <c r="C37" s="92"/>
+      <c r="D37" s="93"/>
+      <c r="E37" s="93"/>
+      <c r="F37" s="93"/>
+      <c r="G37" s="94"/>
+      <c r="H37" s="92"/>
+      <c r="I37" s="93"/>
+      <c r="J37" s="93"/>
+      <c r="K37" s="95"/>
       <c r="L37" s="11"/>
       <c r="M37" s="11"/>
       <c r="N37" s="11"/>
       <c r="O37" s="11"/>
     </row>
     <row r="38" spans="1:29">
-      <c r="A38" s="153"/>
-      <c r="B38" s="154"/>
-      <c r="C38" s="155"/>
-      <c r="D38" s="156"/>
-      <c r="E38" s="156"/>
-      <c r="F38" s="156"/>
-      <c r="G38" s="157"/>
-      <c r="H38" s="155"/>
-      <c r="I38" s="156"/>
-      <c r="J38" s="156"/>
-      <c r="K38" s="158"/>
+      <c r="A38" s="96"/>
+      <c r="B38" s="97"/>
+      <c r="C38" s="98"/>
+      <c r="D38" s="99"/>
+      <c r="E38" s="99"/>
+      <c r="F38" s="99"/>
+      <c r="G38" s="100"/>
+      <c r="H38" s="98"/>
+      <c r="I38" s="99"/>
+      <c r="J38" s="99"/>
+      <c r="K38" s="101"/>
       <c r="L38" s="11"/>
       <c r="M38" s="11"/>
       <c r="N38" s="11"/>
@@ -3570,379 +3561,398 @@
     </row>
     <row r="40" spans="1:29">
       <c r="A40" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:29">
       <c r="A41" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29">
+      <c r="A42" s="84" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="42" spans="1:29">
-      <c r="A42" s="146" t="s">
+      <c r="B42" s="85"/>
+      <c r="C42" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="B42" s="147"/>
-      <c r="C42" s="147" t="s">
+      <c r="D42" s="85"/>
+      <c r="E42" s="85"/>
+      <c r="F42" s="85"/>
+      <c r="G42" s="85"/>
+      <c r="H42" s="85"/>
+      <c r="I42" s="85"/>
+      <c r="J42" s="85"/>
+      <c r="K42" s="85"/>
+      <c r="L42" s="85"/>
+      <c r="M42" s="85"/>
+      <c r="N42" s="85"/>
+      <c r="O42" s="85"/>
+      <c r="P42" s="85"/>
+      <c r="Q42" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="D42" s="147"/>
-      <c r="E42" s="147"/>
-      <c r="F42" s="147"/>
-      <c r="G42" s="147"/>
-      <c r="H42" s="147"/>
-      <c r="I42" s="147"/>
-      <c r="J42" s="147"/>
-      <c r="K42" s="147"/>
-      <c r="L42" s="147"/>
-      <c r="M42" s="147"/>
-      <c r="N42" s="147"/>
-      <c r="O42" s="147"/>
-      <c r="P42" s="147"/>
-      <c r="Q42" s="147" t="s">
-        <v>71</v>
-      </c>
-      <c r="R42" s="147"/>
-      <c r="S42" s="147"/>
-      <c r="T42" s="147"/>
-      <c r="U42" s="147"/>
-      <c r="V42" s="147"/>
-      <c r="W42" s="147"/>
-      <c r="X42" s="147"/>
-      <c r="Y42" s="147"/>
-      <c r="Z42" s="147"/>
-      <c r="AA42" s="147"/>
-      <c r="AB42" s="147"/>
-      <c r="AC42" s="148"/>
+      <c r="R42" s="85"/>
+      <c r="S42" s="85"/>
+      <c r="T42" s="85"/>
+      <c r="U42" s="85"/>
+      <c r="V42" s="85"/>
+      <c r="W42" s="85"/>
+      <c r="X42" s="85"/>
+      <c r="Y42" s="85"/>
+      <c r="Z42" s="85"/>
+      <c r="AA42" s="85"/>
+      <c r="AB42" s="85"/>
+      <c r="AC42" s="89"/>
     </row>
     <row r="43" spans="1:29">
-      <c r="A43" s="149"/>
-      <c r="B43" s="150"/>
-      <c r="C43" s="151"/>
-      <c r="D43" s="151"/>
-      <c r="E43" s="151"/>
-      <c r="F43" s="151"/>
-      <c r="G43" s="151"/>
-      <c r="H43" s="151"/>
-      <c r="I43" s="151"/>
-      <c r="J43" s="151"/>
-      <c r="K43" s="151"/>
-      <c r="L43" s="151"/>
-      <c r="M43" s="151"/>
-      <c r="N43" s="151"/>
-      <c r="O43" s="151"/>
-      <c r="P43" s="151"/>
-      <c r="Q43" s="151"/>
-      <c r="R43" s="151"/>
-      <c r="S43" s="151"/>
-      <c r="T43" s="151"/>
-      <c r="U43" s="151"/>
-      <c r="V43" s="151"/>
-      <c r="W43" s="151"/>
-      <c r="X43" s="151"/>
-      <c r="Y43" s="151"/>
-      <c r="Z43" s="151"/>
-      <c r="AA43" s="151"/>
-      <c r="AB43" s="151"/>
-      <c r="AC43" s="152"/>
+      <c r="A43" s="76"/>
+      <c r="B43" s="77"/>
+      <c r="C43" s="78"/>
+      <c r="D43" s="78"/>
+      <c r="E43" s="78"/>
+      <c r="F43" s="78"/>
+      <c r="G43" s="78"/>
+      <c r="H43" s="78"/>
+      <c r="I43" s="78"/>
+      <c r="J43" s="78"/>
+      <c r="K43" s="78"/>
+      <c r="L43" s="78"/>
+      <c r="M43" s="78"/>
+      <c r="N43" s="78"/>
+      <c r="O43" s="78"/>
+      <c r="P43" s="78"/>
+      <c r="Q43" s="78"/>
+      <c r="R43" s="78"/>
+      <c r="S43" s="78"/>
+      <c r="T43" s="78"/>
+      <c r="U43" s="78"/>
+      <c r="V43" s="78"/>
+      <c r="W43" s="78"/>
+      <c r="X43" s="78"/>
+      <c r="Y43" s="78"/>
+      <c r="Z43" s="78"/>
+      <c r="AA43" s="78"/>
+      <c r="AB43" s="78"/>
+      <c r="AC43" s="79"/>
     </row>
     <row r="44" spans="1:29">
-      <c r="A44" s="149"/>
-      <c r="B44" s="150"/>
-      <c r="C44" s="151"/>
-      <c r="D44" s="151"/>
-      <c r="E44" s="151"/>
-      <c r="F44" s="151"/>
-      <c r="G44" s="151"/>
-      <c r="H44" s="151"/>
-      <c r="I44" s="151"/>
-      <c r="J44" s="151"/>
-      <c r="K44" s="151"/>
-      <c r="L44" s="151"/>
-      <c r="M44" s="151"/>
-      <c r="N44" s="151"/>
-      <c r="O44" s="151"/>
-      <c r="P44" s="151"/>
-      <c r="Q44" s="151"/>
-      <c r="R44" s="151"/>
-      <c r="S44" s="151"/>
-      <c r="T44" s="151"/>
-      <c r="U44" s="151"/>
-      <c r="V44" s="151"/>
-      <c r="W44" s="151"/>
-      <c r="X44" s="151"/>
-      <c r="Y44" s="151"/>
-      <c r="Z44" s="151"/>
-      <c r="AA44" s="151"/>
-      <c r="AB44" s="151"/>
-      <c r="AC44" s="152"/>
+      <c r="A44" s="76"/>
+      <c r="B44" s="77"/>
+      <c r="C44" s="78"/>
+      <c r="D44" s="78"/>
+      <c r="E44" s="78"/>
+      <c r="F44" s="78"/>
+      <c r="G44" s="78"/>
+      <c r="H44" s="78"/>
+      <c r="I44" s="78"/>
+      <c r="J44" s="78"/>
+      <c r="K44" s="78"/>
+      <c r="L44" s="78"/>
+      <c r="M44" s="78"/>
+      <c r="N44" s="78"/>
+      <c r="O44" s="78"/>
+      <c r="P44" s="78"/>
+      <c r="Q44" s="78"/>
+      <c r="R44" s="78"/>
+      <c r="S44" s="78"/>
+      <c r="T44" s="78"/>
+      <c r="U44" s="78"/>
+      <c r="V44" s="78"/>
+      <c r="W44" s="78"/>
+      <c r="X44" s="78"/>
+      <c r="Y44" s="78"/>
+      <c r="Z44" s="78"/>
+      <c r="AA44" s="78"/>
+      <c r="AB44" s="78"/>
+      <c r="AC44" s="79"/>
     </row>
     <row r="45" spans="1:29">
-      <c r="A45" s="162"/>
-      <c r="B45" s="163"/>
-      <c r="C45" s="164"/>
-      <c r="D45" s="164"/>
-      <c r="E45" s="164"/>
-      <c r="F45" s="164"/>
-      <c r="G45" s="164"/>
-      <c r="H45" s="164"/>
-      <c r="I45" s="164"/>
-      <c r="J45" s="164"/>
-      <c r="K45" s="164"/>
-      <c r="L45" s="164"/>
-      <c r="M45" s="164"/>
-      <c r="N45" s="164"/>
-      <c r="O45" s="164"/>
-      <c r="P45" s="164"/>
-      <c r="Q45" s="164"/>
-      <c r="R45" s="164"/>
-      <c r="S45" s="164"/>
-      <c r="T45" s="164"/>
-      <c r="U45" s="164"/>
-      <c r="V45" s="164"/>
-      <c r="W45" s="164"/>
-      <c r="X45" s="164"/>
-      <c r="Y45" s="164"/>
-      <c r="Z45" s="164"/>
-      <c r="AA45" s="164"/>
-      <c r="AB45" s="164"/>
-      <c r="AC45" s="165"/>
+      <c r="A45" s="80"/>
+      <c r="B45" s="81"/>
+      <c r="C45" s="82"/>
+      <c r="D45" s="82"/>
+      <c r="E45" s="82"/>
+      <c r="F45" s="82"/>
+      <c r="G45" s="82"/>
+      <c r="H45" s="82"/>
+      <c r="I45" s="82"/>
+      <c r="J45" s="82"/>
+      <c r="K45" s="82"/>
+      <c r="L45" s="82"/>
+      <c r="M45" s="82"/>
+      <c r="N45" s="82"/>
+      <c r="O45" s="82"/>
+      <c r="P45" s="82"/>
+      <c r="Q45" s="82"/>
+      <c r="R45" s="82"/>
+      <c r="S45" s="82"/>
+      <c r="T45" s="82"/>
+      <c r="U45" s="82"/>
+      <c r="V45" s="82"/>
+      <c r="W45" s="82"/>
+      <c r="X45" s="82"/>
+      <c r="Y45" s="82"/>
+      <c r="Z45" s="82"/>
+      <c r="AA45" s="82"/>
+      <c r="AB45" s="82"/>
+      <c r="AC45" s="83"/>
     </row>
     <row r="46" spans="1:29">
       <c r="A46" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="47" spans="1:29">
-      <c r="A47" s="146" t="s">
+      <c r="A47" s="84" t="s">
+        <v>68</v>
+      </c>
+      <c r="B47" s="85"/>
+      <c r="C47" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="B47" s="147"/>
-      <c r="C47" s="147" t="s">
+      <c r="D47" s="85"/>
+      <c r="E47" s="85"/>
+      <c r="F47" s="85"/>
+      <c r="G47" s="85"/>
+      <c r="H47" s="85"/>
+      <c r="I47" s="85"/>
+      <c r="J47" s="85"/>
+      <c r="K47" s="85"/>
+      <c r="L47" s="85"/>
+      <c r="M47" s="85"/>
+      <c r="N47" s="85"/>
+      <c r="O47" s="85"/>
+      <c r="P47" s="85"/>
+      <c r="Q47" s="86" t="s">
         <v>70</v>
       </c>
-      <c r="D47" s="147"/>
-      <c r="E47" s="147"/>
-      <c r="F47" s="147"/>
-      <c r="G47" s="147"/>
-      <c r="H47" s="147"/>
-      <c r="I47" s="147"/>
-      <c r="J47" s="147"/>
-      <c r="K47" s="147"/>
-      <c r="L47" s="147"/>
-      <c r="M47" s="147"/>
-      <c r="N47" s="147"/>
-      <c r="O47" s="147"/>
-      <c r="P47" s="147"/>
-      <c r="Q47" s="159" t="s">
-        <v>71</v>
-      </c>
-      <c r="R47" s="160"/>
-      <c r="S47" s="160"/>
-      <c r="T47" s="160"/>
-      <c r="U47" s="160"/>
-      <c r="V47" s="160"/>
-      <c r="W47" s="160"/>
-      <c r="X47" s="160"/>
-      <c r="Y47" s="160"/>
-      <c r="Z47" s="160"/>
-      <c r="AA47" s="160"/>
-      <c r="AB47" s="160"/>
-      <c r="AC47" s="161"/>
+      <c r="R47" s="87"/>
+      <c r="S47" s="87"/>
+      <c r="T47" s="87"/>
+      <c r="U47" s="87"/>
+      <c r="V47" s="87"/>
+      <c r="W47" s="87"/>
+      <c r="X47" s="87"/>
+      <c r="Y47" s="87"/>
+      <c r="Z47" s="87"/>
+      <c r="AA47" s="87"/>
+      <c r="AB47" s="87"/>
+      <c r="AC47" s="88"/>
     </row>
     <row r="48" spans="1:29">
-      <c r="A48" s="149"/>
-      <c r="B48" s="150"/>
-      <c r="C48" s="151"/>
-      <c r="D48" s="151"/>
-      <c r="E48" s="151"/>
-      <c r="F48" s="151"/>
-      <c r="G48" s="151"/>
-      <c r="H48" s="151"/>
-      <c r="I48" s="151"/>
-      <c r="J48" s="151"/>
-      <c r="K48" s="151"/>
-      <c r="L48" s="151"/>
-      <c r="M48" s="151"/>
-      <c r="N48" s="151"/>
-      <c r="O48" s="151"/>
-      <c r="P48" s="151"/>
-      <c r="Q48" s="151"/>
-      <c r="R48" s="151"/>
-      <c r="S48" s="151"/>
-      <c r="T48" s="151"/>
-      <c r="U48" s="151"/>
-      <c r="V48" s="151"/>
-      <c r="W48" s="151"/>
-      <c r="X48" s="151"/>
-      <c r="Y48" s="151"/>
-      <c r="Z48" s="151"/>
-      <c r="AA48" s="151"/>
-      <c r="AB48" s="151"/>
-      <c r="AC48" s="152"/>
+      <c r="A48" s="76"/>
+      <c r="B48" s="77"/>
+      <c r="C48" s="78"/>
+      <c r="D48" s="78"/>
+      <c r="E48" s="78"/>
+      <c r="F48" s="78"/>
+      <c r="G48" s="78"/>
+      <c r="H48" s="78"/>
+      <c r="I48" s="78"/>
+      <c r="J48" s="78"/>
+      <c r="K48" s="78"/>
+      <c r="L48" s="78"/>
+      <c r="M48" s="78"/>
+      <c r="N48" s="78"/>
+      <c r="O48" s="78"/>
+      <c r="P48" s="78"/>
+      <c r="Q48" s="78"/>
+      <c r="R48" s="78"/>
+      <c r="S48" s="78"/>
+      <c r="T48" s="78"/>
+      <c r="U48" s="78"/>
+      <c r="V48" s="78"/>
+      <c r="W48" s="78"/>
+      <c r="X48" s="78"/>
+      <c r="Y48" s="78"/>
+      <c r="Z48" s="78"/>
+      <c r="AA48" s="78"/>
+      <c r="AB48" s="78"/>
+      <c r="AC48" s="79"/>
     </row>
     <row r="49" spans="1:29">
-      <c r="A49" s="149"/>
-      <c r="B49" s="150"/>
-      <c r="C49" s="151"/>
-      <c r="D49" s="151"/>
-      <c r="E49" s="151"/>
-      <c r="F49" s="151"/>
-      <c r="G49" s="151"/>
-      <c r="H49" s="151"/>
-      <c r="I49" s="151"/>
-      <c r="J49" s="151"/>
-      <c r="K49" s="151"/>
-      <c r="L49" s="151"/>
-      <c r="M49" s="151"/>
-      <c r="N49" s="151"/>
-      <c r="O49" s="151"/>
-      <c r="P49" s="151"/>
-      <c r="Q49" s="151"/>
-      <c r="R49" s="151"/>
-      <c r="S49" s="151"/>
-      <c r="T49" s="151"/>
-      <c r="U49" s="151"/>
-      <c r="V49" s="151"/>
-      <c r="W49" s="151"/>
-      <c r="X49" s="151"/>
-      <c r="Y49" s="151"/>
-      <c r="Z49" s="151"/>
-      <c r="AA49" s="151"/>
-      <c r="AB49" s="151"/>
-      <c r="AC49" s="152"/>
+      <c r="A49" s="76"/>
+      <c r="B49" s="77"/>
+      <c r="C49" s="78"/>
+      <c r="D49" s="78"/>
+      <c r="E49" s="78"/>
+      <c r="F49" s="78"/>
+      <c r="G49" s="78"/>
+      <c r="H49" s="78"/>
+      <c r="I49" s="78"/>
+      <c r="J49" s="78"/>
+      <c r="K49" s="78"/>
+      <c r="L49" s="78"/>
+      <c r="M49" s="78"/>
+      <c r="N49" s="78"/>
+      <c r="O49" s="78"/>
+      <c r="P49" s="78"/>
+      <c r="Q49" s="78"/>
+      <c r="R49" s="78"/>
+      <c r="S49" s="78"/>
+      <c r="T49" s="78"/>
+      <c r="U49" s="78"/>
+      <c r="V49" s="78"/>
+      <c r="W49" s="78"/>
+      <c r="X49" s="78"/>
+      <c r="Y49" s="78"/>
+      <c r="Z49" s="78"/>
+      <c r="AA49" s="78"/>
+      <c r="AB49" s="78"/>
+      <c r="AC49" s="79"/>
     </row>
     <row r="50" spans="1:29">
-      <c r="A50" s="149"/>
-      <c r="B50" s="150"/>
-      <c r="C50" s="151"/>
-      <c r="D50" s="151"/>
-      <c r="E50" s="151"/>
-      <c r="F50" s="151"/>
-      <c r="G50" s="151"/>
-      <c r="H50" s="151"/>
-      <c r="I50" s="151"/>
-      <c r="J50" s="151"/>
-      <c r="K50" s="151"/>
-      <c r="L50" s="151"/>
-      <c r="M50" s="151"/>
-      <c r="N50" s="151"/>
-      <c r="O50" s="151"/>
-      <c r="P50" s="151"/>
-      <c r="Q50" s="151"/>
-      <c r="R50" s="151"/>
-      <c r="S50" s="151"/>
-      <c r="T50" s="151"/>
-      <c r="U50" s="151"/>
-      <c r="V50" s="151"/>
-      <c r="W50" s="151"/>
-      <c r="X50" s="151"/>
-      <c r="Y50" s="151"/>
-      <c r="Z50" s="151"/>
-      <c r="AA50" s="151"/>
-      <c r="AB50" s="151"/>
-      <c r="AC50" s="152"/>
+      <c r="A50" s="76"/>
+      <c r="B50" s="77"/>
+      <c r="C50" s="78"/>
+      <c r="D50" s="78"/>
+      <c r="E50" s="78"/>
+      <c r="F50" s="78"/>
+      <c r="G50" s="78"/>
+      <c r="H50" s="78"/>
+      <c r="I50" s="78"/>
+      <c r="J50" s="78"/>
+      <c r="K50" s="78"/>
+      <c r="L50" s="78"/>
+      <c r="M50" s="78"/>
+      <c r="N50" s="78"/>
+      <c r="O50" s="78"/>
+      <c r="P50" s="78"/>
+      <c r="Q50" s="78"/>
+      <c r="R50" s="78"/>
+      <c r="S50" s="78"/>
+      <c r="T50" s="78"/>
+      <c r="U50" s="78"/>
+      <c r="V50" s="78"/>
+      <c r="W50" s="78"/>
+      <c r="X50" s="78"/>
+      <c r="Y50" s="78"/>
+      <c r="Z50" s="78"/>
+      <c r="AA50" s="78"/>
+      <c r="AB50" s="78"/>
+      <c r="AC50" s="79"/>
     </row>
     <row r="51" spans="1:29">
-      <c r="A51" s="149"/>
-      <c r="B51" s="150"/>
-      <c r="C51" s="151"/>
-      <c r="D51" s="151"/>
-      <c r="E51" s="151"/>
-      <c r="F51" s="151"/>
-      <c r="G51" s="151"/>
-      <c r="H51" s="151"/>
-      <c r="I51" s="151"/>
-      <c r="J51" s="151"/>
-      <c r="K51" s="151"/>
-      <c r="L51" s="151"/>
-      <c r="M51" s="151"/>
-      <c r="N51" s="151"/>
-      <c r="O51" s="151"/>
-      <c r="P51" s="151"/>
-      <c r="Q51" s="151"/>
-      <c r="R51" s="151"/>
-      <c r="S51" s="151"/>
-      <c r="T51" s="151"/>
-      <c r="U51" s="151"/>
-      <c r="V51" s="151"/>
-      <c r="W51" s="151"/>
-      <c r="X51" s="151"/>
-      <c r="Y51" s="151"/>
-      <c r="Z51" s="151"/>
-      <c r="AA51" s="151"/>
-      <c r="AB51" s="151"/>
-      <c r="AC51" s="152"/>
+      <c r="A51" s="76"/>
+      <c r="B51" s="77"/>
+      <c r="C51" s="78"/>
+      <c r="D51" s="78"/>
+      <c r="E51" s="78"/>
+      <c r="F51" s="78"/>
+      <c r="G51" s="78"/>
+      <c r="H51" s="78"/>
+      <c r="I51" s="78"/>
+      <c r="J51" s="78"/>
+      <c r="K51" s="78"/>
+      <c r="L51" s="78"/>
+      <c r="M51" s="78"/>
+      <c r="N51" s="78"/>
+      <c r="O51" s="78"/>
+      <c r="P51" s="78"/>
+      <c r="Q51" s="78"/>
+      <c r="R51" s="78"/>
+      <c r="S51" s="78"/>
+      <c r="T51" s="78"/>
+      <c r="U51" s="78"/>
+      <c r="V51" s="78"/>
+      <c r="W51" s="78"/>
+      <c r="X51" s="78"/>
+      <c r="Y51" s="78"/>
+      <c r="Z51" s="78"/>
+      <c r="AA51" s="78"/>
+      <c r="AB51" s="78"/>
+      <c r="AC51" s="79"/>
     </row>
     <row r="52" spans="1:29">
-      <c r="A52" s="162"/>
-      <c r="B52" s="163"/>
-      <c r="C52" s="164"/>
-      <c r="D52" s="164"/>
-      <c r="E52" s="164"/>
-      <c r="F52" s="164"/>
-      <c r="G52" s="164"/>
-      <c r="H52" s="164"/>
-      <c r="I52" s="164"/>
-      <c r="J52" s="164"/>
-      <c r="K52" s="164"/>
-      <c r="L52" s="164"/>
-      <c r="M52" s="164"/>
-      <c r="N52" s="164"/>
-      <c r="O52" s="164"/>
-      <c r="P52" s="164"/>
-      <c r="Q52" s="164"/>
-      <c r="R52" s="164"/>
-      <c r="S52" s="164"/>
-      <c r="T52" s="164"/>
-      <c r="U52" s="164"/>
-      <c r="V52" s="164"/>
-      <c r="W52" s="164"/>
-      <c r="X52" s="164"/>
-      <c r="Y52" s="164"/>
-      <c r="Z52" s="164"/>
-      <c r="AA52" s="164"/>
-      <c r="AB52" s="164"/>
-      <c r="AC52" s="165"/>
+      <c r="A52" s="80"/>
+      <c r="B52" s="81"/>
+      <c r="C52" s="82"/>
+      <c r="D52" s="82"/>
+      <c r="E52" s="82"/>
+      <c r="F52" s="82"/>
+      <c r="G52" s="82"/>
+      <c r="H52" s="82"/>
+      <c r="I52" s="82"/>
+      <c r="J52" s="82"/>
+      <c r="K52" s="82"/>
+      <c r="L52" s="82"/>
+      <c r="M52" s="82"/>
+      <c r="N52" s="82"/>
+      <c r="O52" s="82"/>
+      <c r="P52" s="82"/>
+      <c r="Q52" s="82"/>
+      <c r="R52" s="82"/>
+      <c r="S52" s="82"/>
+      <c r="T52" s="82"/>
+      <c r="U52" s="82"/>
+      <c r="V52" s="82"/>
+      <c r="W52" s="82"/>
+      <c r="X52" s="82"/>
+      <c r="Y52" s="82"/>
+      <c r="Z52" s="82"/>
+      <c r="AA52" s="82"/>
+      <c r="AB52" s="82"/>
+      <c r="AC52" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="115">
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:P51"/>
-    <mergeCell ref="Q51:AC51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:P52"/>
-    <mergeCell ref="Q52:AC52"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:P49"/>
-    <mergeCell ref="Q49:AC49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:P50"/>
-    <mergeCell ref="Q50:AC50"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:P47"/>
-    <mergeCell ref="Q47:AC47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:P48"/>
-    <mergeCell ref="Q48:AC48"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:P44"/>
-    <mergeCell ref="Q44:AC44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:P45"/>
-    <mergeCell ref="Q45:AC45"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:P42"/>
-    <mergeCell ref="Q42:AC42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:P43"/>
-    <mergeCell ref="Q43:AC43"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F32:M32"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="N32:P32"/>
+    <mergeCell ref="F31:M31"/>
+    <mergeCell ref="F27:M27"/>
+    <mergeCell ref="N27:P27"/>
+    <mergeCell ref="F28:M28"/>
+    <mergeCell ref="F29:M29"/>
+    <mergeCell ref="F30:M30"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="W2:AB2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:R2"/>
+    <mergeCell ref="W1:AB1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="C35:G35"/>
     <mergeCell ref="H35:K35"/>
@@ -3967,61 +3977,42 @@
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="A21:B22"/>
-    <mergeCell ref="W2:AB2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:R2"/>
-    <mergeCell ref="W1:AB1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F32:M32"/>
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="N30:P30"/>
-    <mergeCell ref="N31:P31"/>
-    <mergeCell ref="N32:P32"/>
-    <mergeCell ref="F31:M31"/>
-    <mergeCell ref="F27:M27"/>
-    <mergeCell ref="N27:P27"/>
-    <mergeCell ref="F28:M28"/>
-    <mergeCell ref="F29:M29"/>
-    <mergeCell ref="F30:M30"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:P42"/>
+    <mergeCell ref="Q42:AC42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:P43"/>
+    <mergeCell ref="Q43:AC43"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:P47"/>
+    <mergeCell ref="Q47:AC47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:P48"/>
+    <mergeCell ref="Q48:AC48"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:P44"/>
+    <mergeCell ref="Q44:AC44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:P45"/>
+    <mergeCell ref="Q45:AC45"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:P51"/>
+    <mergeCell ref="Q51:AC51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:P52"/>
+    <mergeCell ref="Q52:AC52"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:P49"/>
+    <mergeCell ref="Q49:AC49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:P50"/>
+    <mergeCell ref="Q50:AC50"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <conditionalFormatting sqref="F4:J9 L4:O9">
